--- a/Document/Featrue list and styles.xlsx
+++ b/Document/Featrue list and styles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="polygon" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="410">
   <si>
     <t>形状分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,10 +559,6 @@
   </si>
   <si>
     <t>饮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1529,6 +1525,58 @@
   </si>
   <si>
     <t>已用到的feature标色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+  </si>
+  <si>
+    <t>polygon
+point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加电梯和楼梯的feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2418,51 +2466,35 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2499,6 +2531,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2517,6 +2573,27 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2529,47 +2606,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2852,11 +2900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2893,7 +2941,7 @@
     </row>
     <row r="2" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="130"/>
       <c r="E2" s="130"/>
@@ -2903,7 +2951,7 @@
       <c r="I2" s="130"/>
       <c r="J2" s="131"/>
       <c r="K2" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L2" s="133"/>
       <c r="M2" s="133"/>
@@ -2912,7 +2960,7 @@
       <c r="P2" s="134"/>
     </row>
     <row r="3" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="152" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="128"/>
@@ -2941,43 +2989,43 @@
         <v>7</v>
       </c>
       <c r="O3" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="P3" s="111"/>
+    </row>
+    <row r="4" spans="3:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="147">
+        <v>99</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149">
+        <v>99</v>
+      </c>
+      <c r="F4" s="148"/>
+      <c r="G4" s="150" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" s="151"/>
+      <c r="I4" s="85" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>331</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="85" t="s">
         <v>335</v>
-      </c>
-      <c r="P3" s="111"/>
-    </row>
-    <row r="4" spans="3:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="139">
-        <v>99</v>
-      </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141">
-        <v>99</v>
-      </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="142" t="s">
-        <v>331</v>
-      </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="85" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" s="85" t="s">
-        <v>332</v>
-      </c>
-      <c r="M4" s="85" t="s">
-        <v>338</v>
-      </c>
-      <c r="N4" s="85" t="s">
-        <v>341</v>
-      </c>
-      <c r="O4" s="85" t="s">
-        <v>336</v>
       </c>
       <c r="P4" s="88"/>
     </row>
@@ -2985,19 +3033,19 @@
       <c r="C5" s="135">
         <v>10</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="123" t="s">
+      <c r="H5" s="145" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3015,11 +3063,11 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C6" s="136"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="126"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3035,11 +3083,11 @@
     </row>
     <row r="7" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C7" s="136"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="126"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
@@ -3055,11 +3103,11 @@
     </row>
     <row r="8" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C8" s="136"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="126"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="146"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -3075,11 +3123,11 @@
     </row>
     <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C9" s="136"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="126"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="146"/>
       <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3095,11 +3143,11 @@
     </row>
     <row r="10" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C10" s="136"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="126"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="146"/>
       <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
@@ -3115,11 +3163,11 @@
     </row>
     <row r="11" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C11" s="136"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="126"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="146"/>
       <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
@@ -3135,11 +3183,11 @@
     </row>
     <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C12" s="136"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="126"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="146"/>
       <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
@@ -3155,11 +3203,11 @@
     </row>
     <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C13" s="136"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="146"/>
       <c r="I13" s="11" t="s">
         <v>30</v>
       </c>
@@ -3175,11 +3223,11 @@
     </row>
     <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C14" s="136"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="126"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11" t="s">
         <v>33</v>
       </c>
@@ -3195,11 +3243,11 @@
     </row>
     <row r="15" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C15" s="136"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="126"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3215,11 +3263,11 @@
     </row>
     <row r="16" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C16" s="136"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="126"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="146"/>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3235,11 +3283,11 @@
     </row>
     <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C17" s="136"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="126"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="146"/>
       <c r="I17" s="11" t="s">
         <v>39</v>
       </c>
@@ -3255,11 +3303,11 @@
     </row>
     <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C18" s="136"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="126"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="146"/>
       <c r="I18" s="11" t="s">
         <v>41</v>
       </c>
@@ -3275,11 +3323,11 @@
     </row>
     <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C19" s="136"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="126"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="146"/>
       <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
@@ -3295,11 +3343,11 @@
     </row>
     <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C20" s="136"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="126"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="146"/>
       <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
@@ -3315,11 +3363,11 @@
     </row>
     <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C21" s="136"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="126"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="146"/>
       <c r="I21" s="11" t="s">
         <v>47</v>
       </c>
@@ -3335,11 +3383,11 @@
     </row>
     <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C22" s="136"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="126"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="146"/>
       <c r="I22" s="11" t="s">
         <v>49</v>
       </c>
@@ -3355,11 +3403,11 @@
     </row>
     <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C23" s="136"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="126"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="146"/>
       <c r="I23" s="11" t="s">
         <v>51</v>
       </c>
@@ -3375,11 +3423,11 @@
     </row>
     <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C24" s="136"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="126"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="146"/>
       <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
@@ -3395,11 +3443,11 @@
     </row>
     <row r="25" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C25" s="136"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="126"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="146"/>
       <c r="I25" s="11" t="s">
         <v>55</v>
       </c>
@@ -3415,11 +3463,11 @@
     </row>
     <row r="26" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C26" s="136"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="126"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="146"/>
       <c r="I26" s="11" t="s">
         <v>57</v>
       </c>
@@ -3435,11 +3483,11 @@
     </row>
     <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C27" s="136"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="126"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="146"/>
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
@@ -3455,11 +3503,11 @@
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="136"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="126"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="146"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="91"/>
@@ -3471,13 +3519,13 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="136"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="112" t="s">
+      <c r="D29" s="140"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="113" t="s">
+      <c r="H29" s="140" t="s">
         <v>61</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -3495,11 +3543,11 @@
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="136"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="113"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="140"/>
       <c r="I30" s="11" t="s">
         <v>15</v>
       </c>
@@ -3515,11 +3563,11 @@
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="136"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="140"/>
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
@@ -3535,11 +3583,11 @@
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="136"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="140"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="91"/>
@@ -3551,11 +3599,11 @@
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C33" s="136"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="140"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="91"/>
@@ -3567,13 +3615,13 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34" s="136"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="112" t="s">
+      <c r="D34" s="140"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="146" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -3591,11 +3639,11 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C35" s="136"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="126"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="146"/>
       <c r="I35" s="11"/>
       <c r="J35" s="16"/>
       <c r="K35" s="91"/>
@@ -3607,13 +3655,13 @@
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36" s="136"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="112" t="s">
+      <c r="D36" s="140"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="146" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -3631,11 +3679,11 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C37" s="136"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="126"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="146"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="91"/>
@@ -3647,17 +3695,17 @@
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C38" s="136"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="112" t="s">
+      <c r="D38" s="140"/>
+      <c r="E38" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="113" t="s">
+      <c r="F38" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="112" t="s">
+      <c r="G38" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="113" t="s">
+      <c r="H38" s="140" t="s">
         <v>70</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -3675,11 +3723,11 @@
     </row>
     <row r="39" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C39" s="136"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="113"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="140"/>
       <c r="I39" s="11" t="s">
         <v>15</v>
       </c>
@@ -3695,11 +3743,11 @@
     </row>
     <row r="40" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C40" s="136"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="140"/>
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
@@ -3715,11 +3763,11 @@
     </row>
     <row r="41" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C41" s="136"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="140"/>
       <c r="I41" s="11" t="s">
         <v>20</v>
       </c>
@@ -3735,11 +3783,11 @@
     </row>
     <row r="42" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C42" s="136"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="140"/>
       <c r="I42" s="11" t="s">
         <v>22</v>
       </c>
@@ -3755,11 +3803,11 @@
     </row>
     <row r="43" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C43" s="136"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="113"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="140"/>
       <c r="I43" s="11" t="s">
         <v>24</v>
       </c>
@@ -3775,11 +3823,11 @@
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C44" s="136"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="140"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
       <c r="K44" s="91"/>
@@ -3791,13 +3839,13 @@
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C45" s="136"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="112" t="s">
+      <c r="D45" s="140"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="113" t="s">
+      <c r="H45" s="140" t="s">
         <v>61</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -3813,11 +3861,11 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C46" s="136"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="140"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="91"/>
@@ -3829,13 +3877,13 @@
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C47" s="136"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="112" t="s">
+      <c r="D47" s="140"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="113" t="s">
+      <c r="H47" s="140" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -3853,11 +3901,11 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C48" s="136"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="113"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="140"/>
       <c r="I48" s="11" t="s">
         <v>15</v>
       </c>
@@ -3873,11 +3921,11 @@
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="136"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="113"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="140"/>
       <c r="I49" s="11" t="s">
         <v>18</v>
       </c>
@@ -3893,11 +3941,11 @@
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="136"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="113"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="140"/>
       <c r="I50" s="11" t="s">
         <v>20</v>
       </c>
@@ -3913,11 +3961,11 @@
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="136"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="113"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="140"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
       <c r="K51" s="91"/>
@@ -3929,13 +3977,13 @@
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="136"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="112" t="s">
+      <c r="D52" s="140"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="113" t="s">
+      <c r="H52" s="140" t="s">
         <v>85</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -3953,11 +4001,11 @@
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="136"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="113"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="140"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="91"/>
@@ -3969,13 +4017,13 @@
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="136"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="114" t="s">
+      <c r="D54" s="140"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="116" t="s">
+      <c r="H54" s="141" t="s">
         <v>88</v>
       </c>
       <c r="I54" s="11"/>
@@ -3989,11 +4037,11 @@
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="136"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="124"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="155"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
       <c r="K55" s="91"/>
@@ -4005,11 +4053,11 @@
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="136"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="124"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="155"/>
       <c r="I56" s="19" t="s">
         <v>89</v>
       </c>
@@ -4017,29 +4065,29 @@
         <v>90</v>
       </c>
       <c r="K56" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L56" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="N56" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="O56" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="M56" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="N56" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="P56" s="22"/>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="136"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="125"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="139"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="91"/>
@@ -4051,13 +4099,13 @@
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="136"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="112" t="s">
+      <c r="D58" s="140"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="113" t="s">
+      <c r="H58" s="140" t="s">
         <v>92</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -4075,11 +4123,11 @@
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="136"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="113"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="140"/>
       <c r="I59" s="11" t="s">
         <v>15</v>
       </c>
@@ -4095,11 +4143,11 @@
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="136"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="113"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="140"/>
       <c r="I60" s="11" t="s">
         <v>18</v>
       </c>
@@ -4115,11 +4163,11 @@
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="136"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="113"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="140"/>
       <c r="I61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4135,11 +4183,11 @@
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="136"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="113"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="140"/>
       <c r="I62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4155,11 +4203,11 @@
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="136"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="113"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="140"/>
       <c r="I63" s="11" t="s">
         <v>24</v>
       </c>
@@ -4175,11 +4223,11 @@
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="136"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="112"/>
-      <c r="H64" s="113"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="140"/>
       <c r="I64" s="11" t="s">
         <v>26</v>
       </c>
@@ -4195,11 +4243,11 @@
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C65" s="136"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="113"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="140"/>
       <c r="I65" s="11" t="s">
         <v>28</v>
       </c>
@@ -4215,11 +4263,11 @@
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C66" s="136"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="113"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="140"/>
       <c r="I66" s="11" t="s">
         <v>101</v>
       </c>
@@ -4235,11 +4283,11 @@
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C67" s="136"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="113"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="140"/>
       <c r="I67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4255,17 +4303,17 @@
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C68" s="136"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="112" t="s">
+      <c r="D68" s="140"/>
+      <c r="E68" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="113" t="s">
+      <c r="F68" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="G68" s="112" t="s">
+      <c r="G68" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="113" t="s">
+      <c r="H68" s="140" t="s">
         <v>105</v>
       </c>
       <c r="I68" s="11" t="s">
@@ -4283,11 +4331,11 @@
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C69" s="136"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="113"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="140"/>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="91"/>
@@ -4299,13 +4347,13 @@
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C70" s="136"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="112" t="s">
+      <c r="D70" s="140"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="H70" s="113" t="s">
+      <c r="H70" s="140" t="s">
         <v>61</v>
       </c>
       <c r="I70" s="11" t="s">
@@ -4321,11 +4369,11 @@
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C71" s="136"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="112"/>
-      <c r="H71" s="113"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="140"/>
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
       <c r="K71" s="91"/>
@@ -4337,13 +4385,13 @@
     </row>
     <row r="72" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C72" s="136"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="112" t="s">
+      <c r="D72" s="140"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H72" s="118" t="s">
+      <c r="H72" s="157" t="s">
         <v>65</v>
       </c>
       <c r="I72" s="23" t="s">
@@ -4365,11 +4413,11 @@
     </row>
     <row r="73" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C73" s="136"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="118"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="144"/>
+      <c r="H73" s="157"/>
       <c r="I73" s="23" t="s">
         <v>15</v>
       </c>
@@ -4389,11 +4437,11 @@
     </row>
     <row r="74" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C74" s="136"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="118"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="144"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="144"/>
+      <c r="H74" s="157"/>
       <c r="I74" s="23" t="s">
         <v>18</v>
       </c>
@@ -4413,11 +4461,11 @@
     </row>
     <row r="75" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C75" s="136"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="112"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="118"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="144"/>
+      <c r="H75" s="157"/>
       <c r="I75" s="23" t="s">
         <v>20</v>
       </c>
@@ -4437,11 +4485,11 @@
     </row>
     <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C76" s="136"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="118"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="144"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="157"/>
       <c r="I76" s="23" t="s">
         <v>22</v>
       </c>
@@ -4461,11 +4509,11 @@
     </row>
     <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C77" s="136"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="118"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="157"/>
       <c r="I77" s="23"/>
       <c r="J77" s="24"/>
       <c r="K77" s="93"/>
@@ -4477,13 +4525,13 @@
     </row>
     <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C78" s="136"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="112" t="s">
+      <c r="D78" s="140"/>
+      <c r="E78" s="144"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="H78" s="118" t="s">
+      <c r="H78" s="157" t="s">
         <v>85</v>
       </c>
       <c r="I78" s="23" t="s">
@@ -4505,11 +4553,11 @@
     </row>
     <row r="79" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C79" s="136"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="112"/>
-      <c r="H79" s="118"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="144"/>
+      <c r="H79" s="157"/>
       <c r="I79" s="23" t="s">
         <v>15</v>
       </c>
@@ -4529,11 +4577,11 @@
     </row>
     <row r="80" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C80" s="136"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="118"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="144"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="144"/>
+      <c r="H80" s="157"/>
       <c r="I80" s="23" t="s">
         <v>18</v>
       </c>
@@ -4553,11 +4601,11 @@
     </row>
     <row r="81" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C81" s="136"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="112"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="112"/>
-      <c r="H81" s="118"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="157"/>
       <c r="I81" s="23" t="s">
         <v>20</v>
       </c>
@@ -4577,11 +4625,11 @@
     </row>
     <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C82" s="136"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="113"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="118"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="144"/>
+      <c r="H82" s="157"/>
       <c r="I82" s="23" t="s">
         <v>22</v>
       </c>
@@ -4601,11 +4649,11 @@
     </row>
     <row r="83" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C83" s="136"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="112"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="112"/>
-      <c r="H83" s="118"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="144"/>
+      <c r="H83" s="157"/>
       <c r="I83" s="23" t="s">
         <v>24</v>
       </c>
@@ -4625,11 +4673,11 @@
     </row>
     <row r="84" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C84" s="136"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="112"/>
-      <c r="F84" s="113"/>
-      <c r="G84" s="112"/>
-      <c r="H84" s="118"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="144"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="144"/>
+      <c r="H84" s="157"/>
       <c r="I84" s="23" t="s">
         <v>26</v>
       </c>
@@ -4649,11 +4697,11 @@
     </row>
     <row r="85" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C85" s="136"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="112"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="112"/>
-      <c r="H85" s="118"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="144"/>
+      <c r="H85" s="157"/>
       <c r="I85" s="23" t="s">
         <v>28</v>
       </c>
@@ -4667,11 +4715,11 @@
     </row>
     <row r="86" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C86" s="136"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="113"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="118"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="144"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="157"/>
       <c r="I86" s="23"/>
       <c r="J86" s="24"/>
       <c r="K86" s="93"/>
@@ -4683,11 +4731,11 @@
     </row>
     <row r="87" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="C87" s="136"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="113"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="118"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="157"/>
       <c r="I87" s="23"/>
       <c r="J87" s="24"/>
       <c r="K87" s="93"/>
@@ -4699,13 +4747,13 @@
     </row>
     <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="136"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="113"/>
-      <c r="G88" s="114" t="s">
+      <c r="D88" s="140"/>
+      <c r="E88" s="144"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="H88" s="121" t="s">
+      <c r="H88" s="158" t="s">
         <v>132</v>
       </c>
       <c r="I88" s="19" t="s">
@@ -4715,29 +4763,29 @@
         <v>134</v>
       </c>
       <c r="K88" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M88" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="N88" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="N88" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="O88" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P88" s="22"/>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="136"/>
-      <c r="D89" s="113"/>
-      <c r="E89" s="112"/>
-      <c r="F89" s="113"/>
-      <c r="G89" s="119"/>
-      <c r="H89" s="122"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="144"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="154"/>
+      <c r="H89" s="159"/>
       <c r="I89" s="19" t="s">
         <v>107</v>
       </c>
@@ -4745,29 +4793,29 @@
         <v>135</v>
       </c>
       <c r="K89" s="92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L89" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="M89" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="M89" s="21" t="s">
+      <c r="N89" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="N89" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="O89" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P89" s="22"/>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="136"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="119"/>
-      <c r="H90" s="122"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="144"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="154"/>
+      <c r="H90" s="159"/>
       <c r="I90" s="13" t="s">
         <v>78</v>
       </c>
@@ -4781,11 +4829,11 @@
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="136"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="119"/>
-      <c r="H91" s="122"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="144"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="159"/>
       <c r="I91" s="19" t="s">
         <v>136</v>
       </c>
@@ -4793,29 +4841,29 @@
         <v>137</v>
       </c>
       <c r="K91" s="92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L91" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M91" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="N91" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="N91" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="O91" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P91" s="22"/>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="136"/>
-      <c r="D92" s="113"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="119"/>
-      <c r="H92" s="122"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="144"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="159"/>
       <c r="I92" s="19" t="s">
         <v>87</v>
       </c>
@@ -4823,29 +4871,29 @@
         <v>138</v>
       </c>
       <c r="K92" s="92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N92" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P92" s="22"/>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="136"/>
-      <c r="D93" s="113"/>
-      <c r="E93" s="112"/>
-      <c r="F93" s="113"/>
-      <c r="G93" s="120"/>
-      <c r="H93" s="123"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="144"/>
+      <c r="F93" s="140"/>
+      <c r="G93" s="143"/>
+      <c r="H93" s="145"/>
       <c r="I93" s="13"/>
       <c r="J93" s="16"/>
       <c r="K93" s="91"/>
@@ -4857,13 +4905,13 @@
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="136"/>
-      <c r="D94" s="113"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="112" t="s">
+      <c r="D94" s="140"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="H94" s="113" t="s">
+      <c r="H94" s="140" t="s">
         <v>92</v>
       </c>
       <c r="I94" s="11" t="s">
@@ -4881,11 +4929,11 @@
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="136"/>
-      <c r="D95" s="113"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="113"/>
-      <c r="G95" s="112"/>
-      <c r="H95" s="113"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="144"/>
+      <c r="H95" s="140"/>
       <c r="I95" s="19" t="s">
         <v>15</v>
       </c>
@@ -4893,29 +4941,29 @@
         <v>140</v>
       </c>
       <c r="K95" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L95" s="92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M95" s="92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N95" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="136"/>
-      <c r="D96" s="113"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="112"/>
-      <c r="H96" s="113"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="144"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="140"/>
       <c r="I96" s="11" t="s">
         <v>18</v>
       </c>
@@ -4931,51 +4979,67 @@
     </row>
     <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="136"/>
-      <c r="D97" s="113"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="113"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="113"/>
-      <c r="I97" s="11" t="s">
+      <c r="D97" s="140"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="144"/>
+      <c r="H97" s="140"/>
+      <c r="I97" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K97" s="91"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
+      <c r="J97" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="K97" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="L97" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="O97" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="P97" s="22"/>
     </row>
     <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="136"/>
-      <c r="D98" s="113"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="113"/>
-      <c r="G98" s="112"/>
-      <c r="H98" s="113"/>
-      <c r="I98" s="11" t="s">
+      <c r="D98" s="140"/>
+      <c r="E98" s="144"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="144"/>
+      <c r="H98" s="140"/>
+      <c r="I98" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K98" s="91"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
+      <c r="J98" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="K98" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="L98" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="O98" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="P98" s="22"/>
     </row>
     <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="136"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="113"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="144"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="144"/>
+      <c r="H99" s="140"/>
       <c r="I99" s="11" t="s">
         <v>24</v>
       </c>
@@ -4991,16 +5055,16 @@
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="136"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="113"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="144"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="144"/>
+      <c r="H100" s="140"/>
       <c r="I100" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K100" s="91"/>
       <c r="L100" s="14"/>
@@ -5011,11 +5075,11 @@
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="136"/>
-      <c r="D101" s="113"/>
-      <c r="E101" s="112"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="112"/>
-      <c r="H101" s="113"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="140"/>
       <c r="I101" s="11" t="s">
         <v>28</v>
       </c>
@@ -5031,11 +5095,11 @@
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="136"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="112"/>
-      <c r="F102" s="113"/>
-      <c r="G102" s="112"/>
-      <c r="H102" s="113"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="144"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="144"/>
+      <c r="H102" s="140"/>
       <c r="I102" s="11" t="s">
         <v>30</v>
       </c>
@@ -5051,16 +5115,16 @@
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C103" s="136"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="112"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="112"/>
-      <c r="H103" s="113"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="144"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="144"/>
+      <c r="H103" s="140"/>
       <c r="I103" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J103" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K103" s="91"/>
       <c r="L103" s="14"/>
@@ -5071,24 +5135,24 @@
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C104" s="136"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="112" t="s">
+      <c r="D104" s="140"/>
+      <c r="E104" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="F104" s="113" t="s">
-        <v>146</v>
+      <c r="F104" s="140" t="s">
+        <v>145</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H104" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="J104" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="K104" s="91"/>
       <c r="L104" s="14"/>
@@ -5099,20 +5163,20 @@
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C105" s="136"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="113"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="144"/>
+      <c r="F105" s="140"/>
       <c r="G105" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H105" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I105" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="J105" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K105" s="91"/>
       <c r="L105" s="14"/>
@@ -5123,20 +5187,20 @@
     </row>
     <row r="106" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C106" s="136"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="113"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="144"/>
+      <c r="F106" s="140"/>
       <c r="G106" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H106" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I106" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I106" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="J106" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K106" s="91"/>
       <c r="L106" s="14"/>
@@ -5147,20 +5211,20 @@
     </row>
     <row r="107" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C107" s="136"/>
-      <c r="D107" s="113"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="113"/>
+      <c r="D107" s="140"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="140"/>
       <c r="G107" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K107" s="91"/>
       <c r="L107" s="14"/>
@@ -5171,17 +5235,17 @@
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C108" s="137"/>
-      <c r="D108" s="116"/>
-      <c r="E108" s="114"/>
-      <c r="F108" s="116"/>
+      <c r="D108" s="141"/>
+      <c r="E108" s="153"/>
+      <c r="F108" s="141"/>
       <c r="G108" s="29" t="s">
         <v>87</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J108" s="30"/>
       <c r="K108" s="95"/>
@@ -5193,20 +5257,20 @@
     </row>
     <row r="109" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C109" s="138"/>
-      <c r="D109" s="117"/>
-      <c r="E109" s="115"/>
-      <c r="F109" s="117"/>
+      <c r="D109" s="142"/>
+      <c r="E109" s="156"/>
+      <c r="F109" s="142"/>
       <c r="G109" s="36" t="s">
         <v>91</v>
       </c>
       <c r="H109" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I109" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J109" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="I109" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="J109" s="37" t="s">
-        <v>157</v>
       </c>
       <c r="K109" s="96"/>
       <c r="L109" s="38"/>
@@ -5217,6 +5281,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G94:G103"/>
+    <mergeCell ref="H94:H103"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="G72:G77"/>
+    <mergeCell ref="H72:H77"/>
+    <mergeCell ref="G78:G87"/>
+    <mergeCell ref="H78:H87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G58:G67"/>
+    <mergeCell ref="H58:H67"/>
+    <mergeCell ref="E68:E103"/>
+    <mergeCell ref="F68:F103"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="E38:E67"/>
+    <mergeCell ref="F38:F67"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:J2"/>
@@ -5233,41 +5332,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H67"/>
-    <mergeCell ref="E68:E103"/>
-    <mergeCell ref="F68:F103"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="E38:E67"/>
-    <mergeCell ref="F38:F67"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G94:G103"/>
-    <mergeCell ref="H94:H103"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="F104:F109"/>
-    <mergeCell ref="G72:G77"/>
-    <mergeCell ref="H72:H77"/>
-    <mergeCell ref="G78:G87"/>
-    <mergeCell ref="H78:H87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5303,7 +5367,7 @@
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130"/>
@@ -5313,7 +5377,7 @@
       <c r="H2" s="130"/>
       <c r="I2" s="131"/>
       <c r="J2" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K2" s="133"/>
       <c r="L2" s="133"/>
@@ -5322,7 +5386,7 @@
       <c r="O2" s="134"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="152" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="128"/>
@@ -5351,7 +5415,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O3" s="111"/>
     </row>
@@ -5359,26 +5423,26 @@
       <c r="B4" s="135">
         <v>20</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="160" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>159</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="125" t="s">
-        <v>160</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4" s="98"/>
       <c r="K4" s="9"/>
@@ -5389,20 +5453,20 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="136"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="14"/>
@@ -5413,20 +5477,20 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="136"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J6" s="94"/>
       <c r="K6" s="14"/>
@@ -5437,20 +5501,20 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="136"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="14"/>
@@ -5461,20 +5525,20 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="136"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="J8" s="94"/>
       <c r="K8" s="14"/>
@@ -5485,20 +5549,20 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="136"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="14"/>
@@ -5509,20 +5573,20 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="136"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="14"/>
@@ -5533,20 +5597,20 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="136"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" s="94"/>
       <c r="K11" s="14"/>
@@ -5557,24 +5621,24 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="136"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="112" t="s">
+      <c r="C12" s="161"/>
+      <c r="D12" s="144" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="140" t="s">
         <v>171</v>
-      </c>
-      <c r="E12" s="113" t="s">
-        <v>172</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="14"/>
@@ -5585,20 +5649,20 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="136"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="14"/>
@@ -5609,20 +5673,20 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="136"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="14"/>
@@ -5633,20 +5697,20 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="136"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="14"/>
@@ -5657,20 +5721,20 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="136"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="14"/>
@@ -5681,20 +5745,20 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="136"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="14"/>
@@ -5705,20 +5769,20 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="136"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="140"/>
       <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="14"/>
@@ -5729,20 +5793,20 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="136"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="140"/>
       <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="14"/>
@@ -5753,58 +5817,58 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="136"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="140"/>
       <c r="F20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="136"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="114" t="s">
+      <c r="C21" s="161"/>
+      <c r="D21" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="141" t="s">
         <v>180</v>
-      </c>
-      <c r="E21" s="116" t="s">
-        <v>181</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="14"/>
@@ -5815,20 +5879,20 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="136"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="125"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="139"/>
       <c r="F22" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="14"/>
@@ -5839,24 +5903,24 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="136"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="112" t="s">
+      <c r="C23" s="161"/>
+      <c r="D23" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="113" t="s">
-        <v>184</v>
+      <c r="E23" s="140" t="s">
+        <v>183</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="14"/>
@@ -5867,20 +5931,20 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="136"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="140"/>
       <c r="F24" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="14"/>
@@ -5891,24 +5955,24 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="136"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="112" t="s">
+      <c r="C25" s="161"/>
+      <c r="D25" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="140" t="s">
         <v>187</v>
-      </c>
-      <c r="E25" s="113" t="s">
-        <v>188</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="14"/>
@@ -5919,20 +5983,20 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="136"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="140"/>
       <c r="F26" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="14"/>
@@ -5943,24 +6007,24 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="136"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="113" t="s">
-        <v>146</v>
+      <c r="C27" s="161"/>
+      <c r="D27" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="140" t="s">
+        <v>145</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="14"/>
@@ -5971,20 +6035,20 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="137"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="141"/>
       <c r="F28" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="30" t="s">
         <v>193</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>194</v>
       </c>
       <c r="J28" s="99"/>
       <c r="K28" s="32"/>
@@ -5995,20 +6059,20 @@
     </row>
     <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="138"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="117"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J29" s="100"/>
       <c r="K29" s="38"/>
@@ -6019,12 +6083,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B4:B29"/>
     <mergeCell ref="C4:C29"/>
     <mergeCell ref="D4:D11"/>
@@ -6039,6 +6097,12 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6050,10 +6114,10 @@
   <dimension ref="B1:P45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6075,7 +6139,7 @@
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130"/>
@@ -6085,7 +6149,7 @@
       <c r="H2" s="130"/>
       <c r="I2" s="131"/>
       <c r="J2" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K2" s="133"/>
       <c r="L2" s="133"/>
@@ -6094,7 +6158,7 @@
       <c r="O2" s="134"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="152" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="128"/>
@@ -6117,42 +6181,42 @@
         <v>5</v>
       </c>
       <c r="L3" s="110" t="s">
+        <v>369</v>
+      </c>
+      <c r="M3" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="M3" s="110" t="s">
-        <v>371</v>
-      </c>
       <c r="N3" s="110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="135">
         <v>30</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="125" t="s">
+      <c r="F4" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4" s="98"/>
       <c r="K4" s="9"/>
@@ -6163,20 +6227,20 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="136"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="14"/>
@@ -6187,20 +6251,20 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="136"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J6" s="98"/>
       <c r="K6" s="14"/>
@@ -6211,20 +6275,20 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="136"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="14"/>
@@ -6235,20 +6299,20 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="136"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="98"/>
       <c r="K8" s="14"/>
@@ -6259,20 +6323,20 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="136"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="14"/>
@@ -6283,17 +6347,17 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="136"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="94"/>
@@ -6305,9 +6369,9 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="136"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
@@ -6321,22 +6385,22 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="136"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="113" t="s">
-        <v>209</v>
+      <c r="C12" s="161"/>
+      <c r="D12" s="144" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>208</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="14"/>
@@ -6347,18 +6411,18 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="136"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="14"/>
@@ -6369,24 +6433,24 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="136"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="113" t="s">
+      <c r="C14" s="161"/>
+      <c r="D14" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="140" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="14"/>
@@ -6397,18 +6461,18 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="136"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="14"/>
@@ -6419,22 +6483,22 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="136"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="112" t="s">
+      <c r="C16" s="161"/>
+      <c r="D16" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="113" t="s">
-        <v>215</v>
+      <c r="E16" s="140" t="s">
+        <v>214</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="14"/>
@@ -6445,18 +6509,18 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="136"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="14"/>
@@ -6467,106 +6531,132 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="136"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="114" t="s">
+      <c r="C18" s="161"/>
+      <c r="D18" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="F18" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>219</v>
-      </c>
       <c r="H18" s="101" t="s">
-        <v>357</v>
-      </c>
-      <c r="I18" s="102"/>
+        <v>356</v>
+      </c>
+      <c r="I18" s="102" t="s">
+        <v>400</v>
+      </c>
       <c r="J18" s="105" t="s">
+        <v>378</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="L18" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="M18" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="K18" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="L18" s="103" t="s">
-        <v>332</v>
-      </c>
-      <c r="M18" s="103" t="s">
-        <v>380</v>
-      </c>
       <c r="N18" s="103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O18" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="136"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="124"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
       <c r="F19" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
+      <c r="J19" s="92" t="s">
+        <v>402</v>
+      </c>
+      <c r="K19" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="L19" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="O19" s="104" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="136"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="124"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
       <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
+        <v>221</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="K20" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="L20" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="O20" s="104" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="136"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="124"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
       <c r="F21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="14"/>
@@ -6577,20 +6667,20 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="136"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="124"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
       <c r="F22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="14"/>
@@ -6601,20 +6691,20 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="136"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="124"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
       <c r="F23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="14"/>
@@ -6625,20 +6715,20 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="136"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="124"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="155"/>
       <c r="F24" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="14"/>
@@ -6649,56 +6739,56 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="136"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="124"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155"/>
       <c r="F25" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K25" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L25" s="103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M25" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N25" s="103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O25" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="136"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="124"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
       <c r="F26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="14"/>
@@ -6709,20 +6799,20 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="136"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="124"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
       <c r="F27" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="14"/>
@@ -6733,20 +6823,20 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="136"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="124"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
       <c r="F28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="14"/>
@@ -6757,20 +6847,20 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="136"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="124"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="14"/>
@@ -6781,20 +6871,20 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="136"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="124"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
       <c r="F30" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="14"/>
@@ -6805,20 +6895,20 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="136"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="124"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="155"/>
       <c r="F31" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="14"/>
@@ -6829,20 +6919,20 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="136"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="124"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
       <c r="F32" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J32" s="94"/>
       <c r="K32" s="14"/>
@@ -6853,20 +6943,20 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="136"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="124"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="155"/>
       <c r="F33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J33" s="94"/>
       <c r="K33" s="14"/>
@@ -6877,20 +6967,20 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="136"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="124"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="155"/>
       <c r="F34" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="H34" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="14"/>
@@ -6901,20 +6991,20 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="136"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="124"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="155"/>
       <c r="F35" s="11" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J35" s="94"/>
       <c r="K35" s="14"/>
@@ -6925,20 +7015,20 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="136"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="124"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="155"/>
       <c r="F36" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="14"/>
@@ -6949,9 +7039,9 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="137"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="125"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="139"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
       <c r="H37" s="29"/>
@@ -6965,158 +7055,158 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
-      <c r="C38" s="147"/>
+      <c r="C38" s="162"/>
       <c r="D38" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="F38" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="G38" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="G38" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="H38" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I38" s="102"/>
       <c r="J38" s="105" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L38" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M38" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="M38" s="21" t="s">
-        <v>374</v>
-      </c>
       <c r="N38" s="103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O38" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="137"/>
-      <c r="C39" s="147"/>
+      <c r="C39" s="162"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
       <c r="F39" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H39" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I39" s="102"/>
       <c r="J39" s="105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K39" s="103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L39" s="103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M39" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N39" s="103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O39" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="137"/>
-      <c r="C40" s="147"/>
+      <c r="C40" s="162"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H40" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="K40" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="K40" s="103" t="s">
-        <v>377</v>
-      </c>
       <c r="L40" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M40" s="103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N40" s="103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O40" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="137"/>
-      <c r="C41" s="147"/>
+      <c r="C41" s="162"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H41" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I41" s="102"/>
       <c r="J41" s="105" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K41" s="103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L41" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M41" s="103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N41" s="103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O41" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="137"/>
-      <c r="C42" s="147"/>
+      <c r="C42" s="162"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G42" s="30"/>
       <c r="H42" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I42" s="106"/>
       <c r="J42" s="95"/>
@@ -7128,15 +7218,15 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
-      <c r="C43" s="147"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G43" s="30"/>
       <c r="H43" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="99"/>
@@ -7148,11 +7238,11 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
-      <c r="C44" s="147"/>
+      <c r="C44" s="162"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="29"/>
@@ -7166,7 +7256,7 @@
     </row>
     <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="138"/>
-      <c r="C45" s="148"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="35"/>
       <c r="E45" s="34"/>
       <c r="F45" s="36"/>
@@ -7182,11 +7272,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="J2:O2"/>
     <mergeCell ref="D18:D37"/>
     <mergeCell ref="E18:E37"/>
     <mergeCell ref="B2:I2"/>
@@ -7200,6 +7285,11 @@
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="J2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7242,75 +7332,75 @@
   <sheetData>
     <row r="1" spans="2:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="G2" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="G2" s="151" t="s">
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="L2" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="L2" s="151" t="s">
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="P2" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="P2" s="151" t="s">
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="U2" s="49" t="s">
         <v>242</v>
-      </c>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="U2" s="49" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="G3" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="49" t="s">
+      <c r="J3" s="49" t="s">
         <v>249</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>250</v>
       </c>
       <c r="K3" s="50"/>
       <c r="L3" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M3" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N3" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="P3" s="49" t="s">
-        <v>252</v>
-      </c>
       <c r="Q3" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U3">
         <v>6</v>
@@ -7328,7 +7418,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="52">
         <v>107</v>
@@ -7337,7 +7427,7 @@
         <v>3.5432999999999999E-2</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="46">
         <v>0</v>
@@ -7349,7 +7439,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M4" s="53">
         <v>0</v>
@@ -7358,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="54">
         <v>0</v>
@@ -7370,7 +7460,7 @@
         <v>-2</v>
       </c>
       <c r="Z4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
@@ -7384,7 +7474,7 @@
         <v>3.5432999999999999E-2</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7396,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M5" s="56">
         <v>0</v>
@@ -7405,7 +7495,7 @@
         <v>8</v>
       </c>
       <c r="P5" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="51">
         <v>0</v>
@@ -7426,7 +7516,7 @@
         <v>255</v>
       </c>
       <c r="Z5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
@@ -7440,7 +7530,7 @@
         <v>0.17716499999999999</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7452,7 +7542,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M6" s="53">
         <v>0</v>
@@ -7461,7 +7551,7 @@
         <v>7</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="57">
         <v>0</v>
@@ -7494,7 +7584,7 @@
         <v>0.35432999999999998</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H7" s="54">
         <v>0</v>
@@ -7506,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="L7" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M7" s="60">
         <v>0</v>
@@ -7515,7 +7605,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="58">
         <v>0</v>
@@ -7548,7 +7638,7 @@
         <v>0.46062900000000001</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" s="46">
         <v>0</v>
@@ -7558,7 +7648,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M8" s="53">
         <v>0</v>
@@ -7567,7 +7657,7 @@
         <v>-2</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="61">
         <v>0</v>
@@ -7600,7 +7690,7 @@
         <v>0.496062</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="46">
         <v>0</v>
@@ -7610,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M9" s="57">
         <v>0</v>
@@ -7619,7 +7709,7 @@
         <v>136</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="61">
         <v>0</v>
@@ -7643,7 +7733,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="52">
         <v>365</v>
@@ -7652,7 +7742,7 @@
         <v>0.53149500000000005</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H10" s="46">
         <v>0</v>
@@ -7664,7 +7754,7 @@
         <v>-2</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M10" s="54">
         <v>0</v>
@@ -7673,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="61">
         <v>0</v>
@@ -7706,7 +7796,7 @@
         <v>0.53149500000000005</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H11" s="46">
         <v>0</v>
@@ -7716,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M11" s="64">
         <v>0</v>
@@ -7725,7 +7815,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="64">
         <v>0</v>
@@ -7758,7 +7848,7 @@
         <v>0.56692799999999999</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12" s="46">
         <v>0</v>
@@ -7770,7 +7860,7 @@
         <v>136</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M12" s="67">
         <v>0</v>
@@ -7779,7 +7869,7 @@
         <v>130</v>
       </c>
       <c r="P12" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="57">
         <v>0</v>
@@ -7803,7 +7893,7 @@
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="52">
         <v>75</v>
@@ -7812,7 +7902,7 @@
         <v>0.63779399999999997</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H13" s="46">
         <v>0</v>
@@ -7824,7 +7914,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -7833,7 +7923,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="51">
         <v>0</v>
@@ -7866,7 +7956,7 @@
         <v>0.67322700000000002</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14" s="46">
         <v>0</v>
@@ -7876,7 +7966,7 @@
         <v>-2</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M14" s="53">
         <v>0</v>
@@ -7885,7 +7975,7 @@
         <v>7</v>
       </c>
       <c r="P14" s="61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="61">
         <v>0</v>
@@ -7907,7 +7997,7 @@
       </c>
       <c r="Y14" s="67"/>
       <c r="Z14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
@@ -7921,7 +8011,7 @@
         <v>0.70865999999999996</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H15" s="46">
         <v>0</v>
@@ -7931,7 +8021,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M15" s="54">
         <v>0</v>
@@ -7940,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q15" s="54">
         <v>0</v>
@@ -7973,7 +8063,7 @@
         <v>0.70865999999999996</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H16" s="46">
         <v>0</v>
@@ -7983,7 +8073,7 @@
         <v>6</v>
       </c>
       <c r="L16" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M16" s="58">
         <v>0</v>
@@ -7992,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="54">
         <v>0</v>
@@ -8025,7 +8115,7 @@
         <v>0.81495899999999999</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H17" s="46">
         <v>0</v>
@@ -8037,7 +8127,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M17" s="64">
         <v>0</v>
@@ -8046,7 +8136,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="64">
         <v>0</v>
@@ -8079,19 +8169,19 @@
         <v>0.81495899999999999</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="72">
         <v>3</v>
       </c>
-      <c r="I18" s="149">
+      <c r="I18" s="165">
         <v>119</v>
       </c>
       <c r="J18" s="72">
         <v>8</v>
       </c>
       <c r="L18" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M18" s="53">
         <v>0</v>
@@ -8100,7 +8190,7 @@
         <v>7</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="61">
         <v>0</v>
@@ -8133,17 +8223,17 @@
         <v>0.85039200000000004</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H19" s="72">
         <v>3</v>
       </c>
-      <c r="I19" s="149"/>
+      <c r="I19" s="165"/>
       <c r="J19" s="72">
         <v>8</v>
       </c>
       <c r="L19" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M19" s="60">
         <v>0</v>
@@ -8152,7 +8242,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="61">
         <v>0</v>
@@ -8172,17 +8262,17 @@
         <v>0.88582499999999997</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H20" s="72">
         <v>3</v>
       </c>
-      <c r="I20" s="149"/>
+      <c r="I20" s="165"/>
       <c r="J20" s="72">
         <v>8</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M20" s="56">
         <v>0</v>
@@ -8191,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="61">
         <v>0</v>
@@ -8200,10 +8290,10 @@
         <v>-2</v>
       </c>
       <c r="U20" t="s">
+        <v>268</v>
+      </c>
+      <c r="V20" t="s">
         <v>269</v>
-      </c>
-      <c r="V20" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
@@ -8217,19 +8307,19 @@
         <v>0.95669099999999996</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="I21" s="152">
+        <v>270</v>
+      </c>
+      <c r="I21" s="166">
         <v>48</v>
       </c>
       <c r="J21" s="74">
         <v>3</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M21" s="53">
         <v>0</v>
@@ -8238,7 +8328,7 @@
         <v>7</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="56">
         <v>0</v>
@@ -8247,10 +8337,10 @@
         <v>8</v>
       </c>
       <c r="U21" t="s">
+        <v>271</v>
+      </c>
+      <c r="V21" t="s">
         <v>272</v>
-      </c>
-      <c r="V21" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
@@ -8264,17 +8354,17 @@
         <v>1.0275570000000001</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H22" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="I22" s="152"/>
+        <v>273</v>
+      </c>
+      <c r="I22" s="166"/>
       <c r="J22" s="74">
         <v>5</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M22" s="67">
         <v>0</v>
@@ -8283,7 +8373,7 @@
         <v>130</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="61">
         <v>0</v>
@@ -8292,10 +8382,10 @@
         <v>7</v>
       </c>
       <c r="U22" t="s">
+        <v>274</v>
+      </c>
+      <c r="V22" t="s">
         <v>275</v>
-      </c>
-      <c r="V22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
@@ -8309,17 +8399,17 @@
         <v>1.0275570000000001</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="I23" s="152"/>
+        <v>273</v>
+      </c>
+      <c r="I23" s="166"/>
       <c r="J23" s="74">
         <v>4</v>
       </c>
       <c r="L23" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -8328,7 +8418,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="64">
         <v>0</v>
@@ -8337,15 +8427,15 @@
         <v>2</v>
       </c>
       <c r="U23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V23" s="44" t="s">
         <v>277</v>
-      </c>
-      <c r="V23" s="44" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="52">
         <v>364</v>
@@ -8354,19 +8444,19 @@
         <v>1.0629900000000001</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H24" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="I24" s="149">
+        <v>252</v>
+      </c>
+      <c r="I24" s="165">
         <v>286</v>
       </c>
       <c r="J24" s="72">
         <v>6</v>
       </c>
       <c r="L24" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M24" s="54">
         <v>0</v>
@@ -8375,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q24" s="54">
         <v>0</v>
@@ -8384,10 +8474,10 @@
         <v>1</v>
       </c>
       <c r="U24" t="s">
+        <v>278</v>
+      </c>
+      <c r="V24" t="s">
         <v>279</v>
-      </c>
-      <c r="V24" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
@@ -8401,17 +8491,17 @@
         <v>1.0984229999999999</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H25" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="I25" s="149"/>
+        <v>252</v>
+      </c>
+      <c r="I25" s="165"/>
       <c r="J25" s="72">
         <v>1</v>
       </c>
       <c r="L25" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M25" s="53">
         <v>0</v>
@@ -8420,7 +8510,7 @@
         <v>7</v>
       </c>
       <c r="P25" s="57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="57">
         <v>0</v>
@@ -8429,15 +8519,15 @@
         <v>136</v>
       </c>
       <c r="U25" t="s">
+        <v>281</v>
+      </c>
+      <c r="V25" t="s">
         <v>282</v>
-      </c>
-      <c r="V25" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="52">
         <v>85</v>
@@ -8446,17 +8536,17 @@
         <v>1.0984229999999999</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H26" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="I26" s="149"/>
+        <v>252</v>
+      </c>
+      <c r="I26" s="165"/>
       <c r="J26" s="72">
         <v>6</v>
       </c>
       <c r="L26" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M26" s="56">
         <v>3</v>
@@ -8465,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="51">
         <v>0</v>
@@ -8474,10 +8564,10 @@
         <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y26" s="75"/>
     </row>
@@ -8492,17 +8582,17 @@
         <v>1.169289</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="I27" s="149"/>
+        <v>252</v>
+      </c>
+      <c r="I27" s="165"/>
       <c r="J27" s="72">
         <v>6</v>
       </c>
       <c r="L27" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M27" s="56">
         <v>3</v>
@@ -8511,7 +8601,7 @@
         <v>8</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q27" s="67">
         <v>0</v>
@@ -8520,10 +8610,10 @@
         <v>4</v>
       </c>
       <c r="U27" t="s">
+        <v>285</v>
+      </c>
+      <c r="V27" t="s">
         <v>286</v>
-      </c>
-      <c r="V27" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
@@ -8537,19 +8627,19 @@
         <v>1.169289</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H28" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="I28" s="149">
+        <v>287</v>
+      </c>
+      <c r="I28" s="165">
         <v>46</v>
       </c>
       <c r="J28" s="72">
         <v>7</v>
       </c>
       <c r="L28" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M28" s="56">
         <v>3</v>
@@ -8558,7 +8648,7 @@
         <v>8</v>
       </c>
       <c r="P28" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q28" s="61">
         <v>0</v>
@@ -8569,7 +8659,7 @@
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="52">
         <v>284</v>
@@ -8578,17 +8668,17 @@
         <v>1.169289</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H29" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="I29" s="149"/>
+        <v>287</v>
+      </c>
+      <c r="I29" s="165"/>
       <c r="J29" s="72">
         <v>7</v>
       </c>
       <c r="L29" s="56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M29" s="56">
         <v>3</v>
@@ -8597,7 +8687,7 @@
         <v>8</v>
       </c>
       <c r="P29" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q29" s="56">
         <v>0</v>
@@ -8606,7 +8696,7 @@
         <v>8</v>
       </c>
       <c r="U29" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
@@ -8620,10 +8710,10 @@
         <v>1.2755879999999999</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H30" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I30" s="72">
         <v>20</v>
@@ -8632,7 +8722,7 @@
         <v>182</v>
       </c>
       <c r="L30" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M30" s="56">
         <v>3</v>
@@ -8641,7 +8731,7 @@
         <v>8</v>
       </c>
       <c r="P30" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q30" s="61">
         <v>0</v>
@@ -8650,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="U30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V30">
         <v>10</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
@@ -8670,28 +8760,28 @@
         <v>1.2755879999999999</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="I31" s="149">
+        <v>293</v>
+      </c>
+      <c r="I31" s="165">
         <v>47</v>
       </c>
       <c r="J31" s="72">
         <v>30</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N31" s="67">
         <v>130</v>
       </c>
       <c r="P31" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q31" s="67">
         <v>0</v>
@@ -8700,18 +8790,18 @@
         <v>4</v>
       </c>
       <c r="U31" s="76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V31">
         <v>10</v>
       </c>
       <c r="X31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="52">
         <v>244</v>
@@ -8720,26 +8810,26 @@
         <v>1.2755879999999999</v>
       </c>
       <c r="G32" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H32" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="I32" s="149"/>
+        <v>293</v>
+      </c>
+      <c r="I32" s="165"/>
       <c r="J32" s="72">
         <v>30</v>
       </c>
       <c r="L32" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N32" s="67">
         <v>130</v>
       </c>
       <c r="P32" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="51">
         <v>0</v>
@@ -8748,13 +8838,13 @@
         <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V32">
         <v>12</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
@@ -8768,10 +8858,10 @@
         <v>1.346454</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I33" s="78">
         <v>91</v>
@@ -8780,16 +8870,16 @@
         <v>6</v>
       </c>
       <c r="L33" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M33" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N33" s="54">
         <v>1</v>
       </c>
       <c r="P33" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q33" s="57">
         <v>0</v>
@@ -8798,18 +8888,18 @@
         <v>136</v>
       </c>
       <c r="U33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V33">
         <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="52">
         <v>73</v>
@@ -8818,10 +8908,10 @@
         <v>1.3818870000000001</v>
       </c>
       <c r="G34" s="79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H34" s="79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I34" s="79">
         <v>49</v>
@@ -8830,16 +8920,16 @@
         <v>3</v>
       </c>
       <c r="L34" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M34" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N34" s="54">
         <v>6</v>
       </c>
       <c r="P34" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="58">
         <v>0</v>
@@ -8848,18 +8938,18 @@
         <v>3</v>
       </c>
       <c r="U34" t="s">
+        <v>304</v>
+      </c>
+      <c r="V34" t="s">
         <v>305</v>
       </c>
-      <c r="V34" t="s">
-        <v>306</v>
-      </c>
       <c r="X34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="52">
         <v>11</v>
@@ -8868,28 +8958,28 @@
         <v>1.3818870000000001</v>
       </c>
       <c r="G35" s="79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="I35" s="150">
+        <v>262</v>
+      </c>
+      <c r="I35" s="167">
         <v>1904</v>
       </c>
       <c r="J35" s="79">
         <v>3</v>
       </c>
       <c r="L35" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M35" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N35" s="54">
         <v>6</v>
       </c>
       <c r="P35" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="54">
         <v>0</v>
@@ -8898,13 +8988,13 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V35">
         <v>16</v>
       </c>
       <c r="X35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
@@ -8918,26 +9008,26 @@
         <v>1.3818870000000001</v>
       </c>
       <c r="G36" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="I36" s="150"/>
+      <c r="I36" s="167"/>
       <c r="J36" s="79">
         <v>3</v>
       </c>
       <c r="L36" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M36" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N36" s="54">
         <v>6</v>
       </c>
       <c r="P36" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="65">
         <v>0</v>
@@ -8946,18 +9036,18 @@
         <v>5</v>
       </c>
       <c r="U36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V36">
         <v>18</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="52">
         <v>246</v>
@@ -8966,26 +9056,26 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="I37" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="I37" s="167"/>
       <c r="J37" s="79">
         <v>3</v>
       </c>
       <c r="L37" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M37" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N37" s="54">
         <v>6</v>
       </c>
       <c r="P37" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="64">
         <v>0</v>
@@ -9005,10 +9095,10 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I38" s="80">
         <v>1284</v>
@@ -9017,16 +9107,16 @@
         <v>5</v>
       </c>
       <c r="L38" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M38" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N38" s="54">
         <v>1</v>
       </c>
       <c r="P38" s="61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="61">
         <v>0</v>
@@ -9037,7 +9127,7 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" s="52">
         <v>202</v>
@@ -9046,10 +9136,10 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I39" s="80">
         <v>479</v>
@@ -9058,16 +9148,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M39" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N39" s="64">
         <v>2</v>
       </c>
       <c r="P39" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="56">
         <v>3</v>
@@ -9087,16 +9177,16 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M40" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N40" s="64">
         <v>2</v>
       </c>
       <c r="P40" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="56">
         <v>3</v>
@@ -9116,16 +9206,16 @@
         <v>1.452753</v>
       </c>
       <c r="L41" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M41" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N41" s="66">
         <v>182</v>
       </c>
       <c r="P41" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q41" s="56">
         <v>3</v>
@@ -9136,7 +9226,7 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="52">
         <v>283</v>
@@ -9145,16 +9235,16 @@
         <v>1.452753</v>
       </c>
       <c r="L42" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M42" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N42" s="66">
         <v>182</v>
       </c>
       <c r="P42" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="56">
         <v>3</v>
@@ -9174,16 +9264,16 @@
         <v>1.629918</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M43" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N43" s="70">
         <v>3</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="56">
         <v>3</v>
@@ -9203,16 +9293,16 @@
         <v>1.629918</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M44" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N44" s="62">
         <v>30</v>
       </c>
       <c r="P44" s="56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q44" s="56">
         <v>3</v>
@@ -9232,16 +9322,16 @@
         <v>1.665351</v>
       </c>
       <c r="L45" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N45" s="60">
         <v>6</v>
       </c>
       <c r="P45" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="56">
         <v>3</v>
@@ -9261,16 +9351,16 @@
         <v>1.665351</v>
       </c>
       <c r="L46" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N46" s="60">
         <v>6</v>
       </c>
       <c r="P46" s="56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q46" s="56">
         <v>3</v>
@@ -9281,7 +9371,7 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="52">
         <v>271</v>
@@ -9290,19 +9380,19 @@
         <v>1.807083</v>
       </c>
       <c r="L47" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M47" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N47" s="56">
         <v>8</v>
       </c>
       <c r="P47" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q47" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R47" s="74">
         <v>130</v>
@@ -9319,19 +9409,19 @@
         <v>1.807083</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M48" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N48" s="56">
         <v>8</v>
       </c>
       <c r="P48" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q48" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R48" s="74">
         <v>130</v>
@@ -9348,19 +9438,19 @@
         <v>1.842516</v>
       </c>
       <c r="L49" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N49" s="68">
         <v>20</v>
       </c>
       <c r="P49" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q49" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R49" s="74">
         <v>130</v>
@@ -9377,19 +9467,19 @@
         <v>1.842516</v>
       </c>
       <c r="L50" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N50" s="68">
         <v>20</v>
       </c>
       <c r="P50" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q50" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R50" s="74">
         <v>130</v>
@@ -9406,19 +9496,19 @@
         <v>1.8779490000000001</v>
       </c>
       <c r="L51" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M51" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N51" s="58">
         <v>3</v>
       </c>
       <c r="P51" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q51" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R51" s="74">
         <v>130</v>
@@ -9435,19 +9525,19 @@
         <v>1.9133819999999999</v>
       </c>
       <c r="L52" s="69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M52" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N52" s="69">
         <v>42</v>
       </c>
       <c r="P52" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q52" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R52" s="74">
         <v>130</v>
@@ -9464,19 +9554,19 @@
         <v>1.948815</v>
       </c>
       <c r="L53" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M53" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N53" s="58">
         <v>3</v>
       </c>
       <c r="P53" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q53" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R53" s="74">
         <v>130</v>
@@ -9493,19 +9583,19 @@
         <v>1.984248</v>
       </c>
       <c r="L54" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M54" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N54" s="58">
         <v>6</v>
       </c>
       <c r="P54" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q54" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R54" s="60">
         <v>6</v>
@@ -9522,19 +9612,19 @@
         <v>2.0196809999999998</v>
       </c>
       <c r="L55" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M55" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N55" s="58">
         <v>3</v>
       </c>
       <c r="P55" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q55" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R55" s="60">
         <v>6</v>
@@ -9551,19 +9641,19 @@
         <v>2.0551140000000001</v>
       </c>
       <c r="L56" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="M56" s="58" t="s">
         <v>262</v>
-      </c>
-      <c r="M56" s="58" t="s">
-        <v>263</v>
       </c>
       <c r="N56" s="58">
         <v>3</v>
       </c>
       <c r="P56" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q56" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R56" s="60">
         <v>6</v>
@@ -9580,19 +9670,19 @@
         <v>2.0551140000000001</v>
       </c>
       <c r="L57" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M57" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N57" s="58">
         <v>3</v>
       </c>
       <c r="P57" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q57" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R57" s="60">
         <v>6</v>
@@ -9609,19 +9699,19 @@
         <v>2.0905469999999999</v>
       </c>
       <c r="L58" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M58" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N58" s="60">
         <v>6</v>
       </c>
       <c r="P58" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q58" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R58" s="60">
         <v>4</v>
@@ -9638,19 +9728,19 @@
         <v>2.161413</v>
       </c>
       <c r="L59" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M59" s="70" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N59" s="70">
         <v>30</v>
       </c>
       <c r="P59" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q59" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R59" s="60">
         <v>6</v>
@@ -9667,19 +9757,19 @@
         <v>2.1968459999999999</v>
       </c>
       <c r="L60" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M60" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N60" s="70">
         <v>253</v>
       </c>
       <c r="P60" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q60" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R60" s="60">
         <v>6</v>
@@ -9696,19 +9786,19 @@
         <v>2.1968459999999999</v>
       </c>
       <c r="L61" s="73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M61" s="73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N61" s="73">
         <v>3</v>
       </c>
       <c r="P61" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q61" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R61" s="61">
         <v>7</v>
@@ -9725,10 +9815,10 @@
         <v>2.267712</v>
       </c>
       <c r="P62" s="61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q62" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R62" s="61">
         <v>7</v>
@@ -9745,10 +9835,10 @@
         <v>2.444877</v>
       </c>
       <c r="P63" s="61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q63" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R63" s="61">
         <v>7</v>
@@ -9765,10 +9855,10 @@
         <v>2.444877</v>
       </c>
       <c r="P64" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q64" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R64" s="61">
         <v>7</v>
@@ -9776,7 +9866,7 @@
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C65" s="52">
         <v>388</v>
@@ -9785,10 +9875,10 @@
         <v>2.4803099999999998</v>
       </c>
       <c r="P65" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q65" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R65" s="64">
         <v>2</v>
@@ -9805,10 +9895,10 @@
         <v>2.5511759999999999</v>
       </c>
       <c r="P66" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q66" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R66" s="64">
         <v>2</v>
@@ -9816,7 +9906,7 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C67" s="52">
         <v>106</v>
@@ -9825,10 +9915,10 @@
         <v>2.5511759999999999</v>
       </c>
       <c r="P67" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q67" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R67" s="64">
         <v>2</v>
@@ -9845,10 +9935,10 @@
         <v>2.5511759999999999</v>
       </c>
       <c r="P68" s="66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q68" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R68" s="66">
         <v>182</v>
@@ -9865,10 +9955,10 @@
         <v>2.6574749999999998</v>
       </c>
       <c r="P69" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q69" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R69" s="66">
         <v>182</v>
@@ -9885,10 +9975,10 @@
         <v>2.7283409999999999</v>
       </c>
       <c r="P70" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q70" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R70" s="66">
         <v>182</v>
@@ -9896,7 +9986,7 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C71" s="52">
         <v>387</v>
@@ -9905,10 +9995,10 @@
         <v>2.7637740000000002</v>
       </c>
       <c r="P71" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q71" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R71" s="66">
         <v>182</v>
@@ -9925,10 +10015,10 @@
         <v>2.7637740000000002</v>
       </c>
       <c r="P72" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q72" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R72" s="70">
         <v>3</v>
@@ -9945,10 +10035,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P73" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q73" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R73" s="70">
         <v>3</v>
@@ -9965,10 +10055,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P74" s="70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q74" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R74" s="70">
         <v>8</v>
@@ -9985,10 +10075,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P75" s="70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q75" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R75" s="70">
         <v>3</v>
@@ -9996,7 +10086,7 @@
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C76" s="52">
         <v>270</v>
@@ -10005,10 +10095,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P76" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q76" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R76" s="70">
         <v>3</v>
@@ -10016,7 +10106,7 @@
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" s="52">
         <v>407</v>
@@ -10025,10 +10115,10 @@
         <v>2.8700730000000001</v>
       </c>
       <c r="P77" s="62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q77" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R77" s="62">
         <v>30</v>
@@ -10045,10 +10135,10 @@
         <v>2.976372</v>
       </c>
       <c r="P78" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q78" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R78" s="62">
         <v>30</v>
@@ -10065,10 +10155,10 @@
         <v>3.153537</v>
       </c>
       <c r="P79" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q79" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R79" s="65">
         <v>5</v>
@@ -10085,10 +10175,10 @@
         <v>3.2244030000000001</v>
       </c>
       <c r="P80" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q80" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R80" s="74">
         <v>7</v>
@@ -10096,7 +10186,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C81" s="52">
         <v>274</v>
@@ -10105,10 +10195,10 @@
         <v>3.3307020000000001</v>
       </c>
       <c r="P81" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q81" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R81" s="74">
         <v>7</v>
@@ -10125,10 +10215,10 @@
         <v>3.3307020000000001</v>
       </c>
       <c r="P82" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q82" s="74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R82" s="74">
         <v>7</v>
@@ -10145,10 +10235,10 @@
         <v>3.3661349999999999</v>
       </c>
       <c r="P83" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q83" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R83" s="68">
         <v>20</v>
@@ -10156,7 +10246,7 @@
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C84" s="52">
         <v>64</v>
@@ -10165,10 +10255,10 @@
         <v>3.4015680000000001</v>
       </c>
       <c r="P84" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q84" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R84" s="68">
         <v>20</v>
@@ -10185,10 +10275,10 @@
         <v>3.5078670000000001</v>
       </c>
       <c r="P85" s="68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q85" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R85" s="68">
         <v>20</v>
@@ -10205,10 +10295,10 @@
         <v>3.5078670000000001</v>
       </c>
       <c r="P86" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q86" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R86" s="68">
         <v>20</v>
@@ -10216,7 +10306,7 @@
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="52">
         <v>79</v>
@@ -10225,10 +10315,10 @@
         <v>3.5432999999999999</v>
       </c>
       <c r="P87" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q87" s="74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R87" s="74">
         <v>7</v>
@@ -10245,10 +10335,10 @@
         <v>3.5787330000000002</v>
       </c>
       <c r="P88" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q88" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R88" s="58">
         <v>3</v>
@@ -10256,7 +10346,7 @@
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" s="52">
         <v>323</v>
@@ -10265,10 +10355,10 @@
         <v>3.6495989999999998</v>
       </c>
       <c r="P89" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q89" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R89" s="58">
         <v>3</v>
@@ -10285,10 +10375,10 @@
         <v>3.6495989999999998</v>
       </c>
       <c r="P90" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q90" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R90" s="58">
         <v>3</v>
@@ -10305,10 +10395,10 @@
         <v>3.6850320000000001</v>
       </c>
       <c r="P91" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q91" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R91" s="58">
         <v>3</v>
@@ -10325,10 +10415,10 @@
         <v>3.7558980000000002</v>
       </c>
       <c r="P92" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q92" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R92" s="58">
         <v>3</v>
@@ -10336,7 +10426,7 @@
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" s="52">
         <v>198</v>
@@ -10345,10 +10435,10 @@
         <v>3.8976299999999999</v>
       </c>
       <c r="P93" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q93" s="60" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R93" s="60">
         <v>1</v>
@@ -10365,10 +10455,10 @@
         <v>3.8976299999999999</v>
       </c>
       <c r="P94" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q94" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R94" s="60">
         <v>6</v>
@@ -10385,10 +10475,10 @@
         <v>3.9330630000000002</v>
       </c>
       <c r="P95" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q95" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R95" s="60">
         <v>1</v>
@@ -10405,10 +10495,10 @@
         <v>3.9330630000000002</v>
       </c>
       <c r="P96" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q96" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R96" s="60">
         <v>6</v>
@@ -10425,10 +10515,10 @@
         <v>3.968496</v>
       </c>
       <c r="P97" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q97" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R97" s="60">
         <v>5</v>
@@ -10436,7 +10526,7 @@
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="52">
         <v>281</v>
@@ -10445,10 +10535,10 @@
         <v>3.968496</v>
       </c>
       <c r="P98" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q98" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R98" s="60">
         <v>6</v>
@@ -10465,10 +10555,10 @@
         <v>4.0747949999999999</v>
       </c>
       <c r="P99" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q99" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R99" s="70">
         <v>1</v>
@@ -10476,7 +10566,7 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" s="52">
         <v>61</v>
@@ -10485,10 +10575,10 @@
         <v>4.2165270000000001</v>
       </c>
       <c r="P100" s="70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q100" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R100" s="70">
         <v>1</v>
@@ -10505,10 +10595,10 @@
         <v>4.2519600000000004</v>
       </c>
       <c r="P101" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q101" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R101" s="70">
         <v>1</v>
@@ -10525,10 +10615,10 @@
         <v>4.2519600000000004</v>
       </c>
       <c r="P102" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q102" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R102" s="70">
         <v>8</v>
@@ -10536,7 +10626,7 @@
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C103" s="52">
         <v>103</v>
@@ -10547,7 +10637,7 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C104" s="52">
         <v>63</v>
@@ -10569,7 +10659,7 @@
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B106" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C106" s="52">
         <v>386</v>
@@ -10635,7 +10725,7 @@
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C112" s="52">
         <v>257</v>
@@ -10668,7 +10758,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115" s="52">
         <v>199</v>
@@ -10690,7 +10780,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" s="52">
         <v>142</v>
@@ -10701,7 +10791,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C118" s="52">
         <v>272</v>
@@ -10734,7 +10824,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C121" s="52">
         <v>154</v>
@@ -10745,7 +10835,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C122" s="52">
         <v>60</v>
@@ -10811,7 +10901,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C128" s="52">
         <v>52</v>
@@ -10833,7 +10923,7 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C130" s="52">
         <v>337</v>
@@ -10877,7 +10967,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C134" s="52">
         <v>155</v>
@@ -10899,7 +10989,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C136" s="52">
         <v>74</v>
@@ -10932,7 +11022,7 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C139" s="52">
         <v>41</v>
@@ -10943,7 +11033,7 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C140" s="52">
         <v>280</v>
@@ -10987,7 +11077,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C144" s="52">
         <v>408</v>
@@ -10998,7 +11088,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C145" s="52">
         <v>232</v>
@@ -11053,7 +11143,7 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C150" s="52">
         <v>56</v>
@@ -11075,7 +11165,7 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C152" s="52">
         <v>53</v>
@@ -11086,7 +11176,7 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C153" s="52">
         <v>153</v>
@@ -11097,7 +11187,7 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C154" s="52">
         <v>231</v>
@@ -11130,7 +11220,7 @@
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C157" s="52">
         <v>105</v>
@@ -11163,7 +11253,7 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C160" s="52">
         <v>55</v>
@@ -11207,7 +11297,7 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C164" s="52">
         <v>253</v>
@@ -11229,7 +11319,7 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C166" s="52">
         <v>192</v>
@@ -11284,7 +11374,7 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C171" s="52">
         <v>65</v>
@@ -11317,7 +11407,7 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C174" s="52">
         <v>124</v>
@@ -11339,7 +11429,7 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C176" s="52">
         <v>276</v>
@@ -11350,7 +11440,7 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C177" s="52">
         <v>46</v>
@@ -11394,7 +11484,7 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C181" s="52">
         <v>42</v>
@@ -11405,7 +11495,7 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C182" s="52">
         <v>48</v>
@@ -11416,7 +11506,7 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C183" s="52">
         <v>37</v>
@@ -11482,7 +11572,7 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C189" s="52">
         <v>314</v>
@@ -11570,7 +11660,7 @@
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C197" s="52">
         <v>84</v>
@@ -11592,7 +11682,7 @@
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C199" s="52">
         <v>57</v>
@@ -11647,7 +11737,7 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C204" s="52">
         <v>258</v>
@@ -11658,7 +11748,7 @@
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C205" s="52">
         <v>72</v>
@@ -11669,7 +11759,7 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C206" s="52">
         <v>179</v>
@@ -11702,7 +11792,7 @@
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C209" s="52">
         <v>140</v>
@@ -11746,7 +11836,7 @@
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C213" s="52">
         <v>62</v>
@@ -11768,7 +11858,7 @@
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C215" s="52">
         <v>180</v>
@@ -11779,7 +11869,7 @@
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C216" s="52">
         <v>136</v>
@@ -11812,7 +11902,7 @@
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C219" s="52">
         <v>233</v>
@@ -11834,7 +11924,7 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C221" s="52">
         <v>167</v>
@@ -11867,7 +11957,7 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C224" s="52">
         <v>104</v>
@@ -11878,7 +11968,7 @@
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C225" s="52">
         <v>313</v>
@@ -11889,7 +11979,7 @@
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C226" s="52">
         <v>357</v>
@@ -11900,7 +11990,7 @@
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C227" s="52">
         <v>51</v>
@@ -11955,7 +12045,7 @@
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C232" s="52">
         <v>47</v>
@@ -11966,7 +12056,7 @@
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C233" s="52">
         <v>38</v>
@@ -11977,7 +12067,7 @@
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C234" s="52">
         <v>152</v>
@@ -11999,7 +12089,7 @@
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C236" s="81">
         <v>336</v>
@@ -12076,7 +12166,7 @@
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C243" s="81">
         <v>44</v>
@@ -12098,7 +12188,7 @@
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C245" s="81">
         <v>90</v>
@@ -12109,7 +12199,7 @@
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C246" s="81">
         <v>12</v>
@@ -12120,7 +12210,7 @@
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C247" s="81">
         <v>293</v>
@@ -12142,7 +12232,7 @@
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C249" s="81">
         <v>91</v>
@@ -12153,7 +12243,7 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C250" s="81">
         <v>45</v>
@@ -12186,7 +12276,7 @@
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C253" s="81">
         <v>338</v>
@@ -12230,7 +12320,7 @@
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C257" s="81">
         <v>149</v>
@@ -12329,7 +12419,7 @@
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C266" s="81">
         <v>196</v>
@@ -12340,7 +12430,7 @@
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C267" s="81">
         <v>71</v>
@@ -12351,7 +12441,7 @@
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C268" s="81">
         <v>282</v>
@@ -12373,7 +12463,7 @@
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C270" s="81">
         <v>181</v>
@@ -12395,7 +12485,7 @@
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C272" s="81">
         <v>86</v>
@@ -12483,7 +12573,7 @@
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B280" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C280" s="81">
         <v>22</v>
@@ -12494,7 +12584,7 @@
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B281" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C281" s="81">
         <v>164</v>
@@ -12505,7 +12595,7 @@
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B282" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C282" s="81">
         <v>203</v>
@@ -12516,7 +12606,7 @@
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C283" s="81">
         <v>269</v>
@@ -12538,7 +12628,7 @@
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B285" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C285" s="81">
         <v>35</v>
@@ -12549,7 +12639,7 @@
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B286" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C286" s="81">
         <v>88</v>
@@ -12560,7 +12650,7 @@
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B287" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C287" s="81">
         <v>89</v>
@@ -12593,7 +12683,7 @@
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B290" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C290" s="81">
         <v>382</v>
@@ -12604,7 +12694,7 @@
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B291" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C291" s="81">
         <v>381</v>
@@ -12615,7 +12705,7 @@
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B292" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C292" s="81">
         <v>222</v>
@@ -12626,7 +12716,7 @@
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B293" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C293" s="81">
         <v>156</v>
@@ -12648,7 +12738,7 @@
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C295" s="81">
         <v>278</v>
@@ -12681,7 +12771,7 @@
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B298" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C298" s="81">
         <v>212</v>
@@ -12725,7 +12815,7 @@
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C302" s="81">
         <v>390</v>
@@ -12736,7 +12826,7 @@
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B303" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C303" s="81">
         <v>108</v>
@@ -12747,7 +12837,7 @@
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B304" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C304" s="81">
         <v>260</v>
@@ -12802,7 +12892,7 @@
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C309" s="81">
         <v>174</v>
@@ -12813,7 +12903,7 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C310" s="81">
         <v>10</v>
@@ -12824,7 +12914,7 @@
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C311" s="81">
         <v>157</v>
@@ -12835,7 +12925,7 @@
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C312" s="81">
         <v>151</v>
@@ -12846,7 +12936,7 @@
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313" s="81">
         <v>235</v>
@@ -12857,7 +12947,7 @@
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C314" s="81">
         <v>259</v>
@@ -12890,7 +12980,7 @@
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C317" s="81">
         <v>87</v>
@@ -12901,7 +12991,7 @@
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C318" s="81">
         <v>68</v>
@@ -12923,7 +13013,7 @@
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C320" s="81">
         <v>397</v>
@@ -12934,7 +13024,7 @@
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C321" s="81">
         <v>29</v>
@@ -12956,7 +13046,7 @@
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C323" s="81">
         <v>277</v>
@@ -13000,7 +13090,7 @@
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C327" s="81">
         <v>396</v>
@@ -13011,7 +13101,7 @@
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C328" s="81">
         <v>391</v>
@@ -13044,7 +13134,7 @@
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C331" s="81">
         <v>139</v>
@@ -13055,7 +13145,7 @@
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C332" s="81">
         <v>138</v>
@@ -13066,7 +13156,7 @@
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C333" s="81">
         <v>255</v>
@@ -13110,7 +13200,7 @@
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C337" s="81">
         <v>392</v>
@@ -13132,7 +13222,7 @@
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C339" s="81">
         <v>210</v>
@@ -13143,7 +13233,7 @@
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C340" s="81">
         <v>211</v>
@@ -13154,7 +13244,7 @@
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C341" s="81">
         <v>39</v>
@@ -13165,7 +13255,7 @@
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C342" s="81">
         <v>36</v>
@@ -13209,7 +13299,7 @@
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C346" s="81">
         <v>137</v>
@@ -13231,7 +13321,7 @@
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C348" s="81">
         <v>213</v>
@@ -13264,7 +13354,7 @@
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C351" s="81">
         <v>135</v>
@@ -13275,7 +13365,7 @@
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C352" s="81">
         <v>98</v>
@@ -13297,7 +13387,7 @@
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C354" s="81">
         <v>109</v>
@@ -13319,7 +13409,7 @@
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C356" s="81">
         <v>394</v>
@@ -13363,7 +13453,7 @@
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C360" s="81">
         <v>218</v>
@@ -13374,7 +13464,7 @@
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C361" s="81">
         <v>217</v>
@@ -13385,7 +13475,7 @@
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C362" s="81">
         <v>182</v>
@@ -13396,7 +13486,7 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C363" s="81">
         <v>221</v>
@@ -13407,7 +13497,7 @@
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C364" s="81">
         <v>385</v>
@@ -13418,7 +13508,7 @@
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C365" s="82">
         <v>389</v>
@@ -13451,7 +13541,7 @@
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C368" s="82">
         <v>82</v>
@@ -13462,7 +13552,7 @@
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C369" s="82">
         <v>263</v>
@@ -13484,7 +13574,7 @@
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C371" s="82">
         <v>261</v>
@@ -13506,7 +13596,7 @@
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C373" s="82">
         <v>193</v>
@@ -13539,7 +13629,7 @@
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C376" s="82">
         <v>8</v>
@@ -13550,7 +13640,7 @@
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C377" s="82">
         <v>384</v>
@@ -13561,7 +13651,7 @@
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C378" s="82">
         <v>7</v>
@@ -13572,7 +13662,7 @@
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C379" s="82">
         <v>25</v>
@@ -13583,7 +13673,7 @@
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C380" s="82">
         <v>220</v>
@@ -13594,7 +13684,7 @@
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C381" s="83">
         <v>13</v>
@@ -13605,7 +13695,7 @@
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C382" s="83">
         <v>15</v>
@@ -13616,7 +13706,7 @@
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C383" s="83">
         <v>175</v>
@@ -13638,7 +13728,7 @@
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C385" s="83">
         <v>18</v>
@@ -13649,7 +13739,7 @@
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C386" s="83">
         <v>172</v>
@@ -13660,7 +13750,7 @@
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C387" s="83">
         <v>28</v>
@@ -13671,7 +13761,7 @@
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C388" s="83">
         <v>171</v>
@@ -13682,7 +13772,7 @@
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C389" s="83">
         <v>112</v>
@@ -13693,7 +13783,7 @@
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C390" s="83">
         <v>5</v>
@@ -13715,7 +13805,7 @@
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C392" s="83">
         <v>393</v>
@@ -13726,7 +13816,7 @@
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C393" s="83">
         <v>14</v>
@@ -13737,7 +13827,7 @@
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C394" s="84">
         <v>148</v>
@@ -13748,7 +13838,7 @@
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C395" s="84">
         <v>208</v>
@@ -13759,7 +13849,7 @@
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C396" s="84">
         <v>17</v>
@@ -13770,7 +13860,7 @@
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C397" s="84">
         <v>209</v>
@@ -13781,7 +13871,7 @@
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C398" s="84">
         <v>294</v>
@@ -13792,7 +13882,7 @@
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C399" s="84">
         <v>9</v>
@@ -13803,7 +13893,7 @@
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C400" s="84">
         <v>292</v>
@@ -13814,7 +13904,7 @@
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C401" s="84">
         <v>187</v>
@@ -13836,7 +13926,7 @@
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C403" s="46">
         <v>16</v>
@@ -13847,16 +13937,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13867,8 +13957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13880,528 +13970,540 @@
   <sheetData>
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="112" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="113" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="D2" s="113" t="s">
         <v>383</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="E2" s="113" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="154" t="s">
+      <c r="F2" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="G2" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="G2" s="156" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="116" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="s">
+      <c r="C3" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="117" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" s="118">
+        <v>42653</v>
+      </c>
+      <c r="G3" s="119" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="158" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="120" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="159">
-        <v>42653</v>
-      </c>
-      <c r="G3" s="160" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="161" t="s">
+      <c r="D4" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="121">
+        <v>42807</v>
+      </c>
+      <c r="G4" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="162">
-        <v>42807</v>
-      </c>
-      <c r="G4" s="163" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="161"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163"/>
+      <c r="B5" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="123" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="121">
+        <v>42891</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="161"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="161"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="161"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="163"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="161"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="163"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="161"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="163"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
     </row>
     <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="161"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="161"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="163"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
     </row>
     <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="161"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
     </row>
     <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="161"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="163"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="161"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="163"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
     </row>
     <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="161"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="163"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
     </row>
     <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="161"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="163"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="161"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="163"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="161"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="161"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="163"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
     </row>
     <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="161"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="163"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
     </row>
     <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="161"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
     </row>
     <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="161"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
     </row>
     <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="161"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="161"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
     </row>
     <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="161"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
     </row>
     <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="161"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
     </row>
     <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="161"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="163"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
     </row>
     <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="161"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="161"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="163"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="161"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="163"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="161"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="163"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="161"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="163"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
     </row>
     <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="161"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="163"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="122"/>
     </row>
     <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="161"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="163"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122"/>
     </row>
     <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="161"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="163"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="161"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="162"/>
-      <c r="G37" s="163"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
     </row>
     <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="161"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="163"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="122"/>
     </row>
     <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="161"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="163"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="122"/>
     </row>
     <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="161"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="163"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="122"/>
     </row>
     <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="161"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="163"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="122"/>
     </row>
     <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="161"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="163"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="122"/>
     </row>
     <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="161"/>
+      <c r="B43" s="120"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="163"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="122"/>
     </row>
     <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="161"/>
+      <c r="B44" s="120"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="163"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="122"/>
     </row>
     <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="161"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="163"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="122"/>
     </row>
     <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="161"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="163"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="122"/>
     </row>
     <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="161"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="163"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="122"/>
     </row>
     <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="161"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="163"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="122"/>
     </row>
     <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="161"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="163"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="122"/>
     </row>
     <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="161"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="163"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="122"/>
     </row>
     <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="161"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="163"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="122"/>
     </row>
     <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="161"/>
+      <c r="B52" s="120"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="163"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="122"/>
     </row>
     <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="161"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="163"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="122"/>
     </row>
     <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="161"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="163"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="122"/>
     </row>
     <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="161"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="163"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="122"/>
     </row>
     <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="161"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="163"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="122"/>
     </row>
     <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="161"/>
+      <c r="B57" s="120"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="163"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="122"/>
     </row>
     <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="161"/>
+      <c r="B58" s="120"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="162"/>
-      <c r="G58" s="163"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="122"/>
     </row>
     <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="161"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="162"/>
-      <c r="G59" s="163"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="122"/>
     </row>
     <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="161"/>
+      <c r="B60" s="120"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="163"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="122"/>
     </row>
     <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="161"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="163"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="122"/>
     </row>
     <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="165"/>
+      <c r="B62" s="124"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="167"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="126"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Featrue list and styles.xlsx
+++ b/Document/Featrue list and styles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="polygon" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="426">
   <si>
     <t>形状分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电影院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,14 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -846,10 +834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,10 +1329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>936cd6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1430,9 +1410,6 @@
   </si>
   <si>
     <t>[40,40,40,1]</t>
-  </si>
-  <si>
-    <t>[40,40,40,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1448,10 +1425,6 @@
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[255,255,255,1],1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1577,6 +1550,93 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40,40,40,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[255,255,255,1],1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [204,204,104,0.8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[224,224,224,0.8]</t>
+  </si>
+  <si>
+    <t>[104,104,104,0.8]</t>
+  </si>
+  <si>
+    <t>[204,204,254,0.8]</t>
+  </si>
+  <si>
+    <t>[108,94,80,0.8]</t>
+  </si>
+  <si>
+    <t>v1.0.3</t>
+  </si>
+  <si>
+    <t>为绘制教学楼添加feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雅婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2263,7 +2323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2618,6 +2678,8 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2898,13 +2960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P109"/>
+  <dimension ref="C1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S96" sqref="S96"/>
+      <selection pane="bottomRight" activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2941,7 +3003,7 @@
     </row>
     <row r="2" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="129" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D2" s="130"/>
       <c r="E2" s="130"/>
@@ -2951,7 +3013,7 @@
       <c r="I2" s="130"/>
       <c r="J2" s="131"/>
       <c r="K2" s="132" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L2" s="133"/>
       <c r="M2" s="133"/>
@@ -2989,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="O3" s="110" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P3" s="111"/>
     </row>
@@ -3003,29 +3065,29 @@
       </c>
       <c r="F4" s="148"/>
       <c r="G4" s="150" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H4" s="151"/>
       <c r="I4" s="85" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>327</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="O4" s="85" t="s">
         <v>331</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>331</v>
-      </c>
-      <c r="L4" s="85" t="s">
-        <v>331</v>
-      </c>
-      <c r="M4" s="85" t="s">
-        <v>337</v>
-      </c>
-      <c r="N4" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="O4" s="85" t="s">
-        <v>335</v>
       </c>
       <c r="P4" s="88"/>
     </row>
@@ -3984,20 +4046,30 @@
         <v>84</v>
       </c>
       <c r="H52" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K52" s="91"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="15"/>
+      <c r="J52" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="K52" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="136"/>
@@ -4021,10 +4093,10 @@
       <c r="E54" s="144"/>
       <c r="F54" s="140"/>
       <c r="G54" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="141" t="s">
         <v>87</v>
-      </c>
-      <c r="H54" s="141" t="s">
-        <v>88</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="12"/>
@@ -4059,25 +4131,25 @@
       <c r="G56" s="154"/>
       <c r="H56" s="155"/>
       <c r="I56" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J56" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J56" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="K56" s="92" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M56" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="N56" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O56" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="N56" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>343</v>
       </c>
       <c r="P56" s="22"/>
     </row>
@@ -4103,16 +4175,16 @@
       <c r="E58" s="144"/>
       <c r="F58" s="140"/>
       <c r="G58" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="140" t="s">
         <v>91</v>
-      </c>
-      <c r="H58" s="140" t="s">
-        <v>92</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K58" s="91"/>
       <c r="L58" s="14"/>
@@ -4132,7 +4204,7 @@
         <v>15</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K59" s="91"/>
       <c r="L59" s="14"/>
@@ -4152,7 +4224,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K60" s="91"/>
       <c r="L60" s="14"/>
@@ -4172,7 +4244,7 @@
         <v>20</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K61" s="91"/>
       <c r="L61" s="14"/>
@@ -4192,7 +4264,7 @@
         <v>22</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K62" s="91"/>
       <c r="L62" s="14"/>
@@ -4212,7 +4284,7 @@
         <v>24</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K63" s="91"/>
       <c r="L63" s="14"/>
@@ -4232,7 +4304,7 @@
         <v>26</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K64" s="91"/>
       <c r="L64" s="14"/>
@@ -4252,7 +4324,7 @@
         <v>28</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K65" s="91"/>
       <c r="L65" s="14"/>
@@ -4269,10 +4341,10 @@
       <c r="G66" s="144"/>
       <c r="H66" s="140"/>
       <c r="I66" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="K66" s="91"/>
       <c r="L66" s="14"/>
@@ -4292,7 +4364,7 @@
         <v>33</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K67" s="91"/>
       <c r="L67" s="14"/>
@@ -4308,19 +4380,19 @@
         <v>18</v>
       </c>
       <c r="F68" s="140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G68" s="144" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68" s="91"/>
       <c r="L68" s="14"/>
@@ -4351,7 +4423,7 @@
       <c r="E70" s="144"/>
       <c r="F70" s="140"/>
       <c r="G70" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H70" s="140" t="s">
         <v>61</v>
@@ -4398,10 +4470,10 @@
         <v>13</v>
       </c>
       <c r="J72" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72" s="93" t="s">
         <v>108</v>
-      </c>
-      <c r="K72" s="93" t="s">
-        <v>109</v>
       </c>
       <c r="L72" s="25" t="s">
         <v>17</v>
@@ -4422,10 +4494,10 @@
         <v>15</v>
       </c>
       <c r="J73" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K73" s="93" t="s">
         <v>110</v>
-      </c>
-      <c r="K73" s="93" t="s">
-        <v>111</v>
       </c>
       <c r="L73" s="25" t="s">
         <v>17</v>
@@ -4446,10 +4518,10 @@
         <v>18</v>
       </c>
       <c r="J74" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="93" t="s">
         <v>112</v>
-      </c>
-      <c r="K74" s="93" t="s">
-        <v>113</v>
       </c>
       <c r="L74" s="25" t="s">
         <v>17</v>
@@ -4473,7 +4545,7 @@
         <v>83</v>
       </c>
       <c r="K75" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L75" s="25" t="s">
         <v>17</v>
@@ -4494,10 +4566,10 @@
         <v>22</v>
       </c>
       <c r="J76" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" s="93" t="s">
         <v>115</v>
-      </c>
-      <c r="K76" s="93" t="s">
-        <v>116</v>
       </c>
       <c r="L76" s="25" t="s">
         <v>17</v>
@@ -4529,7 +4601,7 @@
       <c r="E78" s="144"/>
       <c r="F78" s="140"/>
       <c r="G78" s="144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H78" s="157" t="s">
         <v>85</v>
@@ -4538,10 +4610,10 @@
         <v>13</v>
       </c>
       <c r="J78" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78" s="93" t="s">
         <v>118</v>
-      </c>
-      <c r="K78" s="93" t="s">
-        <v>119</v>
       </c>
       <c r="L78" s="25" t="s">
         <v>17</v>
@@ -4562,10 +4634,10 @@
         <v>15</v>
       </c>
       <c r="J79" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K79" s="93" t="s">
         <v>120</v>
-      </c>
-      <c r="K79" s="93" t="s">
-        <v>121</v>
       </c>
       <c r="L79" s="25" t="s">
         <v>17</v>
@@ -4586,10 +4658,10 @@
         <v>18</v>
       </c>
       <c r="J80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K80" s="93" t="s">
         <v>122</v>
-      </c>
-      <c r="K80" s="93" t="s">
-        <v>123</v>
       </c>
       <c r="L80" s="25" t="s">
         <v>17</v>
@@ -4610,10 +4682,10 @@
         <v>20</v>
       </c>
       <c r="J81" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K81" s="93" t="s">
         <v>124</v>
-      </c>
-      <c r="K81" s="93" t="s">
-        <v>125</v>
       </c>
       <c r="L81" s="25" t="s">
         <v>17</v>
@@ -4634,10 +4706,10 @@
         <v>22</v>
       </c>
       <c r="J82" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K82" s="93" t="s">
         <v>126</v>
-      </c>
-      <c r="K82" s="93" t="s">
-        <v>127</v>
       </c>
       <c r="L82" s="25" t="s">
         <v>17</v>
@@ -4658,10 +4730,10 @@
         <v>24</v>
       </c>
       <c r="J83" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K83" s="93" t="s">
         <v>128</v>
-      </c>
-      <c r="K83" s="93" t="s">
-        <v>129</v>
       </c>
       <c r="L83" s="25" t="s">
         <v>17</v>
@@ -4682,10 +4754,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K84" s="93" t="s">
         <v>130</v>
-      </c>
-      <c r="K84" s="93" t="s">
-        <v>131</v>
       </c>
       <c r="L84" s="25" t="s">
         <v>32</v>
@@ -4750,82 +4822,72 @@
       <c r="D88" s="140"/>
       <c r="E88" s="144"/>
       <c r="F88" s="140"/>
-      <c r="G88" s="153" t="s">
-        <v>87</v>
-      </c>
-      <c r="H88" s="158" t="s">
-        <v>132</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J88" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K88" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L88" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="M88" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="N88" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="O88" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="P88" s="22"/>
+      <c r="G88" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="H88" s="140" t="s">
+        <v>403</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="12"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="136"/>
       <c r="D89" s="140"/>
       <c r="E89" s="144"/>
       <c r="F89" s="140"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="159"/>
-      <c r="I89" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J89" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="K89" s="92" t="s">
-        <v>344</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="M89" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="N89" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="O89" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="P89" s="22"/>
+      <c r="G89" s="144"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="136"/>
       <c r="D90" s="140"/>
       <c r="E90" s="144"/>
       <c r="F90" s="140"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="159"/>
-      <c r="I90" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="91"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="28"/>
+      <c r="G90" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H90" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K90" s="92" t="s">
+        <v>327</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="M90" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N90" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="O90" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="P90" s="22"/>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="136"/>
@@ -4835,25 +4897,25 @@
       <c r="G91" s="154"/>
       <c r="H91" s="159"/>
       <c r="I91" s="19" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J91" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K91" s="92" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L91" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N91" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="M91" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="N91" s="21" t="s">
-        <v>348</v>
-      </c>
       <c r="O91" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P91" s="22"/>
     </row>
@@ -4864,115 +4926,113 @@
       <c r="F92" s="140"/>
       <c r="G92" s="154"/>
       <c r="H92" s="159"/>
-      <c r="I92" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J92" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="K92" s="92" t="s">
-        <v>344</v>
-      </c>
-      <c r="L92" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="M92" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="N92" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="O92" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="P92" s="22"/>
+      <c r="I92" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J92" s="16"/>
+      <c r="K92" s="91"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="28"/>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="136"/>
       <c r="D93" s="140"/>
       <c r="E93" s="144"/>
       <c r="F93" s="140"/>
-      <c r="G93" s="143"/>
-      <c r="H93" s="145"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="91"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="28"/>
+      <c r="G93" s="154"/>
+      <c r="H93" s="159"/>
+      <c r="I93" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J93" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K93" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="M93" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N93" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="P93" s="22"/>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="136"/>
       <c r="D94" s="140"/>
       <c r="E94" s="144"/>
       <c r="F94" s="140"/>
-      <c r="G94" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="H94" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K94" s="91"/>
-      <c r="L94" s="94"/>
-      <c r="M94" s="94"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
+      <c r="G94" s="154"/>
+      <c r="H94" s="159"/>
+      <c r="I94" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K94" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="M94" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="N94" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="O94" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="P94" s="22"/>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="136"/>
       <c r="D95" s="140"/>
       <c r="E95" s="144"/>
       <c r="F95" s="140"/>
-      <c r="G95" s="144"/>
-      <c r="H95" s="140"/>
-      <c r="I95" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J95" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K95" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="L95" s="92" t="s">
-        <v>344</v>
-      </c>
-      <c r="M95" s="92" t="s">
-        <v>347</v>
-      </c>
-      <c r="N95" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="O95" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="P95" s="22"/>
+      <c r="G95" s="143"/>
+      <c r="H95" s="145"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="91"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="28"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="136"/>
       <c r="D96" s="140"/>
       <c r="E96" s="144"/>
       <c r="F96" s="140"/>
-      <c r="G96" s="144"/>
-      <c r="H96" s="140"/>
+      <c r="G96" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="H96" s="140" t="s">
+        <v>91</v>
+      </c>
       <c r="I96" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K96" s="91"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
+      <c r="L96" s="94"/>
+      <c r="M96" s="94"/>
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
       <c r="P96" s="15"/>
@@ -4985,23 +5045,25 @@
       <c r="G97" s="144"/>
       <c r="H97" s="140"/>
       <c r="I97" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="K97" s="92" t="s">
-        <v>399</v>
-      </c>
-      <c r="L97" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="M97" s="21"/>
+        <v>327</v>
+      </c>
+      <c r="L97" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="M97" s="92" t="s">
+        <v>343</v>
+      </c>
       <c r="N97" s="21" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>409</v>
+        <v>331</v>
       </c>
       <c r="P97" s="22"/>
     </row>
@@ -5013,23 +5075,25 @@
       <c r="G98" s="144"/>
       <c r="H98" s="140"/>
       <c r="I98" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" s="20" t="s">
-        <v>398</v>
+        <v>18</v>
+      </c>
+      <c r="J98" s="168" t="s">
+        <v>411</v>
       </c>
       <c r="K98" s="92" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L98" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="M98" s="21"/>
+        <v>413</v>
+      </c>
+      <c r="M98" s="21" t="s">
+        <v>418</v>
+      </c>
       <c r="N98" s="21" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="P98" s="22"/>
     </row>
@@ -5040,18 +5104,26 @@
       <c r="F99" s="140"/>
       <c r="G99" s="144"/>
       <c r="H99" s="140"/>
-      <c r="I99" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K99" s="91"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
+      <c r="I99" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="168" t="s">
+        <v>390</v>
+      </c>
+      <c r="K99" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="L99" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="O99" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="P99" s="22"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="136"/>
@@ -5060,18 +5132,26 @@
       <c r="F100" s="140"/>
       <c r="G100" s="144"/>
       <c r="H100" s="140"/>
-      <c r="I100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J100" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K100" s="91"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
+      <c r="I100" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="168" t="s">
+        <v>391</v>
+      </c>
+      <c r="K100" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="L100" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="O100" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="P100" s="22"/>
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="136"/>
@@ -5080,18 +5160,28 @@
       <c r="F101" s="140"/>
       <c r="G101" s="144"/>
       <c r="H101" s="140"/>
-      <c r="I101" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K101" s="91"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="15"/>
+      <c r="I101" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="168" t="s">
+        <v>414</v>
+      </c>
+      <c r="K101" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="L101" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="M101" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="N101" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="O101" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="P101" s="22"/>
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="136"/>
@@ -5100,18 +5190,28 @@
       <c r="F102" s="140"/>
       <c r="G102" s="144"/>
       <c r="H102" s="140"/>
-      <c r="I102" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J102" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K102" s="91"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
+      <c r="I102" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="168" t="s">
+        <v>415</v>
+      </c>
+      <c r="K102" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="L102" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="M102" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="N102" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="O102" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="P102" s="22"/>
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C103" s="136"/>
@@ -5120,39 +5220,41 @@
       <c r="F103" s="140"/>
       <c r="G103" s="144"/>
       <c r="H103" s="140"/>
-      <c r="I103" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K103" s="91"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
+      <c r="I103" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" s="168" t="s">
+        <v>417</v>
+      </c>
+      <c r="K103" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="L103" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="M103" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="P103" s="22"/>
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C104" s="136"/>
       <c r="D104" s="140"/>
-      <c r="E104" s="144" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="E104" s="144"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="144"/>
+      <c r="H104" s="140"/>
       <c r="I104" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>148</v>
+        <v>30</v>
+      </c>
+      <c r="J104" s="169" t="s">
+        <v>97</v>
       </c>
       <c r="K104" s="91"/>
       <c r="L104" s="14"/>
@@ -5166,17 +5268,13 @@
       <c r="D105" s="140"/>
       <c r="E105" s="144"/>
       <c r="F105" s="140"/>
-      <c r="G105" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="G105" s="144"/>
+      <c r="H105" s="140"/>
       <c r="I105" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K105" s="91"/>
       <c r="L105" s="14"/>
@@ -5188,19 +5286,23 @@
     <row r="106" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C106" s="136"/>
       <c r="D106" s="140"/>
-      <c r="E106" s="144"/>
-      <c r="F106" s="140"/>
+      <c r="E106" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="140" t="s">
+        <v>142</v>
+      </c>
       <c r="G106" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K106" s="91"/>
       <c r="L106" s="14"/>
@@ -5215,16 +5317,16 @@
       <c r="E107" s="144"/>
       <c r="F107" s="140"/>
       <c r="G107" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K107" s="91"/>
       <c r="L107" s="14"/>
@@ -5234,69 +5336,119 @@
       <c r="P107" s="15"/>
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C108" s="137"/>
-      <c r="D108" s="141"/>
-      <c r="E108" s="153"/>
-      <c r="F108" s="141"/>
-      <c r="G108" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H108" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I108" s="29" t="s">
+      <c r="C108" s="136"/>
+      <c r="D108" s="140"/>
+      <c r="E108" s="144"/>
+      <c r="F108" s="140"/>
+      <c r="G108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K108" s="91"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C109" s="136"/>
+      <c r="D109" s="140"/>
+      <c r="E109" s="144"/>
+      <c r="F109" s="140"/>
+      <c r="G109" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J108" s="30"/>
-      <c r="K108" s="95"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="33"/>
-    </row>
-    <row r="109" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="138"/>
-      <c r="D109" s="142"/>
-      <c r="E109" s="156"/>
-      <c r="F109" s="142"/>
-      <c r="G109" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H109" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="I109" s="36" t="s">
+      <c r="I109" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K109" s="91"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C110" s="137"/>
+      <c r="D110" s="141"/>
+      <c r="E110" s="153"/>
+      <c r="F110" s="141"/>
+      <c r="G110" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I110" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J110" s="30"/>
+      <c r="K110" s="95"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="33"/>
+    </row>
+    <row r="111" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="138"/>
+      <c r="D111" s="142"/>
+      <c r="E111" s="156"/>
+      <c r="F111" s="142"/>
+      <c r="G111" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H111" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="J109" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K109" s="96"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="39"/>
+      <c r="I111" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J111" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="K111" s="96"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="38"/>
+      <c r="P111" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="G94:G103"/>
-    <mergeCell ref="H94:H103"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="F104:F109"/>
+  <mergeCells count="53">
+    <mergeCell ref="G96:G105"/>
+    <mergeCell ref="H96:H105"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="F106:F111"/>
     <mergeCell ref="G72:G77"/>
     <mergeCell ref="H72:H77"/>
     <mergeCell ref="G78:G87"/>
     <mergeCell ref="H78:H87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="H90:H95"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
     <mergeCell ref="G54:G57"/>
     <mergeCell ref="H54:H57"/>
     <mergeCell ref="G58:G67"/>
     <mergeCell ref="H58:H67"/>
-    <mergeCell ref="E68:E103"/>
-    <mergeCell ref="F68:F103"/>
+    <mergeCell ref="E68:E105"/>
+    <mergeCell ref="F68:F105"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="G70:G71"/>
@@ -5320,8 +5472,8 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K2:P2"/>
-    <mergeCell ref="C5:C109"/>
-    <mergeCell ref="D5:D109"/>
+    <mergeCell ref="C5:C111"/>
+    <mergeCell ref="D5:D111"/>
     <mergeCell ref="E5:E37"/>
     <mergeCell ref="F5:F37"/>
     <mergeCell ref="G5:G28"/>
@@ -5367,7 +5519,7 @@
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="129" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130"/>
@@ -5377,7 +5529,7 @@
       <c r="H2" s="130"/>
       <c r="I2" s="131"/>
       <c r="J2" s="132" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K2" s="133"/>
       <c r="L2" s="133"/>
@@ -5415,7 +5567,7 @@
         <v>7</v>
       </c>
       <c r="N3" s="110" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O3" s="111"/>
     </row>
@@ -5424,25 +5576,25 @@
         <v>20</v>
       </c>
       <c r="C4" s="160" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D4" s="143" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J4" s="98"/>
       <c r="K4" s="9"/>
@@ -5460,13 +5612,13 @@
         <v>15</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="14"/>
@@ -5484,13 +5636,13 @@
         <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J6" s="94"/>
       <c r="K6" s="14"/>
@@ -5508,13 +5660,13 @@
         <v>20</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="14"/>
@@ -5532,13 +5684,13 @@
         <v>22</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" s="94"/>
       <c r="K8" s="14"/>
@@ -5556,13 +5708,13 @@
         <v>24</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="14"/>
@@ -5580,13 +5732,13 @@
         <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="14"/>
@@ -5604,13 +5756,13 @@
         <v>28</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J11" s="94"/>
       <c r="K11" s="14"/>
@@ -5623,22 +5775,22 @@
       <c r="B12" s="136"/>
       <c r="C12" s="161"/>
       <c r="D12" s="144" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="140" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="14"/>
@@ -5656,13 +5808,13 @@
         <v>15</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="14"/>
@@ -5680,13 +5832,13 @@
         <v>18</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="14"/>
@@ -5704,13 +5856,13 @@
         <v>20</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="14"/>
@@ -5728,13 +5880,13 @@
         <v>22</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="14"/>
@@ -5752,13 +5904,13 @@
         <v>24</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="14"/>
@@ -5776,13 +5928,13 @@
         <v>26</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="14"/>
@@ -5800,13 +5952,13 @@
         <v>28</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="14"/>
@@ -5824,28 +5976,28 @@
         <v>30</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O20" s="22"/>
     </row>
@@ -5853,22 +6005,22 @@
       <c r="B21" s="136"/>
       <c r="C21" s="161"/>
       <c r="D21" s="153" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E21" s="141" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="14"/>
@@ -5883,16 +6035,16 @@
       <c r="D22" s="143"/>
       <c r="E22" s="139"/>
       <c r="F22" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="14"/>
@@ -5905,22 +6057,22 @@
       <c r="B23" s="136"/>
       <c r="C23" s="161"/>
       <c r="D23" s="144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="140" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="14"/>
@@ -5935,16 +6087,16 @@
       <c r="D24" s="144"/>
       <c r="E24" s="140"/>
       <c r="F24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="14"/>
@@ -5957,22 +6109,22 @@
       <c r="B25" s="136"/>
       <c r="C25" s="161"/>
       <c r="D25" s="144" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E25" s="140" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="14"/>
@@ -5987,16 +6139,16 @@
       <c r="D26" s="144"/>
       <c r="E26" s="140"/>
       <c r="F26" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="14"/>
@@ -6009,22 +6161,22 @@
       <c r="B27" s="136"/>
       <c r="C27" s="161"/>
       <c r="D27" s="144" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E27" s="140" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="14"/>
@@ -6042,13 +6194,13 @@
         <v>15</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J28" s="99"/>
       <c r="K28" s="32"/>
@@ -6063,16 +6215,16 @@
       <c r="D29" s="156"/>
       <c r="E29" s="142"/>
       <c r="F29" s="36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J29" s="100"/>
       <c r="K29" s="38"/>
@@ -6111,13 +6263,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P45"/>
+  <dimension ref="B1:P46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6139,7 +6291,7 @@
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="129" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130"/>
@@ -6149,7 +6301,7 @@
       <c r="H2" s="130"/>
       <c r="I2" s="131"/>
       <c r="J2" s="132" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K2" s="133"/>
       <c r="L2" s="133"/>
@@ -6181,16 +6333,16 @@
         <v>5</v>
       </c>
       <c r="L3" s="110" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M3" s="110" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N3" s="110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O3" s="111" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -6198,25 +6350,25 @@
         <v>30</v>
       </c>
       <c r="C4" s="160" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D4" s="143" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J4" s="98"/>
       <c r="K4" s="9"/>
@@ -6231,16 +6383,16 @@
       <c r="D5" s="144"/>
       <c r="E5" s="140"/>
       <c r="F5" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="14"/>
@@ -6258,13 +6410,13 @@
         <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J6" s="98"/>
       <c r="K6" s="14"/>
@@ -6282,13 +6434,13 @@
         <v>20</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="14"/>
@@ -6306,13 +6458,13 @@
         <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J8" s="98"/>
       <c r="K8" s="14"/>
@@ -6330,13 +6482,13 @@
         <v>24</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="14"/>
@@ -6351,13 +6503,13 @@
       <c r="D10" s="144"/>
       <c r="E10" s="140"/>
       <c r="F10" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="94"/>
@@ -6387,20 +6539,20 @@
       <c r="B12" s="136"/>
       <c r="C12" s="161"/>
       <c r="D12" s="144" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="140" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="14"/>
@@ -6415,14 +6567,14 @@
       <c r="D13" s="144"/>
       <c r="E13" s="140"/>
       <c r="F13" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="14"/>
@@ -6435,7 +6587,7 @@
       <c r="B14" s="136"/>
       <c r="C14" s="161"/>
       <c r="D14" s="144" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E14" s="140" t="s">
         <v>79</v>
@@ -6444,13 +6596,13 @@
         <v>11</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="14"/>
@@ -6465,14 +6617,14 @@
       <c r="D15" s="144"/>
       <c r="E15" s="140"/>
       <c r="F15" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="14"/>
@@ -6485,27 +6637,41 @@
       <c r="B16" s="136"/>
       <c r="C16" s="161"/>
       <c r="D16" s="144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="140" t="s">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>406</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="M16" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="N16" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="O16" s="104" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="136"/>
@@ -6513,96 +6679,78 @@
       <c r="D17" s="144"/>
       <c r="E17" s="140"/>
       <c r="F17" s="11" t="s">
-        <v>170</v>
+        <v>405</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="136"/>
       <c r="C18" s="161"/>
-      <c r="D18" s="153" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>216</v>
-      </c>
+      <c r="D18" s="144"/>
+      <c r="E18" s="140"/>
       <c r="F18" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="101" t="s">
-        <v>356</v>
-      </c>
-      <c r="I18" s="102" t="s">
-        <v>400</v>
-      </c>
-      <c r="J18" s="105" t="s">
-        <v>378</v>
-      </c>
-      <c r="K18" s="103" t="s">
-        <v>343</v>
-      </c>
-      <c r="L18" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="M18" s="103" t="s">
-        <v>379</v>
-      </c>
-      <c r="N18" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="O18" s="104" t="s">
-        <v>343</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="136"/>
       <c r="C19" s="161"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
+      <c r="D19" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="141" t="s">
+        <v>212</v>
+      </c>
       <c r="F19" s="11" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="92" t="s">
-        <v>402</v>
+        <v>214</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="102" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" s="105" t="s">
+        <v>371</v>
       </c>
       <c r="K19" s="103" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L19" s="103" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="M19" s="103" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
       <c r="N19" s="103" t="s">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="O19" s="104" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -6611,34 +6759,34 @@
       <c r="D20" s="154"/>
       <c r="E20" s="155"/>
       <c r="F20" s="11" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K20" s="103" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L20" s="103" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="103" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N20" s="103" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O20" s="104" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -6647,23 +6795,35 @@
       <c r="D21" s="154"/>
       <c r="E21" s="155"/>
       <c r="F21" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="94"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="K21" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="O21" s="104" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="136"/>
@@ -6671,16 +6831,16 @@
       <c r="D22" s="154"/>
       <c r="E22" s="155"/>
       <c r="F22" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="14"/>
@@ -6695,16 +6855,16 @@
       <c r="D23" s="154"/>
       <c r="E23" s="155"/>
       <c r="F23" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="14"/>
@@ -6719,16 +6879,16 @@
       <c r="D24" s="154"/>
       <c r="E24" s="155"/>
       <c r="F24" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="14"/>
@@ -6743,35 +6903,23 @@
       <c r="D25" s="154"/>
       <c r="E25" s="155"/>
       <c r="F25" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="92" t="s">
-        <v>380</v>
-      </c>
-      <c r="K25" s="103" t="s">
-        <v>343</v>
-      </c>
-      <c r="L25" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="M25" s="103" t="s">
-        <v>379</v>
-      </c>
-      <c r="N25" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="O25" s="104" t="s">
-        <v>343</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="94"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="136"/>
@@ -6779,23 +6927,35 @@
       <c r="D26" s="154"/>
       <c r="E26" s="155"/>
       <c r="F26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
+        <v>222</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="L26" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="M26" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="N26" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="O26" s="104" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="136"/>
@@ -6803,16 +6963,16 @@
       <c r="D27" s="154"/>
       <c r="E27" s="155"/>
       <c r="F27" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="14"/>
@@ -6827,16 +6987,16 @@
       <c r="D28" s="154"/>
       <c r="E28" s="155"/>
       <c r="F28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="14"/>
@@ -6851,16 +7011,16 @@
       <c r="D29" s="154"/>
       <c r="E29" s="155"/>
       <c r="F29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="14"/>
@@ -6875,16 +7035,16 @@
       <c r="D30" s="154"/>
       <c r="E30" s="155"/>
       <c r="F30" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="14"/>
@@ -6899,16 +7059,16 @@
       <c r="D31" s="154"/>
       <c r="E31" s="155"/>
       <c r="F31" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="14"/>
@@ -6923,16 +7083,16 @@
       <c r="D32" s="154"/>
       <c r="E32" s="155"/>
       <c r="F32" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J32" s="94"/>
       <c r="K32" s="14"/>
@@ -6947,16 +7107,16 @@
       <c r="D33" s="154"/>
       <c r="E33" s="155"/>
       <c r="F33" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="J33" s="94"/>
       <c r="K33" s="14"/>
@@ -6971,16 +7131,16 @@
       <c r="D34" s="154"/>
       <c r="E34" s="155"/>
       <c r="F34" s="11" t="s">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="14"/>
@@ -6995,16 +7155,16 @@
       <c r="D35" s="154"/>
       <c r="E35" s="155"/>
       <c r="F35" s="11" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J35" s="94"/>
       <c r="K35" s="14"/>
@@ -7019,16 +7179,16 @@
       <c r="D36" s="154"/>
       <c r="E36" s="155"/>
       <c r="F36" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="14"/>
@@ -7038,91 +7198,81 @@
       <c r="O36" s="15"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="137"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="33"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="94"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
       <c r="C38" s="162"/>
-      <c r="D38" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="H38" s="101" t="s">
-        <v>367</v>
-      </c>
-      <c r="I38" s="102"/>
-      <c r="J38" s="105" t="s">
-        <v>331</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="N38" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="O38" s="104" t="s">
-        <v>343</v>
-      </c>
+      <c r="D38" s="143"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="33"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="137"/>
       <c r="C39" s="162"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="F39" s="29" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H39" s="101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I39" s="102"/>
       <c r="J39" s="105" t="s">
-        <v>374</v>
-      </c>
-      <c r="K39" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="L39" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="M39" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N39" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="N39" s="103" t="s">
-        <v>336</v>
-      </c>
       <c r="O39" s="104" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -7131,32 +7281,32 @@
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H40" s="101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="105" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K40" s="103" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L40" s="103" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="M40" s="103" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="N40" s="103" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O40" s="104" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
@@ -7165,35 +7315,32 @@
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="29" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H41" s="101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I41" s="102"/>
       <c r="J41" s="105" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K41" s="103" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L41" s="103" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="M41" s="103" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="N41" s="103" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O41" s="104" t="s">
-        <v>343</v>
-      </c>
-      <c r="P41" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
@@ -7202,19 +7349,36 @@
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="H42" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="I42" s="102"/>
+      <c r="J42" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="L42" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="M42" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="N42" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" s="104" t="s">
+        <v>339</v>
+      </c>
+      <c r="P42" t="s">
         <v>361</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="I42" s="106"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="108"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
@@ -7222,19 +7386,19 @@
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="108"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
@@ -7242,10 +7406,12 @@
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G44" s="30"/>
-      <c r="H44" s="29"/>
+      <c r="H44" s="29" t="s">
+        <v>363</v>
+      </c>
       <c r="I44" s="30"/>
       <c r="J44" s="99"/>
       <c r="K44" s="32"/>
@@ -7254,42 +7420,60 @@
       <c r="N44" s="32"/>
       <c r="O44" s="33"/>
     </row>
-    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="138"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="39"/>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="137"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="33"/>
+    </row>
+    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D18:D37"/>
-    <mergeCell ref="E18:E37"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="D19:D38"/>
+    <mergeCell ref="E19:E38"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:B45"/>
-    <mergeCell ref="C4:C45"/>
+    <mergeCell ref="B4:B46"/>
+    <mergeCell ref="C4:C46"/>
     <mergeCell ref="D4:D11"/>
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7333,74 +7517,74 @@
     <row r="1" spans="2:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="164" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C2" s="164"/>
       <c r="D2" s="164"/>
       <c r="E2" s="164"/>
       <c r="G2" s="164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H2" s="164"/>
       <c r="I2" s="164"/>
       <c r="J2" s="164"/>
       <c r="L2" s="164" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M2" s="164"/>
       <c r="N2" s="164"/>
       <c r="P2" s="164" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="164"/>
       <c r="R2" s="164"/>
       <c r="U2" s="49" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="H3" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="J3" s="49" t="s">
         <v>245</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>249</v>
       </c>
       <c r="K3" s="50"/>
       <c r="L3" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="P3" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="M3" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>251</v>
-      </c>
       <c r="Q3" s="49" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="U3">
         <v>6</v>
@@ -7418,7 +7602,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C4" s="52">
         <v>107</v>
@@ -7427,7 +7611,7 @@
         <v>3.5432999999999999E-2</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H4" s="46">
         <v>0</v>
@@ -7439,7 +7623,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M4" s="53">
         <v>0</v>
@@ -7448,7 +7632,7 @@
         <v>7</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="54">
         <v>0</v>
@@ -7460,7 +7644,7 @@
         <v>-2</v>
       </c>
       <c r="Z4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
@@ -7474,7 +7658,7 @@
         <v>3.5432999999999999E-2</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7486,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M5" s="56">
         <v>0</v>
@@ -7495,7 +7679,7 @@
         <v>8</v>
       </c>
       <c r="P5" s="51" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="51">
         <v>0</v>
@@ -7516,7 +7700,7 @@
         <v>255</v>
       </c>
       <c r="Z5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
@@ -7530,7 +7714,7 @@
         <v>0.17716499999999999</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7542,7 +7726,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M6" s="53">
         <v>0</v>
@@ -7551,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="57">
         <v>0</v>
@@ -7584,7 +7768,7 @@
         <v>0.35432999999999998</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H7" s="54">
         <v>0</v>
@@ -7596,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="L7" s="60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M7" s="60">
         <v>0</v>
@@ -7605,7 +7789,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="58" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="58">
         <v>0</v>
@@ -7638,7 +7822,7 @@
         <v>0.46062900000000001</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H8" s="46">
         <v>0</v>
@@ -7648,7 +7832,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M8" s="53">
         <v>0</v>
@@ -7657,7 +7841,7 @@
         <v>-2</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="61">
         <v>0</v>
@@ -7690,7 +7874,7 @@
         <v>0.496062</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H9" s="46">
         <v>0</v>
@@ -7700,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M9" s="57">
         <v>0</v>
@@ -7709,7 +7893,7 @@
         <v>136</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="61">
         <v>0</v>
@@ -7733,7 +7917,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C10" s="52">
         <v>365</v>
@@ -7742,7 +7926,7 @@
         <v>0.53149500000000005</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="46">
         <v>0</v>
@@ -7754,7 +7938,7 @@
         <v>-2</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M10" s="54">
         <v>0</v>
@@ -7763,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="61" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="61">
         <v>0</v>
@@ -7796,7 +7980,7 @@
         <v>0.53149500000000005</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H11" s="46">
         <v>0</v>
@@ -7806,7 +7990,7 @@
         <v>7</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M11" s="64">
         <v>0</v>
@@ -7815,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="64">
         <v>0</v>
@@ -7848,7 +8032,7 @@
         <v>0.56692799999999999</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H12" s="46">
         <v>0</v>
@@ -7860,7 +8044,7 @@
         <v>136</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M12" s="67">
         <v>0</v>
@@ -7869,7 +8053,7 @@
         <v>130</v>
       </c>
       <c r="P12" s="57" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="57">
         <v>0</v>
@@ -7893,7 +8077,7 @@
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C13" s="52">
         <v>75</v>
@@ -7902,7 +8086,7 @@
         <v>0.63779399999999997</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H13" s="46">
         <v>0</v>
@@ -7914,7 +8098,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="60" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -7923,7 +8107,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="51">
         <v>0</v>
@@ -7956,7 +8140,7 @@
         <v>0.67322700000000002</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H14" s="46">
         <v>0</v>
@@ -7966,7 +8150,7 @@
         <v>-2</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M14" s="53">
         <v>0</v>
@@ -7975,7 +8159,7 @@
         <v>7</v>
       </c>
       <c r="P14" s="61" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="61">
         <v>0</v>
@@ -7997,7 +8181,7 @@
       </c>
       <c r="Y14" s="67"/>
       <c r="Z14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
@@ -8011,7 +8195,7 @@
         <v>0.70865999999999996</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H15" s="46">
         <v>0</v>
@@ -8021,7 +8205,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M15" s="54">
         <v>0</v>
@@ -8030,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="54" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q15" s="54">
         <v>0</v>
@@ -8063,7 +8247,7 @@
         <v>0.70865999999999996</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H16" s="46">
         <v>0</v>
@@ -8073,7 +8257,7 @@
         <v>6</v>
       </c>
       <c r="L16" s="58" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M16" s="58">
         <v>0</v>
@@ -8082,7 +8266,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="54">
         <v>0</v>
@@ -8115,7 +8299,7 @@
         <v>0.81495899999999999</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H17" s="46">
         <v>0</v>
@@ -8127,7 +8311,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M17" s="64">
         <v>0</v>
@@ -8136,7 +8320,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="64">
         <v>0</v>
@@ -8169,7 +8353,7 @@
         <v>0.81495899999999999</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H18" s="72">
         <v>3</v>
@@ -8181,7 +8365,7 @@
         <v>8</v>
       </c>
       <c r="L18" s="53" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M18" s="53">
         <v>0</v>
@@ -8190,7 +8374,7 @@
         <v>7</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="61">
         <v>0</v>
@@ -8223,7 +8407,7 @@
         <v>0.85039200000000004</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H19" s="72">
         <v>3</v>
@@ -8233,7 +8417,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="60" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M19" s="60">
         <v>0</v>
@@ -8242,7 +8426,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="61">
         <v>0</v>
@@ -8262,7 +8446,7 @@
         <v>0.88582499999999997</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H20" s="72">
         <v>3</v>
@@ -8272,7 +8456,7 @@
         <v>8</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M20" s="56">
         <v>0</v>
@@ -8281,7 +8465,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="61">
         <v>0</v>
@@ -8290,10 +8474,10 @@
         <v>-2</v>
       </c>
       <c r="U20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
@@ -8307,10 +8491,10 @@
         <v>0.95669099999999996</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I21" s="166">
         <v>48</v>
@@ -8319,7 +8503,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M21" s="53">
         <v>0</v>
@@ -8328,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="56">
         <v>0</v>
@@ -8337,10 +8521,10 @@
         <v>8</v>
       </c>
       <c r="U21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="V21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
@@ -8354,17 +8538,17 @@
         <v>1.0275570000000001</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H22" s="74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I22" s="166"/>
       <c r="J22" s="74">
         <v>5</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M22" s="67">
         <v>0</v>
@@ -8373,7 +8557,7 @@
         <v>130</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="61">
         <v>0</v>
@@ -8382,10 +8566,10 @@
         <v>7</v>
       </c>
       <c r="U22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="V22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
@@ -8399,17 +8583,17 @@
         <v>1.0275570000000001</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I23" s="166"/>
       <c r="J23" s="74">
         <v>4</v>
       </c>
       <c r="L23" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -8418,7 +8602,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="64" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="64">
         <v>0</v>
@@ -8427,15 +8611,15 @@
         <v>2</v>
       </c>
       <c r="U23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="V23" s="44" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C24" s="52">
         <v>364</v>
@@ -8444,10 +8628,10 @@
         <v>1.0629900000000001</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H24" s="72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I24" s="165">
         <v>286</v>
@@ -8456,7 +8640,7 @@
         <v>6</v>
       </c>
       <c r="L24" s="54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M24" s="54">
         <v>0</v>
@@ -8465,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q24" s="54">
         <v>0</v>
@@ -8474,10 +8658,10 @@
         <v>1</v>
       </c>
       <c r="U24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="V24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
@@ -8491,17 +8675,17 @@
         <v>1.0984229999999999</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H25" s="72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I25" s="165"/>
       <c r="J25" s="72">
         <v>1</v>
       </c>
       <c r="L25" s="53" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M25" s="53">
         <v>0</v>
@@ -8510,7 +8694,7 @@
         <v>7</v>
       </c>
       <c r="P25" s="57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="57">
         <v>0</v>
@@ -8519,15 +8703,15 @@
         <v>136</v>
       </c>
       <c r="U25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="V25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C26" s="52">
         <v>85</v>
@@ -8536,17 +8720,17 @@
         <v>1.0984229999999999</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H26" s="72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I26" s="165"/>
       <c r="J26" s="72">
         <v>6</v>
       </c>
       <c r="L26" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M26" s="56">
         <v>3</v>
@@ -8555,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="51" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q26" s="51">
         <v>0</v>
@@ -8564,10 +8748,10 @@
         <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Y26" s="75"/>
     </row>
@@ -8582,17 +8766,17 @@
         <v>1.169289</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I27" s="165"/>
       <c r="J27" s="72">
         <v>6</v>
       </c>
       <c r="L27" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M27" s="56">
         <v>3</v>
@@ -8601,7 +8785,7 @@
         <v>8</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q27" s="67">
         <v>0</v>
@@ -8610,10 +8794,10 @@
         <v>4</v>
       </c>
       <c r="U27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="V27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
@@ -8627,10 +8811,10 @@
         <v>1.169289</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H28" s="72" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I28" s="165">
         <v>46</v>
@@ -8639,7 +8823,7 @@
         <v>7</v>
       </c>
       <c r="L28" s="56" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M28" s="56">
         <v>3</v>
@@ -8648,7 +8832,7 @@
         <v>8</v>
       </c>
       <c r="P28" s="61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q28" s="61">
         <v>0</v>
@@ -8659,7 +8843,7 @@
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C29" s="52">
         <v>284</v>
@@ -8668,17 +8852,17 @@
         <v>1.169289</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H29" s="72" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I29" s="165"/>
       <c r="J29" s="72">
         <v>7</v>
       </c>
       <c r="L29" s="56" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M29" s="56">
         <v>3</v>
@@ -8687,7 +8871,7 @@
         <v>8</v>
       </c>
       <c r="P29" s="56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q29" s="56">
         <v>0</v>
@@ -8696,7 +8880,7 @@
         <v>8</v>
       </c>
       <c r="U29" s="49" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
@@ -8710,10 +8894,10 @@
         <v>1.2755879999999999</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H30" s="72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I30" s="72">
         <v>20</v>
@@ -8722,7 +8906,7 @@
         <v>182</v>
       </c>
       <c r="L30" s="56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M30" s="56">
         <v>3</v>
@@ -8731,7 +8915,7 @@
         <v>8</v>
       </c>
       <c r="P30" s="61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="61">
         <v>0</v>
@@ -8740,13 +8924,13 @@
         <v>7</v>
       </c>
       <c r="U30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="V30">
         <v>10</v>
       </c>
       <c r="X30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
@@ -8760,10 +8944,10 @@
         <v>1.2755879999999999</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I31" s="165">
         <v>47</v>
@@ -8772,16 +8956,16 @@
         <v>30</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N31" s="67">
         <v>130</v>
       </c>
       <c r="P31" s="67" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="67">
         <v>0</v>
@@ -8790,18 +8974,18 @@
         <v>4</v>
       </c>
       <c r="U31" s="76" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V31">
         <v>10</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C32" s="52">
         <v>244</v>
@@ -8810,26 +8994,26 @@
         <v>1.2755879999999999</v>
       </c>
       <c r="G32" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H32" s="72" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I32" s="165"/>
       <c r="J32" s="72">
         <v>30</v>
       </c>
       <c r="L32" s="67" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N32" s="67">
         <v>130</v>
       </c>
       <c r="P32" s="51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q32" s="51">
         <v>0</v>
@@ -8838,13 +9022,13 @@
         <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="V32">
         <v>12</v>
       </c>
       <c r="X32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
@@ -8858,10 +9042,10 @@
         <v>1.346454</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I33" s="78">
         <v>91</v>
@@ -8870,16 +9054,16 @@
         <v>6</v>
       </c>
       <c r="L33" s="54" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M33" s="54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N33" s="54">
         <v>1</v>
       </c>
       <c r="P33" s="57" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q33" s="57">
         <v>0</v>
@@ -8888,18 +9072,18 @@
         <v>136</v>
       </c>
       <c r="U33" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="V33">
         <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C34" s="52">
         <v>73</v>
@@ -8908,10 +9092,10 @@
         <v>1.3818870000000001</v>
       </c>
       <c r="G34" s="79" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H34" s="79" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I34" s="79">
         <v>49</v>
@@ -8920,16 +9104,16 @@
         <v>3</v>
       </c>
       <c r="L34" s="54" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M34" s="54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N34" s="54">
         <v>6</v>
       </c>
       <c r="P34" s="58" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="58">
         <v>0</v>
@@ -8938,18 +9122,18 @@
         <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="V34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C35" s="52">
         <v>11</v>
@@ -8958,10 +9142,10 @@
         <v>1.3818870000000001</v>
       </c>
       <c r="G35" s="79" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I35" s="167">
         <v>1904</v>
@@ -8970,16 +9154,16 @@
         <v>3</v>
       </c>
       <c r="L35" s="54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M35" s="54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N35" s="54">
         <v>6</v>
       </c>
       <c r="P35" s="54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q35" s="54">
         <v>0</v>
@@ -8988,13 +9172,13 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="V35">
         <v>16</v>
       </c>
       <c r="X35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
@@ -9008,26 +9192,26 @@
         <v>1.3818870000000001</v>
       </c>
       <c r="G36" s="79" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I36" s="167"/>
       <c r="J36" s="79">
         <v>3</v>
       </c>
       <c r="L36" s="54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M36" s="54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N36" s="54">
         <v>6</v>
       </c>
       <c r="P36" s="65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="65">
         <v>0</v>
@@ -9036,18 +9220,18 @@
         <v>5</v>
       </c>
       <c r="U36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="V36">
         <v>18</v>
       </c>
       <c r="X36" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C37" s="52">
         <v>246</v>
@@ -9056,26 +9240,26 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I37" s="167"/>
       <c r="J37" s="79">
         <v>3</v>
       </c>
       <c r="L37" s="54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M37" s="54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N37" s="54">
         <v>6</v>
       </c>
       <c r="P37" s="64" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="64">
         <v>0</v>
@@ -9095,10 +9279,10 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I38" s="80">
         <v>1284</v>
@@ -9107,16 +9291,16 @@
         <v>5</v>
       </c>
       <c r="L38" s="54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M38" s="54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N38" s="54">
         <v>1</v>
       </c>
       <c r="P38" s="61" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="61">
         <v>0</v>
@@ -9127,7 +9311,7 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C39" s="52">
         <v>202</v>
@@ -9136,10 +9320,10 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I39" s="80">
         <v>479</v>
@@ -9148,16 +9332,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M39" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N39" s="64">
         <v>2</v>
       </c>
       <c r="P39" s="56" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q39" s="56">
         <v>3</v>
@@ -9177,16 +9361,16 @@
         <v>1.4173199999999999</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M40" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N40" s="64">
         <v>2</v>
       </c>
       <c r="P40" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="56">
         <v>3</v>
@@ -9206,16 +9390,16 @@
         <v>1.452753</v>
       </c>
       <c r="L41" s="66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M41" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N41" s="66">
         <v>182</v>
       </c>
       <c r="P41" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="56">
         <v>3</v>
@@ -9226,7 +9410,7 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C42" s="52">
         <v>283</v>
@@ -9235,16 +9419,16 @@
         <v>1.452753</v>
       </c>
       <c r="L42" s="66" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M42" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N42" s="66">
         <v>182</v>
       </c>
       <c r="P42" s="56" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="56">
         <v>3</v>
@@ -9264,16 +9448,16 @@
         <v>1.629918</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M43" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N43" s="70">
         <v>3</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q43" s="56">
         <v>3</v>
@@ -9293,16 +9477,16 @@
         <v>1.629918</v>
       </c>
       <c r="L44" s="62" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M44" s="62" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N44" s="62">
         <v>30</v>
       </c>
       <c r="P44" s="56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="56">
         <v>3</v>
@@ -9322,16 +9506,16 @@
         <v>1.665351</v>
       </c>
       <c r="L45" s="60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N45" s="60">
         <v>6</v>
       </c>
       <c r="P45" s="56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q45" s="56">
         <v>3</v>
@@ -9351,16 +9535,16 @@
         <v>1.665351</v>
       </c>
       <c r="L46" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N46" s="60">
         <v>6</v>
       </c>
       <c r="P46" s="56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q46" s="56">
         <v>3</v>
@@ -9371,7 +9555,7 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C47" s="52">
         <v>271</v>
@@ -9380,19 +9564,19 @@
         <v>1.807083</v>
       </c>
       <c r="L47" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M47" s="56" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N47" s="56">
         <v>8</v>
       </c>
       <c r="P47" s="74" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q47" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R47" s="74">
         <v>130</v>
@@ -9409,19 +9593,19 @@
         <v>1.807083</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M48" s="56" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N48" s="56">
         <v>8</v>
       </c>
       <c r="P48" s="74" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q48" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R48" s="74">
         <v>130</v>
@@ -9438,19 +9622,19 @@
         <v>1.842516</v>
       </c>
       <c r="L49" s="68" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N49" s="68">
         <v>20</v>
       </c>
       <c r="P49" s="74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q49" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R49" s="74">
         <v>130</v>
@@ -9467,19 +9651,19 @@
         <v>1.842516</v>
       </c>
       <c r="L50" s="68" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N50" s="68">
         <v>20</v>
       </c>
       <c r="P50" s="74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q50" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R50" s="74">
         <v>130</v>
@@ -9496,19 +9680,19 @@
         <v>1.8779490000000001</v>
       </c>
       <c r="L51" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M51" s="58" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N51" s="58">
         <v>3</v>
       </c>
       <c r="P51" s="74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q51" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R51" s="74">
         <v>130</v>
@@ -9525,19 +9709,19 @@
         <v>1.9133819999999999</v>
       </c>
       <c r="L52" s="69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M52" s="69" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N52" s="69">
         <v>42</v>
       </c>
       <c r="P52" s="74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q52" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R52" s="74">
         <v>130</v>
@@ -9554,19 +9738,19 @@
         <v>1.948815</v>
       </c>
       <c r="L53" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M53" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N53" s="58">
         <v>3</v>
       </c>
       <c r="P53" s="74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q53" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R53" s="74">
         <v>130</v>
@@ -9583,19 +9767,19 @@
         <v>1.984248</v>
       </c>
       <c r="L54" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M54" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N54" s="58">
         <v>6</v>
       </c>
       <c r="P54" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q54" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R54" s="60">
         <v>6</v>
@@ -9612,19 +9796,19 @@
         <v>2.0196809999999998</v>
       </c>
       <c r="L55" s="58" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M55" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N55" s="58">
         <v>3</v>
       </c>
       <c r="P55" s="60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q55" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R55" s="60">
         <v>6</v>
@@ -9641,19 +9825,19 @@
         <v>2.0551140000000001</v>
       </c>
       <c r="L56" s="58" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M56" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N56" s="58">
         <v>3</v>
       </c>
       <c r="P56" s="60" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q56" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R56" s="60">
         <v>6</v>
@@ -9670,19 +9854,19 @@
         <v>2.0551140000000001</v>
       </c>
       <c r="L57" s="58" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M57" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N57" s="58">
         <v>3</v>
       </c>
       <c r="P57" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q57" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R57" s="60">
         <v>6</v>
@@ -9699,19 +9883,19 @@
         <v>2.0905469999999999</v>
       </c>
       <c r="L58" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M58" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N58" s="60">
         <v>6</v>
       </c>
       <c r="P58" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q58" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R58" s="60">
         <v>4</v>
@@ -9728,19 +9912,19 @@
         <v>2.161413</v>
       </c>
       <c r="L59" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M59" s="70" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N59" s="70">
         <v>30</v>
       </c>
       <c r="P59" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q59" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R59" s="60">
         <v>6</v>
@@ -9757,19 +9941,19 @@
         <v>2.1968459999999999</v>
       </c>
       <c r="L60" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M60" s="70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N60" s="70">
         <v>253</v>
       </c>
       <c r="P60" s="60" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q60" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R60" s="60">
         <v>6</v>
@@ -9786,19 +9970,19 @@
         <v>2.1968459999999999</v>
       </c>
       <c r="L61" s="73" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M61" s="73" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N61" s="73">
         <v>3</v>
       </c>
       <c r="P61" s="61" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q61" s="61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R61" s="61">
         <v>7</v>
@@ -9815,10 +9999,10 @@
         <v>2.267712</v>
       </c>
       <c r="P62" s="61" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q62" s="61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R62" s="61">
         <v>7</v>
@@ -9835,10 +10019,10 @@
         <v>2.444877</v>
       </c>
       <c r="P63" s="61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q63" s="61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R63" s="61">
         <v>7</v>
@@ -9855,10 +10039,10 @@
         <v>2.444877</v>
       </c>
       <c r="P64" s="61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q64" s="61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R64" s="61">
         <v>7</v>
@@ -9866,7 +10050,7 @@
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C65" s="52">
         <v>388</v>
@@ -9875,10 +10059,10 @@
         <v>2.4803099999999998</v>
       </c>
       <c r="P65" s="64" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q65" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="R65" s="64">
         <v>2</v>
@@ -9895,10 +10079,10 @@
         <v>2.5511759999999999</v>
       </c>
       <c r="P66" s="64" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q66" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="R66" s="64">
         <v>2</v>
@@ -9906,7 +10090,7 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C67" s="52">
         <v>106</v>
@@ -9915,10 +10099,10 @@
         <v>2.5511759999999999</v>
       </c>
       <c r="P67" s="64" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q67" s="64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="R67" s="64">
         <v>2</v>
@@ -9935,10 +10119,10 @@
         <v>2.5511759999999999</v>
       </c>
       <c r="P68" s="66" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q68" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R68" s="66">
         <v>182</v>
@@ -9955,10 +10139,10 @@
         <v>2.6574749999999998</v>
       </c>
       <c r="P69" s="66" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q69" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R69" s="66">
         <v>182</v>
@@ -9975,10 +10159,10 @@
         <v>2.7283409999999999</v>
       </c>
       <c r="P70" s="66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q70" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R70" s="66">
         <v>182</v>
@@ -9986,7 +10170,7 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C71" s="52">
         <v>387</v>
@@ -9995,10 +10179,10 @@
         <v>2.7637740000000002</v>
       </c>
       <c r="P71" s="66" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q71" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R71" s="66">
         <v>182</v>
@@ -10015,10 +10199,10 @@
         <v>2.7637740000000002</v>
       </c>
       <c r="P72" s="70" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q72" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R72" s="70">
         <v>3</v>
@@ -10035,10 +10219,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P73" s="70" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q73" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R73" s="70">
         <v>3</v>
@@ -10055,10 +10239,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P74" s="70" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q74" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R74" s="70">
         <v>8</v>
@@ -10075,10 +10259,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P75" s="70" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q75" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R75" s="70">
         <v>3</v>
@@ -10086,7 +10270,7 @@
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C76" s="52">
         <v>270</v>
@@ -10095,10 +10279,10 @@
         <v>2.8346399999999998</v>
       </c>
       <c r="P76" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q76" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R76" s="70">
         <v>3</v>
@@ -10106,7 +10290,7 @@
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C77" s="52">
         <v>407</v>
@@ -10115,10 +10299,10 @@
         <v>2.8700730000000001</v>
       </c>
       <c r="P77" s="62" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q77" s="62" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R77" s="62">
         <v>30</v>
@@ -10135,10 +10319,10 @@
         <v>2.976372</v>
       </c>
       <c r="P78" s="62" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q78" s="62" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R78" s="62">
         <v>30</v>
@@ -10155,10 +10339,10 @@
         <v>3.153537</v>
       </c>
       <c r="P79" s="65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q79" s="65" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="R79" s="65">
         <v>5</v>
@@ -10175,10 +10359,10 @@
         <v>3.2244030000000001</v>
       </c>
       <c r="P80" s="74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q80" s="74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="R80" s="74">
         <v>7</v>
@@ -10186,7 +10370,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C81" s="52">
         <v>274</v>
@@ -10195,10 +10379,10 @@
         <v>3.3307020000000001</v>
       </c>
       <c r="P81" s="74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q81" s="74" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="R81" s="74">
         <v>7</v>
@@ -10215,10 +10399,10 @@
         <v>3.3307020000000001</v>
       </c>
       <c r="P82" s="74" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q82" s="74" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="R82" s="74">
         <v>7</v>
@@ -10235,10 +10419,10 @@
         <v>3.3661349999999999</v>
       </c>
       <c r="P83" s="68" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q83" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R83" s="68">
         <v>20</v>
@@ -10246,7 +10430,7 @@
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C84" s="52">
         <v>64</v>
@@ -10255,10 +10439,10 @@
         <v>3.4015680000000001</v>
       </c>
       <c r="P84" s="68" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q84" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R84" s="68">
         <v>20</v>
@@ -10275,10 +10459,10 @@
         <v>3.5078670000000001</v>
       </c>
       <c r="P85" s="68" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q85" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R85" s="68">
         <v>20</v>
@@ -10295,10 +10479,10 @@
         <v>3.5078670000000001</v>
       </c>
       <c r="P86" s="68" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q86" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R86" s="68">
         <v>20</v>
@@ -10306,7 +10490,7 @@
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C87" s="52">
         <v>79</v>
@@ -10315,10 +10499,10 @@
         <v>3.5432999999999999</v>
       </c>
       <c r="P87" s="74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q87" s="74" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="R87" s="74">
         <v>7</v>
@@ -10335,10 +10519,10 @@
         <v>3.5787330000000002</v>
       </c>
       <c r="P88" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q88" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R88" s="58">
         <v>3</v>
@@ -10346,7 +10530,7 @@
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C89" s="52">
         <v>323</v>
@@ -10355,10 +10539,10 @@
         <v>3.6495989999999998</v>
       </c>
       <c r="P89" s="58" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q89" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R89" s="58">
         <v>3</v>
@@ -10375,10 +10559,10 @@
         <v>3.6495989999999998</v>
       </c>
       <c r="P90" s="58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q90" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R90" s="58">
         <v>3</v>
@@ -10395,10 +10579,10 @@
         <v>3.6850320000000001</v>
       </c>
       <c r="P91" s="58" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q91" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R91" s="58">
         <v>3</v>
@@ -10415,10 +10599,10 @@
         <v>3.7558980000000002</v>
       </c>
       <c r="P92" s="58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q92" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R92" s="58">
         <v>3</v>
@@ -10426,7 +10610,7 @@
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C93" s="52">
         <v>198</v>
@@ -10435,10 +10619,10 @@
         <v>3.8976299999999999</v>
       </c>
       <c r="P93" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q93" s="60" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="R93" s="60">
         <v>1</v>
@@ -10455,10 +10639,10 @@
         <v>3.8976299999999999</v>
       </c>
       <c r="P94" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q94" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R94" s="60">
         <v>6</v>
@@ -10475,10 +10659,10 @@
         <v>3.9330630000000002</v>
       </c>
       <c r="P95" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q95" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R95" s="60">
         <v>1</v>
@@ -10495,10 +10679,10 @@
         <v>3.9330630000000002</v>
       </c>
       <c r="P96" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q96" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R96" s="60">
         <v>6</v>
@@ -10515,10 +10699,10 @@
         <v>3.968496</v>
       </c>
       <c r="P97" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q97" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R97" s="60">
         <v>5</v>
@@ -10526,7 +10710,7 @@
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C98" s="52">
         <v>281</v>
@@ -10535,10 +10719,10 @@
         <v>3.968496</v>
       </c>
       <c r="P98" s="60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q98" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R98" s="60">
         <v>6</v>
@@ -10555,10 +10739,10 @@
         <v>4.0747949999999999</v>
       </c>
       <c r="P99" s="70" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q99" s="70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R99" s="70">
         <v>1</v>
@@ -10566,7 +10750,7 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C100" s="52">
         <v>61</v>
@@ -10575,10 +10759,10 @@
         <v>4.2165270000000001</v>
       </c>
       <c r="P100" s="70" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q100" s="70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R100" s="70">
         <v>1</v>
@@ -10595,10 +10779,10 @@
         <v>4.2519600000000004</v>
       </c>
       <c r="P101" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q101" s="70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R101" s="70">
         <v>1</v>
@@ -10615,10 +10799,10 @@
         <v>4.2519600000000004</v>
       </c>
       <c r="P102" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q102" s="70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R102" s="70">
         <v>8</v>
@@ -10626,7 +10810,7 @@
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C103" s="52">
         <v>103</v>
@@ -10637,7 +10821,7 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C104" s="52">
         <v>63</v>
@@ -10659,7 +10843,7 @@
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B106" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C106" s="52">
         <v>386</v>
@@ -10725,7 +10909,7 @@
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C112" s="52">
         <v>257</v>
@@ -10758,7 +10942,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C115" s="52">
         <v>199</v>
@@ -10780,7 +10964,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C117" s="52">
         <v>142</v>
@@ -10791,7 +10975,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C118" s="52">
         <v>272</v>
@@ -10824,7 +11008,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C121" s="52">
         <v>154</v>
@@ -10835,7 +11019,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C122" s="52">
         <v>60</v>
@@ -10901,7 +11085,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C128" s="52">
         <v>52</v>
@@ -10923,7 +11107,7 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C130" s="52">
         <v>337</v>
@@ -10967,7 +11151,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C134" s="52">
         <v>155</v>
@@ -10989,7 +11173,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C136" s="52">
         <v>74</v>
@@ -11022,7 +11206,7 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C139" s="52">
         <v>41</v>
@@ -11033,7 +11217,7 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C140" s="52">
         <v>280</v>
@@ -11077,7 +11261,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C144" s="52">
         <v>408</v>
@@ -11088,7 +11272,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C145" s="52">
         <v>232</v>
@@ -11143,7 +11327,7 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C150" s="52">
         <v>56</v>
@@ -11165,7 +11349,7 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C152" s="52">
         <v>53</v>
@@ -11176,7 +11360,7 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C153" s="52">
         <v>153</v>
@@ -11187,7 +11371,7 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C154" s="52">
         <v>231</v>
@@ -11220,7 +11404,7 @@
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C157" s="52">
         <v>105</v>
@@ -11253,7 +11437,7 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C160" s="52">
         <v>55</v>
@@ -11297,7 +11481,7 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C164" s="52">
         <v>253</v>
@@ -11319,7 +11503,7 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C166" s="52">
         <v>192</v>
@@ -11374,7 +11558,7 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C171" s="52">
         <v>65</v>
@@ -11407,7 +11591,7 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C174" s="52">
         <v>124</v>
@@ -11429,7 +11613,7 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C176" s="52">
         <v>276</v>
@@ -11440,7 +11624,7 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C177" s="52">
         <v>46</v>
@@ -11484,7 +11668,7 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C181" s="52">
         <v>42</v>
@@ -11495,7 +11679,7 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C182" s="52">
         <v>48</v>
@@ -11506,7 +11690,7 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C183" s="52">
         <v>37</v>
@@ -11572,7 +11756,7 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C189" s="52">
         <v>314</v>
@@ -11660,7 +11844,7 @@
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C197" s="52">
         <v>84</v>
@@ -11682,7 +11866,7 @@
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C199" s="52">
         <v>57</v>
@@ -11737,7 +11921,7 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="44" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C204" s="52">
         <v>258</v>
@@ -11748,7 +11932,7 @@
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C205" s="52">
         <v>72</v>
@@ -11759,7 +11943,7 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C206" s="52">
         <v>179</v>
@@ -11792,7 +11976,7 @@
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C209" s="52">
         <v>140</v>
@@ -11836,7 +12020,7 @@
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C213" s="52">
         <v>62</v>
@@ -11858,7 +12042,7 @@
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C215" s="52">
         <v>180</v>
@@ -11869,7 +12053,7 @@
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" s="44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C216" s="52">
         <v>136</v>
@@ -11902,7 +12086,7 @@
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C219" s="52">
         <v>233</v>
@@ -11924,7 +12108,7 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" s="44" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C221" s="52">
         <v>167</v>
@@ -11957,7 +12141,7 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C224" s="52">
         <v>104</v>
@@ -11968,7 +12152,7 @@
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C225" s="52">
         <v>313</v>
@@ -11979,7 +12163,7 @@
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C226" s="52">
         <v>357</v>
@@ -11990,7 +12174,7 @@
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C227" s="52">
         <v>51</v>
@@ -12045,7 +12229,7 @@
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C232" s="52">
         <v>47</v>
@@ -12056,7 +12240,7 @@
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C233" s="52">
         <v>38</v>
@@ -12067,7 +12251,7 @@
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C234" s="52">
         <v>152</v>
@@ -12089,7 +12273,7 @@
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C236" s="81">
         <v>336</v>
@@ -12166,7 +12350,7 @@
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C243" s="81">
         <v>44</v>
@@ -12188,7 +12372,7 @@
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C245" s="81">
         <v>90</v>
@@ -12199,7 +12383,7 @@
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C246" s="81">
         <v>12</v>
@@ -12210,7 +12394,7 @@
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C247" s="81">
         <v>293</v>
@@ -12232,7 +12416,7 @@
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C249" s="81">
         <v>91</v>
@@ -12243,7 +12427,7 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C250" s="81">
         <v>45</v>
@@ -12276,7 +12460,7 @@
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C253" s="81">
         <v>338</v>
@@ -12320,7 +12504,7 @@
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C257" s="81">
         <v>149</v>
@@ -12419,7 +12603,7 @@
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C266" s="81">
         <v>196</v>
@@ -12430,7 +12614,7 @@
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C267" s="81">
         <v>71</v>
@@ -12441,7 +12625,7 @@
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C268" s="81">
         <v>282</v>
@@ -12463,7 +12647,7 @@
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C270" s="81">
         <v>181</v>
@@ -12485,7 +12669,7 @@
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C272" s="81">
         <v>86</v>
@@ -12573,7 +12757,7 @@
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B280" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C280" s="81">
         <v>22</v>
@@ -12584,7 +12768,7 @@
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B281" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C281" s="81">
         <v>164</v>
@@ -12595,7 +12779,7 @@
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B282" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C282" s="81">
         <v>203</v>
@@ -12606,7 +12790,7 @@
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C283" s="81">
         <v>269</v>
@@ -12628,7 +12812,7 @@
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B285" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C285" s="81">
         <v>35</v>
@@ -12639,7 +12823,7 @@
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B286" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C286" s="81">
         <v>88</v>
@@ -12650,7 +12834,7 @@
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B287" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C287" s="81">
         <v>89</v>
@@ -12683,7 +12867,7 @@
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B290" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C290" s="81">
         <v>382</v>
@@ -12694,7 +12878,7 @@
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B291" s="44" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C291" s="81">
         <v>381</v>
@@ -12705,7 +12889,7 @@
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B292" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C292" s="81">
         <v>222</v>
@@ -12716,7 +12900,7 @@
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B293" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C293" s="81">
         <v>156</v>
@@ -12738,7 +12922,7 @@
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C295" s="81">
         <v>278</v>
@@ -12771,7 +12955,7 @@
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B298" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C298" s="81">
         <v>212</v>
@@ -12815,7 +12999,7 @@
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C302" s="81">
         <v>390</v>
@@ -12826,7 +13010,7 @@
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B303" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C303" s="81">
         <v>108</v>
@@ -12837,7 +13021,7 @@
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B304" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C304" s="81">
         <v>260</v>
@@ -12892,7 +13076,7 @@
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C309" s="81">
         <v>174</v>
@@ -12903,7 +13087,7 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C310" s="81">
         <v>10</v>
@@ -12914,7 +13098,7 @@
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C311" s="81">
         <v>157</v>
@@ -12925,7 +13109,7 @@
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C312" s="81">
         <v>151</v>
@@ -12936,7 +13120,7 @@
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C313" s="81">
         <v>235</v>
@@ -12947,7 +13131,7 @@
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C314" s="81">
         <v>259</v>
@@ -12980,7 +13164,7 @@
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C317" s="81">
         <v>87</v>
@@ -12991,7 +13175,7 @@
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C318" s="81">
         <v>68</v>
@@ -13013,7 +13197,7 @@
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C320" s="81">
         <v>397</v>
@@ -13024,7 +13208,7 @@
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C321" s="81">
         <v>29</v>
@@ -13046,7 +13230,7 @@
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C323" s="81">
         <v>277</v>
@@ -13090,7 +13274,7 @@
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C327" s="81">
         <v>396</v>
@@ -13101,7 +13285,7 @@
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C328" s="81">
         <v>391</v>
@@ -13134,7 +13318,7 @@
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C331" s="81">
         <v>139</v>
@@ -13145,7 +13329,7 @@
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" s="44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C332" s="81">
         <v>138</v>
@@ -13156,7 +13340,7 @@
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C333" s="81">
         <v>255</v>
@@ -13200,7 +13384,7 @@
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C337" s="81">
         <v>392</v>
@@ -13222,7 +13406,7 @@
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C339" s="81">
         <v>210</v>
@@ -13233,7 +13417,7 @@
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C340" s="81">
         <v>211</v>
@@ -13244,7 +13428,7 @@
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C341" s="81">
         <v>39</v>
@@ -13255,7 +13439,7 @@
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C342" s="81">
         <v>36</v>
@@ -13299,7 +13483,7 @@
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" s="44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C346" s="81">
         <v>137</v>
@@ -13321,7 +13505,7 @@
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C348" s="81">
         <v>213</v>
@@ -13354,7 +13538,7 @@
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" s="44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C351" s="81">
         <v>135</v>
@@ -13365,7 +13549,7 @@
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C352" s="81">
         <v>98</v>
@@ -13387,7 +13571,7 @@
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C354" s="81">
         <v>109</v>
@@ -13409,7 +13593,7 @@
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C356" s="81">
         <v>394</v>
@@ -13453,7 +13637,7 @@
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C360" s="81">
         <v>218</v>
@@ -13464,7 +13648,7 @@
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C361" s="81">
         <v>217</v>
@@ -13475,7 +13659,7 @@
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C362" s="81">
         <v>182</v>
@@ -13486,7 +13670,7 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C363" s="81">
         <v>221</v>
@@ -13497,7 +13681,7 @@
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C364" s="81">
         <v>385</v>
@@ -13508,7 +13692,7 @@
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C365" s="82">
         <v>389</v>
@@ -13541,7 +13725,7 @@
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C368" s="82">
         <v>82</v>
@@ -13552,7 +13736,7 @@
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C369" s="82">
         <v>263</v>
@@ -13574,7 +13758,7 @@
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C371" s="82">
         <v>261</v>
@@ -13596,7 +13780,7 @@
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C373" s="82">
         <v>193</v>
@@ -13629,7 +13813,7 @@
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C376" s="82">
         <v>8</v>
@@ -13640,7 +13824,7 @@
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" s="44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C377" s="82">
         <v>384</v>
@@ -13651,7 +13835,7 @@
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C378" s="82">
         <v>7</v>
@@ -13662,7 +13846,7 @@
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C379" s="82">
         <v>25</v>
@@ -13673,7 +13857,7 @@
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C380" s="82">
         <v>220</v>
@@ -13684,7 +13868,7 @@
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C381" s="83">
         <v>13</v>
@@ -13695,7 +13879,7 @@
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C382" s="83">
         <v>15</v>
@@ -13706,7 +13890,7 @@
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C383" s="83">
         <v>175</v>
@@ -13728,7 +13912,7 @@
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C385" s="83">
         <v>18</v>
@@ -13739,7 +13923,7 @@
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C386" s="83">
         <v>172</v>
@@ -13750,7 +13934,7 @@
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C387" s="83">
         <v>28</v>
@@ -13761,7 +13945,7 @@
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C388" s="83">
         <v>171</v>
@@ -13772,7 +13956,7 @@
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C389" s="83">
         <v>112</v>
@@ -13783,7 +13967,7 @@
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" s="44" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C390" s="83">
         <v>5</v>
@@ -13805,7 +13989,7 @@
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C392" s="83">
         <v>393</v>
@@ -13816,7 +14000,7 @@
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C393" s="83">
         <v>14</v>
@@ -13827,7 +14011,7 @@
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C394" s="84">
         <v>148</v>
@@ -13838,7 +14022,7 @@
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C395" s="84">
         <v>208</v>
@@ -13849,7 +14033,7 @@
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C396" s="84">
         <v>17</v>
@@ -13860,7 +14044,7 @@
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" s="44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C397" s="84">
         <v>209</v>
@@ -13871,7 +14055,7 @@
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C398" s="84">
         <v>294</v>
@@ -13882,7 +14066,7 @@
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C399" s="84">
         <v>9</v>
@@ -13893,7 +14077,7 @@
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C400" s="84">
         <v>292</v>
@@ -13904,7 +14088,7 @@
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C401" s="84">
         <v>187</v>
@@ -13926,7 +14110,7 @@
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" s="44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C403" s="46">
         <v>16</v>
@@ -13957,8 +14141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13971,91 +14155,103 @@
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="112" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C2" s="113" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E2" s="113" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F2" s="114" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" s="115" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="117" t="s">
         <v>387</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>394</v>
       </c>
       <c r="F3" s="118">
         <v>42653</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="120" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F4" s="121">
         <v>42807</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="120" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D5" s="123" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E5" s="123" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F5" s="121">
         <v>42891</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="120"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122"/>
+      <c r="B6" s="120" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="121">
+        <v>42907</v>
+      </c>
+      <c r="G6" s="122" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="120"/>

--- a/Document/Featrue list and styles.xlsx
+++ b/Document/Featrue list and styles.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="polygon" sheetId="1" r:id="rId1"/>
     <sheet name="polyline" sheetId="2" r:id="rId2"/>
     <sheet name="point" sheetId="3" r:id="rId3"/>
-    <sheet name="cad属性→layer种别" sheetId="4" r:id="rId4"/>
-    <sheet name="变更履历" sheetId="5" r:id="rId5"/>
+    <sheet name="locate" sheetId="6" r:id="rId4"/>
+    <sheet name="cad属性→layer种别" sheetId="4" r:id="rId5"/>
+    <sheet name="变更履历" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="480">
   <si>
     <t>形状分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,6 +1639,185 @@
   <si>
     <t>陈雅婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机设备及软件</t>
+  </si>
+  <si>
+    <t>办公设备</t>
+  </si>
+  <si>
+    <t>车辆</t>
+  </si>
+  <si>
+    <t>图书档案设备</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>雷达、无线电和卫星导航设备</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>广播、电视、电影设备</t>
+  </si>
+  <si>
+    <t>仪器仪表</t>
+  </si>
+  <si>
+    <t>电子和通信测量仪器</t>
+  </si>
+  <si>
+    <t>计量标准器具及量具、衡器</t>
+  </si>
+  <si>
+    <t>探矿、采矿、选矿和造块设备</t>
+  </si>
+  <si>
+    <t>石油天然气开采专用设备</t>
+  </si>
+  <si>
+    <t>石油和化学工业专用设备</t>
+  </si>
+  <si>
+    <t>炼焦和金属冶炼轧制设备</t>
+  </si>
+  <si>
+    <t>电气工业专用设备</t>
+  </si>
+  <si>
+    <t>非金属矿物制品工业专用设备</t>
+  </si>
+  <si>
+    <t>核工业专用设备</t>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.4</t>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate分类和式样设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地、房室及构筑物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40010100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40010200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40010300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40010400</t>
+  </si>
+  <si>
+    <t>40010500</t>
+  </si>
+  <si>
+    <t>40010600</t>
+  </si>
+  <si>
+    <t>40010700</t>
+  </si>
+  <si>
+    <t>40010800</t>
+  </si>
+  <si>
+    <t>40010900</t>
+  </si>
+  <si>
+    <t>40011000</t>
+  </si>
+  <si>
+    <t>40011100</t>
+  </si>
+  <si>
+    <t>40011200</t>
+  </si>
+  <si>
+    <t>40011300</t>
+  </si>
+  <si>
+    <t>40011400</t>
+  </si>
+  <si>
+    <t>40011500</t>
+  </si>
+  <si>
+    <t>40011600</t>
+  </si>
+  <si>
+    <t>40011700</t>
+  </si>
+  <si>
+    <t>40011800</t>
+  </si>
+  <si>
+    <t>40011900</t>
+  </si>
+  <si>
+    <t>40012000</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2555,6 +2735,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2678,8 +2872,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2963,7 +3155,7 @@
   <dimension ref="C1:P111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="M96" sqref="M96"/>
@@ -3002,42 +3194,42 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="135" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="132" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
     </row>
     <row r="3" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="127" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="128"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="109" t="s">
         <v>4</v>
       </c>
@@ -3056,18 +3248,18 @@
       <c r="P3" s="111"/>
     </row>
     <row r="4" spans="3:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="147">
+      <c r="C4" s="153">
         <v>99</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149">
+      <c r="D4" s="154"/>
+      <c r="E4" s="155">
         <v>99</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="150" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="151"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="85" t="s">
         <v>327</v>
       </c>
@@ -3092,22 +3284,22 @@
       <c r="P4" s="88"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="135">
+      <c r="C5" s="141">
         <v>10</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="151" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3124,12 +3316,12 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C6" s="136"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="146"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3144,12 +3336,12 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="136"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="146"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
@@ -3164,12 +3356,12 @@
       <c r="P7" s="15"/>
     </row>
     <row r="8" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="136"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="146"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -3184,12 +3376,12 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="136"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="146"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3204,12 +3396,12 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="136"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="146"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
@@ -3224,12 +3416,12 @@
       <c r="P10" s="15"/>
     </row>
     <row r="11" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="136"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="146"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
@@ -3244,12 +3436,12 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="136"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="146"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
@@ -3264,12 +3456,12 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="136"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="146"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="11" t="s">
         <v>30</v>
       </c>
@@ -3284,12 +3476,12 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="136"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="146"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="11" t="s">
         <v>33</v>
       </c>
@@ -3304,12 +3496,12 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="136"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="146"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3324,12 +3516,12 @@
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="136"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="146"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="152"/>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3344,12 +3536,12 @@
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="136"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="146"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="11" t="s">
         <v>39</v>
       </c>
@@ -3364,12 +3556,12 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="136"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="146"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="152"/>
       <c r="I18" s="11" t="s">
         <v>41</v>
       </c>
@@ -3384,12 +3576,12 @@
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="136"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="146"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="152"/>
       <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
@@ -3404,12 +3596,12 @@
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="136"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="146"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="152"/>
       <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
@@ -3424,12 +3616,12 @@
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="136"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="146"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="152"/>
       <c r="I21" s="11" t="s">
         <v>47</v>
       </c>
@@ -3444,12 +3636,12 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="136"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="146"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="152"/>
       <c r="I22" s="11" t="s">
         <v>49</v>
       </c>
@@ -3464,12 +3656,12 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="136"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="146"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="152"/>
       <c r="I23" s="11" t="s">
         <v>51</v>
       </c>
@@ -3484,12 +3676,12 @@
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="136"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="146"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="152"/>
       <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
@@ -3504,12 +3696,12 @@
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="136"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="146"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="152"/>
       <c r="I25" s="11" t="s">
         <v>55</v>
       </c>
@@ -3524,12 +3716,12 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="136"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="146"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="152"/>
       <c r="I26" s="11" t="s">
         <v>57</v>
       </c>
@@ -3544,12 +3736,12 @@
       <c r="P26" s="15"/>
     </row>
     <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="136"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="146"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="152"/>
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
@@ -3564,12 +3756,12 @@
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="136"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="146"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="152"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="91"/>
@@ -3580,14 +3772,14 @@
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="136"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="144" t="s">
+      <c r="C29" s="142"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="140" t="s">
+      <c r="H29" s="146" t="s">
         <v>61</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -3604,12 +3796,12 @@
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="136"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="140"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="11" t="s">
         <v>15</v>
       </c>
@@ -3624,12 +3816,12 @@
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="136"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="140"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="146"/>
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
@@ -3644,12 +3836,12 @@
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="136"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="140"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="146"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="91"/>
@@ -3660,12 +3852,12 @@
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="136"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="140"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="146"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="91"/>
@@ -3676,14 +3868,14 @@
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="136"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="144" t="s">
+      <c r="C34" s="142"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="146" t="s">
+      <c r="H34" s="152" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -3700,12 +3892,12 @@
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="136"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="146"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="152"/>
       <c r="I35" s="11"/>
       <c r="J35" s="16"/>
       <c r="K35" s="91"/>
@@ -3716,14 +3908,14 @@
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="136"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="144" t="s">
+      <c r="C36" s="142"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="146" t="s">
+      <c r="H36" s="152" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -3740,12 +3932,12 @@
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="136"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="146"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="152"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="91"/>
@@ -3756,18 +3948,18 @@
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="136"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="144" t="s">
+      <c r="C38" s="142"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="140" t="s">
+      <c r="F38" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="144" t="s">
+      <c r="G38" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="140" t="s">
+      <c r="H38" s="146" t="s">
         <v>70</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -3784,12 +3976,12 @@
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="136"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="140"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="146"/>
       <c r="I39" s="11" t="s">
         <v>15</v>
       </c>
@@ -3804,12 +3996,12 @@
       <c r="P39" s="15"/>
     </row>
     <row r="40" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="136"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="140"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="146"/>
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
@@ -3824,12 +4016,12 @@
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="136"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="140"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="146"/>
       <c r="I41" s="11" t="s">
         <v>20</v>
       </c>
@@ -3844,12 +4036,12 @@
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="136"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="140"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="146"/>
       <c r="I42" s="11" t="s">
         <v>22</v>
       </c>
@@ -3864,12 +4056,12 @@
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="136"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="140"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="146"/>
       <c r="I43" s="11" t="s">
         <v>24</v>
       </c>
@@ -3884,12 +4076,12 @@
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="136"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="140"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="146"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
       <c r="K44" s="91"/>
@@ -3900,14 +4092,14 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="136"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="144" t="s">
+      <c r="C45" s="142"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="140" t="s">
+      <c r="H45" s="146" t="s">
         <v>61</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -3922,12 +4114,12 @@
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="136"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="140"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="146"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="91"/>
@@ -3938,14 +4130,14 @@
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="136"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="144" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="140" t="s">
+      <c r="H47" s="146" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -3962,12 +4154,12 @@
       <c r="P47" s="15"/>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="136"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="140"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="146"/>
       <c r="I48" s="11" t="s">
         <v>15</v>
       </c>
@@ -3982,12 +4174,12 @@
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C49" s="136"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="140"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="146"/>
       <c r="I49" s="11" t="s">
         <v>18</v>
       </c>
@@ -4002,12 +4194,12 @@
       <c r="P49" s="15"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C50" s="136"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="140"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="146"/>
       <c r="I50" s="11" t="s">
         <v>20</v>
       </c>
@@ -4022,12 +4214,12 @@
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C51" s="136"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="140"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="146"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
       <c r="K51" s="91"/>
@@ -4038,14 +4230,14 @@
       <c r="P51" s="15"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="136"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="144" t="s">
+      <c r="C52" s="142"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="140" t="s">
+      <c r="H52" s="146" t="s">
         <v>409</v>
       </c>
       <c r="I52" s="19" t="s">
@@ -4072,12 +4264,12 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="136"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="140"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="146"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="91"/>
@@ -4088,14 +4280,14 @@
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="136"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="153" t="s">
+      <c r="C54" s="142"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="141" t="s">
+      <c r="H54" s="147" t="s">
         <v>87</v>
       </c>
       <c r="I54" s="11"/>
@@ -4108,12 +4300,12 @@
       <c r="P54" s="15"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="136"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="155"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="161"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
       <c r="K55" s="91"/>
@@ -4124,12 +4316,12 @@
       <c r="P55" s="15"/>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C56" s="136"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="155"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="161"/>
       <c r="I56" s="19" t="s">
         <v>88</v>
       </c>
@@ -4154,12 +4346,12 @@
       <c r="P56" s="22"/>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C57" s="136"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="139"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="145"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="91"/>
@@ -4170,14 +4362,14 @@
       <c r="P57" s="15"/>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C58" s="136"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="144" t="s">
+      <c r="C58" s="142"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="140" t="s">
+      <c r="H58" s="146" t="s">
         <v>91</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -4194,12 +4386,12 @@
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="136"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="140"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="146"/>
       <c r="I59" s="11" t="s">
         <v>15</v>
       </c>
@@ -4214,12 +4406,12 @@
       <c r="P59" s="15"/>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C60" s="136"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="140"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="146"/>
       <c r="I60" s="11" t="s">
         <v>18</v>
       </c>
@@ -4234,12 +4426,12 @@
       <c r="P60" s="15"/>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C61" s="136"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="140"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="146"/>
       <c r="I61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4254,12 +4446,12 @@
       <c r="P61" s="15"/>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C62" s="136"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="140"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="146"/>
       <c r="I62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4274,12 +4466,12 @@
       <c r="P62" s="15"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C63" s="136"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="140"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="146"/>
       <c r="I63" s="11" t="s">
         <v>24</v>
       </c>
@@ -4294,12 +4486,12 @@
       <c r="P63" s="15"/>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C64" s="136"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="140"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="150"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="146"/>
       <c r="I64" s="11" t="s">
         <v>26</v>
       </c>
@@ -4314,12 +4506,12 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C65" s="136"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="140"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="150"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="146"/>
       <c r="I65" s="11" t="s">
         <v>28</v>
       </c>
@@ -4334,12 +4526,12 @@
       <c r="P65" s="15"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66" s="136"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="140"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="146"/>
       <c r="I66" s="11" t="s">
         <v>100</v>
       </c>
@@ -4354,12 +4546,12 @@
       <c r="P66" s="15"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C67" s="136"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="144"/>
-      <c r="H67" s="140"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="146"/>
       <c r="I67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4374,18 +4566,18 @@
       <c r="P67" s="15"/>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C68" s="136"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="144" t="s">
+      <c r="C68" s="142"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="140" t="s">
+      <c r="F68" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="144" t="s">
+      <c r="G68" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="140" t="s">
+      <c r="H68" s="146" t="s">
         <v>104</v>
       </c>
       <c r="I68" s="11" t="s">
@@ -4402,12 +4594,12 @@
       <c r="P68" s="15"/>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C69" s="136"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="140"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="146"/>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="91"/>
@@ -4418,14 +4610,14 @@
       <c r="P69" s="15"/>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C70" s="136"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="144" t="s">
+      <c r="C70" s="142"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="140" t="s">
+      <c r="H70" s="146" t="s">
         <v>61</v>
       </c>
       <c r="I70" s="11" t="s">
@@ -4440,12 +4632,12 @@
       <c r="P70" s="15"/>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C71" s="136"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="140"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="146"/>
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
       <c r="K71" s="91"/>
@@ -4456,14 +4648,14 @@
       <c r="P71" s="15"/>
     </row>
     <row r="72" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="136"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="144" t="s">
+      <c r="C72" s="142"/>
+      <c r="D72" s="146"/>
+      <c r="E72" s="150"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="H72" s="157" t="s">
+      <c r="H72" s="163" t="s">
         <v>65</v>
       </c>
       <c r="I72" s="23" t="s">
@@ -4484,12 +4676,12 @@
       <c r="P72" s="26"/>
     </row>
     <row r="73" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="136"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="144"/>
-      <c r="H73" s="157"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="163"/>
       <c r="I73" s="23" t="s">
         <v>15</v>
       </c>
@@ -4508,12 +4700,12 @@
       <c r="P73" s="26"/>
     </row>
     <row r="74" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="136"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="144"/>
-      <c r="H74" s="157"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="150"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="163"/>
       <c r="I74" s="23" t="s">
         <v>18</v>
       </c>
@@ -4532,12 +4724,12 @@
       <c r="P74" s="26"/>
     </row>
     <row r="75" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="136"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="144"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="144"/>
-      <c r="H75" s="157"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="150"/>
+      <c r="H75" s="163"/>
       <c r="I75" s="23" t="s">
         <v>20</v>
       </c>
@@ -4556,12 +4748,12 @@
       <c r="P75" s="26"/>
     </row>
     <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="136"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="144"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="144"/>
-      <c r="H76" s="157"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="150"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="150"/>
+      <c r="H76" s="163"/>
       <c r="I76" s="23" t="s">
         <v>22</v>
       </c>
@@ -4580,12 +4772,12 @@
       <c r="P76" s="26"/>
     </row>
     <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="136"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="157"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="150"/>
+      <c r="H77" s="163"/>
       <c r="I77" s="23"/>
       <c r="J77" s="24"/>
       <c r="K77" s="93"/>
@@ -4596,14 +4788,14 @@
       <c r="P77" s="26"/>
     </row>
     <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="136"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="144"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="144" t="s">
+      <c r="C78" s="142"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="150"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="H78" s="157" t="s">
+      <c r="H78" s="163" t="s">
         <v>85</v>
       </c>
       <c r="I78" s="23" t="s">
@@ -4624,12 +4816,12 @@
       <c r="P78" s="26"/>
     </row>
     <row r="79" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="136"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="144"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="144"/>
-      <c r="H79" s="157"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="150"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="150"/>
+      <c r="H79" s="163"/>
       <c r="I79" s="23" t="s">
         <v>15</v>
       </c>
@@ -4648,12 +4840,12 @@
       <c r="P79" s="26"/>
     </row>
     <row r="80" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="136"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="144"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="144"/>
-      <c r="H80" s="157"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="163"/>
       <c r="I80" s="23" t="s">
         <v>18</v>
       </c>
@@ -4672,12 +4864,12 @@
       <c r="P80" s="26"/>
     </row>
     <row r="81" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="136"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="144"/>
-      <c r="H81" s="157"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="150"/>
+      <c r="H81" s="163"/>
       <c r="I81" s="23" t="s">
         <v>20</v>
       </c>
@@ -4696,12 +4888,12 @@
       <c r="P81" s="26"/>
     </row>
     <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="136"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="144"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="144"/>
-      <c r="H82" s="157"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="146"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="146"/>
+      <c r="G82" s="150"/>
+      <c r="H82" s="163"/>
       <c r="I82" s="23" t="s">
         <v>22</v>
       </c>
@@ -4720,12 +4912,12 @@
       <c r="P82" s="26"/>
     </row>
     <row r="83" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="136"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="144"/>
-      <c r="H83" s="157"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="150"/>
+      <c r="F83" s="146"/>
+      <c r="G83" s="150"/>
+      <c r="H83" s="163"/>
       <c r="I83" s="23" t="s">
         <v>24</v>
       </c>
@@ -4744,12 +4936,12 @@
       <c r="P83" s="26"/>
     </row>
     <row r="84" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="136"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="144"/>
-      <c r="F84" s="140"/>
-      <c r="G84" s="144"/>
-      <c r="H84" s="157"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="146"/>
+      <c r="E84" s="150"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="150"/>
+      <c r="H84" s="163"/>
       <c r="I84" s="23" t="s">
         <v>26</v>
       </c>
@@ -4768,12 +4960,12 @@
       <c r="P84" s="26"/>
     </row>
     <row r="85" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="136"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="144"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="144"/>
-      <c r="H85" s="157"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="150"/>
+      <c r="H85" s="163"/>
       <c r="I85" s="23" t="s">
         <v>28</v>
       </c>
@@ -4786,12 +4978,12 @@
       <c r="P85" s="26"/>
     </row>
     <row r="86" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="136"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="144"/>
-      <c r="H86" s="157"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="163"/>
       <c r="I86" s="23"/>
       <c r="J86" s="24"/>
       <c r="K86" s="93"/>
@@ -4802,12 +4994,12 @@
       <c r="P86" s="26"/>
     </row>
     <row r="87" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="136"/>
-      <c r="D87" s="140"/>
-      <c r="E87" s="144"/>
-      <c r="F87" s="140"/>
-      <c r="G87" s="144"/>
-      <c r="H87" s="157"/>
+      <c r="C87" s="142"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="150"/>
+      <c r="H87" s="163"/>
       <c r="I87" s="23"/>
       <c r="J87" s="24"/>
       <c r="K87" s="93"/>
@@ -4818,14 +5010,14 @@
       <c r="P87" s="26"/>
     </row>
     <row r="88" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C88" s="136"/>
-      <c r="D88" s="140"/>
-      <c r="E88" s="144"/>
-      <c r="F88" s="140"/>
-      <c r="G88" s="144" t="s">
+      <c r="C88" s="142"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="150" t="s">
         <v>416</v>
       </c>
-      <c r="H88" s="140" t="s">
+      <c r="H88" s="146" t="s">
         <v>403</v>
       </c>
       <c r="I88" s="11" t="s">
@@ -4840,12 +5032,12 @@
       <c r="P88" s="15"/>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C89" s="136"/>
-      <c r="D89" s="140"/>
-      <c r="E89" s="144"/>
-      <c r="F89" s="140"/>
-      <c r="G89" s="144"/>
-      <c r="H89" s="140"/>
+      <c r="C89" s="142"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="150"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="150"/>
+      <c r="H89" s="146"/>
       <c r="I89" s="11"/>
       <c r="J89" s="12"/>
       <c r="K89" s="91"/>
@@ -4856,14 +5048,14 @@
       <c r="P89" s="15"/>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C90" s="136"/>
-      <c r="D90" s="140"/>
-      <c r="E90" s="144"/>
-      <c r="F90" s="140"/>
-      <c r="G90" s="153" t="s">
+      <c r="C90" s="142"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="150"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="H90" s="158" t="s">
+      <c r="H90" s="164" t="s">
         <v>131</v>
       </c>
       <c r="I90" s="19" t="s">
@@ -4890,12 +5082,12 @@
       <c r="P90" s="22"/>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C91" s="136"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="144"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="159"/>
+      <c r="C91" s="142"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="150"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="160"/>
+      <c r="H91" s="165"/>
       <c r="I91" s="19" t="s">
         <v>106</v>
       </c>
@@ -4920,12 +5112,12 @@
       <c r="P91" s="22"/>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C92" s="136"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="144"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="159"/>
+      <c r="C92" s="142"/>
+      <c r="D92" s="146"/>
+      <c r="E92" s="150"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="160"/>
+      <c r="H92" s="165"/>
       <c r="I92" s="13" t="s">
         <v>78</v>
       </c>
@@ -4938,12 +5130,12 @@
       <c r="P92" s="28"/>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C93" s="136"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="144"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="159"/>
+      <c r="C93" s="142"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="150"/>
+      <c r="F93" s="146"/>
+      <c r="G93" s="160"/>
+      <c r="H93" s="165"/>
       <c r="I93" s="19" t="s">
         <v>135</v>
       </c>
@@ -4968,12 +5160,12 @@
       <c r="P93" s="22"/>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C94" s="136"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="144"/>
-      <c r="F94" s="140"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="159"/>
+      <c r="C94" s="142"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="150"/>
+      <c r="F94" s="146"/>
+      <c r="G94" s="160"/>
+      <c r="H94" s="165"/>
       <c r="I94" s="19" t="s">
         <v>86</v>
       </c>
@@ -4998,12 +5190,12 @@
       <c r="P94" s="22"/>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C95" s="136"/>
-      <c r="D95" s="140"/>
-      <c r="E95" s="144"/>
-      <c r="F95" s="140"/>
-      <c r="G95" s="143"/>
-      <c r="H95" s="145"/>
+      <c r="C95" s="142"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="146"/>
+      <c r="G95" s="149"/>
+      <c r="H95" s="151"/>
       <c r="I95" s="13"/>
       <c r="J95" s="16"/>
       <c r="K95" s="91"/>
@@ -5014,14 +5206,14 @@
       <c r="P95" s="28"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C96" s="136"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="144"/>
-      <c r="F96" s="140"/>
-      <c r="G96" s="144" t="s">
+      <c r="C96" s="142"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="150"/>
+      <c r="F96" s="146"/>
+      <c r="G96" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="H96" s="140" t="s">
+      <c r="H96" s="146" t="s">
         <v>91</v>
       </c>
       <c r="I96" s="11" t="s">
@@ -5038,12 +5230,12 @@
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C97" s="136"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="144"/>
-      <c r="F97" s="140"/>
-      <c r="G97" s="144"/>
-      <c r="H97" s="140"/>
+      <c r="C97" s="142"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="150"/>
+      <c r="F97" s="146"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="146"/>
       <c r="I97" s="19" t="s">
         <v>15</v>
       </c>
@@ -5068,16 +5260,16 @@
       <c r="P97" s="22"/>
     </row>
     <row r="98" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C98" s="136"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="144"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="144"/>
-      <c r="H98" s="140"/>
+      <c r="C98" s="142"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="146"/>
       <c r="I98" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J98" s="168" t="s">
+      <c r="J98" s="131" t="s">
         <v>411</v>
       </c>
       <c r="K98" s="92" t="s">
@@ -5098,16 +5290,16 @@
       <c r="P98" s="22"/>
     </row>
     <row r="99" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C99" s="136"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="144"/>
-      <c r="F99" s="140"/>
-      <c r="G99" s="144"/>
-      <c r="H99" s="140"/>
+      <c r="C99" s="142"/>
+      <c r="D99" s="146"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="146"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="146"/>
       <c r="I99" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="168" t="s">
+      <c r="J99" s="131" t="s">
         <v>390</v>
       </c>
       <c r="K99" s="92" t="s">
@@ -5126,16 +5318,16 @@
       <c r="P99" s="22"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C100" s="136"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="144"/>
-      <c r="F100" s="140"/>
-      <c r="G100" s="144"/>
-      <c r="H100" s="140"/>
+      <c r="C100" s="142"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="146"/>
+      <c r="G100" s="150"/>
+      <c r="H100" s="146"/>
       <c r="I100" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J100" s="168" t="s">
+      <c r="J100" s="131" t="s">
         <v>391</v>
       </c>
       <c r="K100" s="92" t="s">
@@ -5154,16 +5346,16 @@
       <c r="P100" s="22"/>
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C101" s="136"/>
-      <c r="D101" s="140"/>
-      <c r="E101" s="144"/>
-      <c r="F101" s="140"/>
-      <c r="G101" s="144"/>
-      <c r="H101" s="140"/>
+      <c r="C101" s="142"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="146"/>
+      <c r="G101" s="150"/>
+      <c r="H101" s="146"/>
       <c r="I101" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J101" s="168" t="s">
+      <c r="J101" s="131" t="s">
         <v>414</v>
       </c>
       <c r="K101" s="92" t="s">
@@ -5184,16 +5376,16 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C102" s="136"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="144"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="144"/>
-      <c r="H102" s="140"/>
+      <c r="C102" s="142"/>
+      <c r="D102" s="146"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="146"/>
+      <c r="G102" s="150"/>
+      <c r="H102" s="146"/>
       <c r="I102" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J102" s="168" t="s">
+      <c r="J102" s="131" t="s">
         <v>415</v>
       </c>
       <c r="K102" s="92" t="s">
@@ -5214,16 +5406,16 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C103" s="136"/>
-      <c r="D103" s="140"/>
-      <c r="E103" s="144"/>
-      <c r="F103" s="140"/>
-      <c r="G103" s="144"/>
-      <c r="H103" s="140"/>
+      <c r="C103" s="142"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="150"/>
+      <c r="F103" s="146"/>
+      <c r="G103" s="150"/>
+      <c r="H103" s="146"/>
       <c r="I103" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J103" s="168" t="s">
+      <c r="J103" s="131" t="s">
         <v>417</v>
       </c>
       <c r="K103" s="92" t="s">
@@ -5244,16 +5436,16 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C104" s="136"/>
-      <c r="D104" s="140"/>
-      <c r="E104" s="144"/>
-      <c r="F104" s="140"/>
-      <c r="G104" s="144"/>
-      <c r="H104" s="140"/>
+      <c r="C104" s="142"/>
+      <c r="D104" s="146"/>
+      <c r="E104" s="150"/>
+      <c r="F104" s="146"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="146"/>
       <c r="I104" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J104" s="169" t="s">
+      <c r="J104" s="132" t="s">
         <v>97</v>
       </c>
       <c r="K104" s="91"/>
@@ -5264,12 +5456,12 @@
       <c r="P104" s="15"/>
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C105" s="136"/>
-      <c r="D105" s="140"/>
-      <c r="E105" s="144"/>
-      <c r="F105" s="140"/>
-      <c r="G105" s="144"/>
-      <c r="H105" s="140"/>
+      <c r="C105" s="142"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="150"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="150"/>
+      <c r="H105" s="146"/>
       <c r="I105" s="11" t="s">
         <v>140</v>
       </c>
@@ -5284,12 +5476,12 @@
       <c r="P105" s="15"/>
     </row>
     <row r="106" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C106" s="136"/>
-      <c r="D106" s="140"/>
-      <c r="E106" s="144" t="s">
+      <c r="C106" s="142"/>
+      <c r="D106" s="146"/>
+      <c r="E106" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="F106" s="140" t="s">
+      <c r="F106" s="146" t="s">
         <v>142</v>
       </c>
       <c r="G106" s="11" t="s">
@@ -5312,10 +5504,10 @@
       <c r="P106" s="15"/>
     </row>
     <row r="107" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C107" s="136"/>
-      <c r="D107" s="140"/>
-      <c r="E107" s="144"/>
-      <c r="F107" s="140"/>
+      <c r="C107" s="142"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="146"/>
       <c r="G107" s="11" t="s">
         <v>15</v>
       </c>
@@ -5336,10 +5528,10 @@
       <c r="P107" s="15"/>
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C108" s="136"/>
-      <c r="D108" s="140"/>
-      <c r="E108" s="144"/>
-      <c r="F108" s="140"/>
+      <c r="C108" s="142"/>
+      <c r="D108" s="146"/>
+      <c r="E108" s="150"/>
+      <c r="F108" s="146"/>
       <c r="G108" s="11" t="s">
         <v>18</v>
       </c>
@@ -5360,10 +5552,10 @@
       <c r="P108" s="15"/>
     </row>
     <row r="109" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C109" s="136"/>
-      <c r="D109" s="140"/>
-      <c r="E109" s="144"/>
-      <c r="F109" s="140"/>
+      <c r="C109" s="142"/>
+      <c r="D109" s="146"/>
+      <c r="E109" s="150"/>
+      <c r="F109" s="146"/>
       <c r="G109" s="11" t="s">
         <v>20</v>
       </c>
@@ -5384,10 +5576,10 @@
       <c r="P109" s="15"/>
     </row>
     <row r="110" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C110" s="137"/>
-      <c r="D110" s="141"/>
-      <c r="E110" s="153"/>
-      <c r="F110" s="141"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="147"/>
+      <c r="E110" s="159"/>
+      <c r="F110" s="147"/>
       <c r="G110" s="29" t="s">
         <v>86</v>
       </c>
@@ -5406,10 +5598,10 @@
       <c r="P110" s="33"/>
     </row>
     <row r="111" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="138"/>
-      <c r="D111" s="142"/>
-      <c r="E111" s="156"/>
-      <c r="F111" s="142"/>
+      <c r="C111" s="144"/>
+      <c r="D111" s="148"/>
+      <c r="E111" s="162"/>
+      <c r="F111" s="148"/>
       <c r="G111" s="36" t="s">
         <v>90</v>
       </c>
@@ -5518,42 +5710,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="135" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="132" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="134"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128" t="s">
+      <c r="B3" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="127" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="134"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -5572,16 +5764,16 @@
       <c r="O3" s="111"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="135">
+      <c r="B4" s="141">
         <v>20</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="145" t="s">
         <v>156</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -5604,10 +5796,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="140"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
@@ -5628,10 +5820,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="136"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="140"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -5652,10 +5844,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="136"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="140"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5676,10 +5868,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="136"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -5700,10 +5892,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="136"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="140"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -5724,10 +5916,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="136"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="140"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="146"/>
       <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
@@ -5748,10 +5940,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="136"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="140"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="146"/>
       <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
@@ -5772,12 +5964,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="136"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="144" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="146" t="s">
         <v>168</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -5800,10 +5992,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="136"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="140"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
@@ -5824,10 +6016,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="136"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="140"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="146"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
@@ -5848,10 +6040,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="136"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="140"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
@@ -5872,10 +6064,10 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="136"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="140"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="146"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -5896,10 +6088,10 @@
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="136"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="140"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="11" t="s">
         <v>24</v>
       </c>
@@ -5920,10 +6112,10 @@
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="136"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="140"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="146"/>
       <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
@@ -5944,10 +6136,10 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="136"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="140"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="146"/>
       <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
@@ -5968,10 +6160,10 @@
       <c r="O19" s="15"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="136"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="140"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="11" t="s">
         <v>30</v>
       </c>
@@ -6002,12 +6194,12 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="136"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="153" t="s">
+      <c r="B21" s="142"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="159" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="141" t="s">
+      <c r="E21" s="147" t="s">
         <v>177</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -6030,10 +6222,10 @@
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="136"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="139"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="11" t="s">
         <v>167</v>
       </c>
@@ -6054,12 +6246,12 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="136"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="144" t="s">
+      <c r="B23" s="142"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="140" t="s">
+      <c r="E23" s="146" t="s">
         <v>180</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -6082,10 +6274,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="136"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="140"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="146"/>
       <c r="F24" s="11" t="s">
         <v>106</v>
       </c>
@@ -6106,12 +6298,12 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="136"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="144" t="s">
+      <c r="B25" s="142"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="146" t="s">
         <v>184</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -6134,10 +6326,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="136"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="140"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="146"/>
       <c r="F26" s="11" t="s">
         <v>167</v>
       </c>
@@ -6158,12 +6350,12 @@
       <c r="O26" s="15"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="136"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="144" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="146" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -6186,10 +6378,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="137"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="141"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="29" t="s">
         <v>15</v>
       </c>
@@ -6210,10 +6402,10 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="138"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="142"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="148"/>
       <c r="F29" s="36" t="s">
         <v>176</v>
       </c>
@@ -6269,7 +6461,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16:O16"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6290,42 +6482,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="135" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="132" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="134"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128" t="s">
+      <c r="B3" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="127" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="134"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6346,16 +6538,16 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="135">
+      <c r="B4" s="141">
         <v>30</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="145" t="s">
         <v>193</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -6378,10 +6570,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="140"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="11" t="s">
         <v>167</v>
       </c>
@@ -6402,10 +6594,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="136"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="140"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -6426,10 +6618,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="136"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="140"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6450,10 +6642,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="136"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -6474,10 +6666,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="136"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="140"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -6498,10 +6690,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="136"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="140"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="146"/>
       <c r="F10" s="11" t="s">
         <v>202</v>
       </c>
@@ -6520,10 +6712,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="136"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="140"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="146"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
@@ -6536,12 +6728,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="136"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="144" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="146" t="s">
         <v>205</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -6562,10 +6754,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="136"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="140"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="11" t="s">
         <v>167</v>
       </c>
@@ -6584,12 +6776,12 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="136"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="144" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="150" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="146" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -6612,10 +6804,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="136"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="140"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="11" t="s">
         <v>167</v>
       </c>
@@ -6634,12 +6826,12 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="136"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="144" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="146" t="s">
         <v>403</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -6658,7 +6850,7 @@
         <v>406</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>407</v>
@@ -6674,10 +6866,10 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="136"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="140"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="11" t="s">
         <v>405</v>
       </c>
@@ -6692,10 +6884,10 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="136"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="140"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="146"/>
       <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
@@ -6714,12 +6906,12 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="136"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="153" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="147" t="s">
         <v>212</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -6754,10 +6946,10 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="136"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
       <c r="F20" s="11" t="s">
         <v>167</v>
       </c>
@@ -6790,10 +6982,10 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="136"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
       <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
@@ -6826,10 +7018,10 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="136"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
       <c r="F22" s="11" t="s">
         <v>20</v>
       </c>
@@ -6850,10 +7042,10 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="136"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="161"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
@@ -6874,10 +7066,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="136"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
       <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
@@ -6898,10 +7090,10 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="136"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="161"/>
       <c r="F25" s="11" t="s">
         <v>26</v>
       </c>
@@ -6922,10 +7114,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="136"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="161"/>
       <c r="F26" s="11" t="s">
         <v>28</v>
       </c>
@@ -6958,10 +7150,10 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="136"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="11" t="s">
         <v>30</v>
       </c>
@@ -6982,10 +7174,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="136"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
       <c r="F28" s="11" t="s">
         <v>33</v>
       </c>
@@ -7006,10 +7198,10 @@
       <c r="O28" s="15"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="136"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="161"/>
       <c r="F29" s="11" t="s">
         <v>35</v>
       </c>
@@ -7030,10 +7222,10 @@
       <c r="O29" s="15"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="136"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
       <c r="F30" s="11" t="s">
         <v>37</v>
       </c>
@@ -7054,10 +7246,10 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="136"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="161"/>
       <c r="F31" s="11" t="s">
         <v>39</v>
       </c>
@@ -7078,10 +7270,10 @@
       <c r="O31" s="15"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="136"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="155"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="161"/>
       <c r="F32" s="11" t="s">
         <v>41</v>
       </c>
@@ -7102,10 +7294,10 @@
       <c r="O32" s="15"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="136"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="161"/>
       <c r="F33" s="11" t="s">
         <v>43</v>
       </c>
@@ -7126,10 +7318,10 @@
       <c r="O33" s="15"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="136"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="155"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="161"/>
       <c r="F34" s="11" t="s">
         <v>49</v>
       </c>
@@ -7150,10 +7342,10 @@
       <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="136"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="161"/>
       <c r="F35" s="11" t="s">
         <v>230</v>
       </c>
@@ -7174,10 +7366,10 @@
       <c r="O35" s="15"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="136"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="155"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="161"/>
       <c r="F36" s="11" t="s">
         <v>53</v>
       </c>
@@ -7198,10 +7390,10 @@
       <c r="O36" s="15"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="136"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="155"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="161"/>
       <c r="F37" s="11" t="s">
         <v>55</v>
       </c>
@@ -7222,10 +7414,10 @@
       <c r="O37" s="15"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="137"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="139"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="29"/>
@@ -7238,8 +7430,8 @@
       <c r="O38" s="33"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="137"/>
-      <c r="C39" s="162"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="17" t="s">
         <v>349</v>
       </c>
@@ -7276,8 +7468,8 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="137"/>
-      <c r="C40" s="162"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="29" t="s">
@@ -7310,8 +7502,8 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="137"/>
-      <c r="C41" s="162"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="29" t="s">
@@ -7344,8 +7536,8 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="137"/>
-      <c r="C42" s="162"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="29" t="s">
@@ -7381,8 +7573,8 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="137"/>
-      <c r="C43" s="162"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="29" t="s">
@@ -7401,8 +7593,8 @@
       <c r="O43" s="108"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="137"/>
-      <c r="C44" s="162"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="168"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="29" t="s">
@@ -7421,8 +7613,8 @@
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="137"/>
-      <c r="C45" s="162"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="168"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29" t="s">
@@ -7439,8 +7631,8 @@
       <c r="O45" s="33"/>
     </row>
     <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="138"/>
-      <c r="C46" s="163"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="169"/>
       <c r="D46" s="35"/>
       <c r="E46" s="34"/>
       <c r="F46" s="36"/>
@@ -7456,6 +7648,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D19:D38"/>
     <mergeCell ref="E19:E38"/>
@@ -7470,10 +7666,6 @@
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7482,6 +7674,1453 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="2" width="2.75" customWidth="1"/>
+    <col min="4" max="4" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="42" customWidth="1"/>
+    <col min="14" max="15" width="8.375" style="42" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
+    </row>
+    <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="134"/>
+      <c r="J3" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>364</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>365</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="141">
+        <v>40</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="145" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="141"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>461</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="141"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>462</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="141"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>463</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="141"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="141"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="141"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="141"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="98" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="141"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="141"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="141"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>470</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="141"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="141"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="141"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="141"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>474</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="141"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="141"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="141"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="98" t="s">
+        <v>477</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="141"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="98" t="s">
+        <v>478</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="141"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="142"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="142"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="146"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="142"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="142"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="146"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="142"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="142"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="146"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="142"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="142"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="142"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="147"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="142"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="142"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="142"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="142"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="142"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="142"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="142"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="142"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="142"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="142"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="142"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="142"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="142"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="142"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="142"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="142"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="142"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="142"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="143"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="143"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="127"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="143"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="143"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="107"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="143"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="143"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="107"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="143"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="107"/>
+      <c r="L57" s="107"/>
+      <c r="M57" s="107"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="143"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="107"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+    </row>
+    <row r="59" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="144"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D32:D51"/>
+    <mergeCell ref="E32:E51"/>
+    <mergeCell ref="B4:B59"/>
+    <mergeCell ref="C4:C59"/>
+    <mergeCell ref="D4:D24"/>
+    <mergeCell ref="E4:E24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z403"/>
   <sheetViews>
@@ -7516,28 +9155,28 @@
   <sheetData>
     <row r="1" spans="2:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="G2" s="164" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="170" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="L2" s="164" t="s">
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="L2" s="170" t="s">
         <v>236</v>
       </c>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="P2" s="164" t="s">
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="P2" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
       <c r="U2" s="49" t="s">
         <v>238</v>
       </c>
@@ -8358,7 +9997,7 @@
       <c r="H18" s="72">
         <v>3</v>
       </c>
-      <c r="I18" s="165">
+      <c r="I18" s="171">
         <v>119</v>
       </c>
       <c r="J18" s="72">
@@ -8412,7 +10051,7 @@
       <c r="H19" s="72">
         <v>3</v>
       </c>
-      <c r="I19" s="165"/>
+      <c r="I19" s="171"/>
       <c r="J19" s="72">
         <v>8</v>
       </c>
@@ -8451,7 +10090,7 @@
       <c r="H20" s="72">
         <v>3</v>
       </c>
-      <c r="I20" s="165"/>
+      <c r="I20" s="171"/>
       <c r="J20" s="72">
         <v>8</v>
       </c>
@@ -8496,7 +10135,7 @@
       <c r="H21" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="166">
+      <c r="I21" s="172">
         <v>48</v>
       </c>
       <c r="J21" s="74">
@@ -8543,7 +10182,7 @@
       <c r="H22" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="I22" s="166"/>
+      <c r="I22" s="172"/>
       <c r="J22" s="74">
         <v>5</v>
       </c>
@@ -8588,7 +10227,7 @@
       <c r="H23" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="166"/>
+      <c r="I23" s="172"/>
       <c r="J23" s="74">
         <v>4</v>
       </c>
@@ -8633,7 +10272,7 @@
       <c r="H24" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="I24" s="165">
+      <c r="I24" s="171">
         <v>286</v>
       </c>
       <c r="J24" s="72">
@@ -8680,7 +10319,7 @@
       <c r="H25" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="165"/>
+      <c r="I25" s="171"/>
       <c r="J25" s="72">
         <v>1</v>
       </c>
@@ -8725,7 +10364,7 @@
       <c r="H26" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="I26" s="165"/>
+      <c r="I26" s="171"/>
       <c r="J26" s="72">
         <v>6</v>
       </c>
@@ -8771,7 +10410,7 @@
       <c r="H27" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="I27" s="165"/>
+      <c r="I27" s="171"/>
       <c r="J27" s="72">
         <v>6</v>
       </c>
@@ -8816,7 +10455,7 @@
       <c r="H28" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="I28" s="165">
+      <c r="I28" s="171">
         <v>46</v>
       </c>
       <c r="J28" s="72">
@@ -8857,7 +10496,7 @@
       <c r="H29" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="I29" s="165"/>
+      <c r="I29" s="171"/>
       <c r="J29" s="72">
         <v>7</v>
       </c>
@@ -8949,7 +10588,7 @@
       <c r="H31" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="I31" s="165">
+      <c r="I31" s="171">
         <v>47</v>
       </c>
       <c r="J31" s="72">
@@ -8999,7 +10638,7 @@
       <c r="H32" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="I32" s="165"/>
+      <c r="I32" s="171"/>
       <c r="J32" s="72">
         <v>30</v>
       </c>
@@ -9147,7 +10786,7 @@
       <c r="H35" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="I35" s="167">
+      <c r="I35" s="173">
         <v>1904</v>
       </c>
       <c r="J35" s="79">
@@ -9197,7 +10836,7 @@
       <c r="H36" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="I36" s="167"/>
+      <c r="I36" s="173"/>
       <c r="J36" s="79">
         <v>3</v>
       </c>
@@ -9245,7 +10884,7 @@
       <c r="H37" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="I37" s="167"/>
+      <c r="I37" s="173"/>
       <c r="J37" s="79">
         <v>3</v>
       </c>
@@ -14137,12 +15776,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14254,12 +15893,24 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="120"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="B7" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="121">
+        <v>42923</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="120"/>

--- a/Document/Featrue list and styles.xlsx
+++ b/Document/Featrue list and styles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="544">
   <si>
     <t>形状分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1993,6 +1993,57 @@
   </si>
   <si>
     <t>景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.6</t>
+  </si>
+  <si>
+    <t>增加人员性别分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2706,7 +2757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2979,50 +3030,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3060,6 +3069,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3077,6 +3110,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3114,17 +3168,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3448,42 +3505,42 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="150"/>
     </row>
     <row r="3" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158" t="s">
+      <c r="C3" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="157" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158" t="s">
+      <c r="H3" s="143"/>
+      <c r="I3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="158"/>
+      <c r="J3" s="144"/>
       <c r="K3" s="109" t="s">
         <v>4</v>
       </c>
@@ -3502,18 +3559,18 @@
       <c r="P3" s="111"/>
     </row>
     <row r="4" spans="3:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="169">
+      <c r="C4" s="163">
         <v>99</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171">
+      <c r="D4" s="164"/>
+      <c r="E4" s="165">
         <v>99</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="172" t="s">
+      <c r="F4" s="164"/>
+      <c r="G4" s="166" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="173"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="85" t="s">
         <v>326</v>
       </c>
@@ -3538,22 +3595,22 @@
       <c r="P4" s="88"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="165">
+      <c r="C5" s="151">
         <v>10</v>
       </c>
       <c r="D5" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="159" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="153" t="s">
+      <c r="H5" s="161" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3570,12 +3627,12 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C6" s="166"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="156"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="162"/>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3590,12 +3647,12 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="166"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="156"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="162"/>
       <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
@@ -3610,12 +3667,12 @@
       <c r="P7" s="15"/>
     </row>
     <row r="8" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="166"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="156"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="162"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -3630,12 +3687,12 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="166"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="156"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="162"/>
       <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3650,12 +3707,12 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="166"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="156"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="162"/>
       <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
@@ -3670,12 +3727,12 @@
       <c r="P10" s="15"/>
     </row>
     <row r="11" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="166"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="156"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="162"/>
       <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
@@ -3690,12 +3747,12 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="166"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="156"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="162"/>
       <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
@@ -3710,12 +3767,12 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="166"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="156"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="162"/>
       <c r="I13" s="11" t="s">
         <v>30</v>
       </c>
@@ -3730,12 +3787,12 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="166"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="156"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="162"/>
       <c r="I14" s="11" t="s">
         <v>33</v>
       </c>
@@ -3750,12 +3807,12 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="166"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="156"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="162"/>
       <c r="I15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3770,12 +3827,12 @@
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="166"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="156"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="162"/>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3790,12 +3847,12 @@
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="166"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="156"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="162"/>
       <c r="I17" s="11" t="s">
         <v>39</v>
       </c>
@@ -3810,12 +3867,12 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="166"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="156"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="162"/>
       <c r="I18" s="11" t="s">
         <v>41</v>
       </c>
@@ -3830,12 +3887,12 @@
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="166"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="156"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="162"/>
       <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
@@ -3850,12 +3907,12 @@
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="166"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="156"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="162"/>
       <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
@@ -3870,12 +3927,12 @@
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="166"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="156"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="162"/>
       <c r="I21" s="11" t="s">
         <v>47</v>
       </c>
@@ -3890,12 +3947,12 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="166"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="156"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="162"/>
       <c r="I22" s="11" t="s">
         <v>49</v>
       </c>
@@ -3910,12 +3967,12 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="166"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="156"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
       <c r="I23" s="11" t="s">
         <v>51</v>
       </c>
@@ -3930,12 +3987,12 @@
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="166"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="156"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
       <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
@@ -3950,12 +4007,12 @@
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="166"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="156"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="162"/>
       <c r="I25" s="11" t="s">
         <v>55</v>
       </c>
@@ -3970,12 +4027,12 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="166"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="156"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="162"/>
       <c r="I26" s="11" t="s">
         <v>57</v>
       </c>
@@ -3990,12 +4047,12 @@
       <c r="P26" s="15"/>
     </row>
     <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="166"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="156"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="162"/>
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
@@ -4010,12 +4067,12 @@
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="166"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="156"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="162"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="91"/>
@@ -4026,14 +4083,14 @@
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="166"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="142" t="s">
+      <c r="C29" s="152"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="143" t="s">
+      <c r="H29" s="156" t="s">
         <v>61</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -4050,12 +4107,12 @@
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="166"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="156"/>
       <c r="I30" s="11" t="s">
         <v>15</v>
       </c>
@@ -4070,12 +4127,12 @@
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="166"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="156"/>
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
@@ -4090,12 +4147,12 @@
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="166"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="156"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="91"/>
@@ -4106,12 +4163,12 @@
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="166"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="156"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="91"/>
@@ -4122,14 +4179,14 @@
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="166"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="142" t="s">
+      <c r="C34" s="152"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="156" t="s">
+      <c r="H34" s="162" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -4146,12 +4203,12 @@
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="166"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="156"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="162"/>
       <c r="I35" s="11"/>
       <c r="J35" s="16"/>
       <c r="K35" s="91"/>
@@ -4162,14 +4219,14 @@
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="166"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="142" t="s">
+      <c r="C36" s="152"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="156" t="s">
+      <c r="H36" s="162" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -4186,12 +4243,12 @@
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="166"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="156"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="162"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="91"/>
@@ -4202,18 +4259,18 @@
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="166"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="142" t="s">
+      <c r="C38" s="152"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="143" t="s">
+      <c r="F38" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="142" t="s">
+      <c r="G38" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="143" t="s">
+      <c r="H38" s="156" t="s">
         <v>70</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -4230,12 +4287,12 @@
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="166"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="143"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="156"/>
       <c r="I39" s="11" t="s">
         <v>15</v>
       </c>
@@ -4250,12 +4307,12 @@
       <c r="P39" s="15"/>
     </row>
     <row r="40" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="166"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="156"/>
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
@@ -4270,12 +4327,12 @@
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="166"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="143"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="156"/>
       <c r="I41" s="11" t="s">
         <v>20</v>
       </c>
@@ -4290,12 +4347,12 @@
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="166"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="143"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="156"/>
       <c r="I42" s="11" t="s">
         <v>22</v>
       </c>
@@ -4310,12 +4367,12 @@
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="166"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="143"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="156"/>
       <c r="I43" s="11" t="s">
         <v>24</v>
       </c>
@@ -4330,12 +4387,12 @@
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="166"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="143"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="156"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
       <c r="K44" s="91"/>
@@ -4346,14 +4403,14 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="166"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="142" t="s">
+      <c r="C45" s="152"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="143" t="s">
+      <c r="H45" s="156" t="s">
         <v>61</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -4368,12 +4425,12 @@
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="166"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="143"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="156"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="91"/>
@@ -4384,14 +4441,14 @@
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="166"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="142" t="s">
+      <c r="C47" s="152"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="143" t="s">
+      <c r="H47" s="156" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -4408,12 +4465,12 @@
       <c r="P47" s="15"/>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="166"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="143"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="156"/>
       <c r="I48" s="11" t="s">
         <v>15</v>
       </c>
@@ -4428,12 +4485,12 @@
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C49" s="166"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="143"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="156"/>
       <c r="I49" s="11" t="s">
         <v>18</v>
       </c>
@@ -4448,12 +4505,12 @@
       <c r="P49" s="15"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C50" s="166"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="143"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="156"/>
       <c r="I50" s="11" t="s">
         <v>20</v>
       </c>
@@ -4468,12 +4525,12 @@
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C51" s="166"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="143"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="156"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
       <c r="K51" s="91"/>
@@ -4484,14 +4541,14 @@
       <c r="P51" s="15"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="166"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="142" t="s">
+      <c r="C52" s="152"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="143" t="s">
+      <c r="H52" s="156" t="s">
         <v>408</v>
       </c>
       <c r="I52" s="19" t="s">
@@ -4518,12 +4575,12 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="166"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="143"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="156"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="91"/>
@@ -4534,14 +4591,14 @@
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="166"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="144" t="s">
+      <c r="C54" s="152"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="146" t="s">
+      <c r="H54" s="157" t="s">
         <v>87</v>
       </c>
       <c r="I54" s="11"/>
@@ -4554,12 +4611,12 @@
       <c r="P54" s="15"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="166"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="154"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="171"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
       <c r="K55" s="91"/>
@@ -4570,12 +4627,12 @@
       <c r="P55" s="15"/>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C56" s="166"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="149"/>
-      <c r="H56" s="154"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="171"/>
       <c r="I56" s="19" t="s">
         <v>88</v>
       </c>
@@ -4600,11 +4657,11 @@
       <c r="P56" s="22"/>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C57" s="166"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="150"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="159"/>
       <c r="H57" s="155"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
@@ -4616,14 +4673,14 @@
       <c r="P57" s="15"/>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C58" s="166"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="142" t="s">
+      <c r="C58" s="152"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="143" t="s">
+      <c r="H58" s="156" t="s">
         <v>91</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -4640,12 +4697,12 @@
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="166"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="143"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="156"/>
       <c r="I59" s="11" t="s">
         <v>15</v>
       </c>
@@ -4660,12 +4717,12 @@
       <c r="P59" s="15"/>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C60" s="166"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="143"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="156"/>
       <c r="I60" s="11" t="s">
         <v>18</v>
       </c>
@@ -4680,12 +4737,12 @@
       <c r="P60" s="15"/>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C61" s="166"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="143"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="160"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="160"/>
+      <c r="H61" s="156"/>
       <c r="I61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4700,12 +4757,12 @@
       <c r="P61" s="15"/>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C62" s="166"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="143"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="156"/>
       <c r="I62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4720,12 +4777,12 @@
       <c r="P62" s="15"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C63" s="166"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="143"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="143"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="156"/>
       <c r="I63" s="11" t="s">
         <v>24</v>
       </c>
@@ -4740,12 +4797,12 @@
       <c r="P63" s="15"/>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C64" s="166"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="142"/>
-      <c r="H64" s="143"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="160"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="156"/>
       <c r="I64" s="11" t="s">
         <v>26</v>
       </c>
@@ -4760,12 +4817,12 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C65" s="166"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="143"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="156"/>
       <c r="I65" s="11" t="s">
         <v>28</v>
       </c>
@@ -4780,12 +4837,12 @@
       <c r="P65" s="15"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66" s="166"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="143"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="156"/>
       <c r="I66" s="11" t="s">
         <v>100</v>
       </c>
@@ -4800,12 +4857,12 @@
       <c r="P66" s="15"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C67" s="166"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="143"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="156"/>
       <c r="I67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4820,18 +4877,18 @@
       <c r="P67" s="15"/>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C68" s="166"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="142" t="s">
+      <c r="C68" s="152"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="143" t="s">
+      <c r="F68" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="142" t="s">
+      <c r="G68" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="143" t="s">
+      <c r="H68" s="156" t="s">
         <v>530</v>
       </c>
       <c r="I68" s="11" t="s">
@@ -4848,12 +4905,12 @@
       <c r="P68" s="15"/>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C69" s="166"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="143"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="156"/>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="91"/>
@@ -4864,12 +4921,12 @@
       <c r="P69" s="15"/>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C70" s="166"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="143"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="160"/>
+      <c r="F70" s="156"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="156"/>
       <c r="I70" s="11"/>
       <c r="J70" s="12"/>
       <c r="K70" s="91"/>
@@ -4880,12 +4937,12 @@
       <c r="P70" s="15"/>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C71" s="166"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="143"/>
+      <c r="C71" s="152"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="160"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="160"/>
+      <c r="H71" s="156"/>
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
       <c r="K71" s="91"/>
@@ -4896,14 +4953,14 @@
       <c r="P71" s="15"/>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C72" s="166"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="143"/>
-      <c r="G72" s="142" t="s">
+      <c r="C72" s="152"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="143" t="s">
+      <c r="H72" s="156" t="s">
         <v>61</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -4918,12 +4975,12 @@
       <c r="P72" s="15"/>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C73" s="166"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="143"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="143"/>
+      <c r="C73" s="152"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="160"/>
+      <c r="F73" s="156"/>
+      <c r="G73" s="160"/>
+      <c r="H73" s="156"/>
       <c r="I73" s="11"/>
       <c r="J73" s="12"/>
       <c r="K73" s="91"/>
@@ -4934,14 +4991,14 @@
       <c r="P73" s="15"/>
     </row>
     <row r="74" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="166"/>
-      <c r="D74" s="143"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="142" t="s">
+      <c r="C74" s="152"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="156"/>
+      <c r="G74" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="H74" s="148" t="s">
+      <c r="H74" s="173" t="s">
         <v>65</v>
       </c>
       <c r="I74" s="23" t="s">
@@ -4962,12 +5019,12 @@
       <c r="P74" s="26"/>
     </row>
     <row r="75" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="166"/>
-      <c r="D75" s="143"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="148"/>
+      <c r="C75" s="152"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="160"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="173"/>
       <c r="I75" s="23" t="s">
         <v>15</v>
       </c>
@@ -4986,12 +5043,12 @@
       <c r="P75" s="26"/>
     </row>
     <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="166"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="142"/>
-      <c r="H76" s="148"/>
+      <c r="C76" s="152"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="173"/>
       <c r="I76" s="23" t="s">
         <v>18</v>
       </c>
@@ -5010,12 +5067,12 @@
       <c r="P76" s="26"/>
     </row>
     <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="166"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="143"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="148"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="173"/>
       <c r="I77" s="23" t="s">
         <v>20</v>
       </c>
@@ -5034,12 +5091,12 @@
       <c r="P77" s="26"/>
     </row>
     <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="166"/>
-      <c r="D78" s="143"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="143"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="148"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="160"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="173"/>
       <c r="I78" s="23" t="s">
         <v>22</v>
       </c>
@@ -5058,12 +5115,12 @@
       <c r="P78" s="26"/>
     </row>
     <row r="79" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="166"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="148"/>
+      <c r="C79" s="152"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="173"/>
       <c r="I79" s="23"/>
       <c r="J79" s="24"/>
       <c r="K79" s="93"/>
@@ -5074,14 +5131,14 @@
       <c r="P79" s="26"/>
     </row>
     <row r="80" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="166"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="142" t="s">
+      <c r="C80" s="152"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="160"/>
+      <c r="F80" s="156"/>
+      <c r="G80" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="H80" s="148" t="s">
+      <c r="H80" s="173" t="s">
         <v>85</v>
       </c>
       <c r="I80" s="23" t="s">
@@ -5102,12 +5159,12 @@
       <c r="P80" s="26"/>
     </row>
     <row r="81" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="166"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="142"/>
-      <c r="F81" s="143"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="148"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="156"/>
+      <c r="G81" s="160"/>
+      <c r="H81" s="173"/>
       <c r="I81" s="23" t="s">
         <v>15</v>
       </c>
@@ -5126,12 +5183,12 @@
       <c r="P81" s="26"/>
     </row>
     <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="166"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="148"/>
+      <c r="C82" s="152"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="160"/>
+      <c r="F82" s="156"/>
+      <c r="G82" s="160"/>
+      <c r="H82" s="173"/>
       <c r="I82" s="23" t="s">
         <v>18</v>
       </c>
@@ -5150,12 +5207,12 @@
       <c r="P82" s="26"/>
     </row>
     <row r="83" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="166"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="143"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="148"/>
+      <c r="C83" s="152"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="160"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="160"/>
+      <c r="H83" s="173"/>
       <c r="I83" s="23" t="s">
         <v>20</v>
       </c>
@@ -5174,12 +5231,12 @@
       <c r="P83" s="26"/>
     </row>
     <row r="84" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="166"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="143"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="148"/>
+      <c r="C84" s="152"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="156"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="173"/>
       <c r="I84" s="23" t="s">
         <v>22</v>
       </c>
@@ -5198,12 +5255,12 @@
       <c r="P84" s="26"/>
     </row>
     <row r="85" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="166"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="143"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="148"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="156"/>
+      <c r="G85" s="160"/>
+      <c r="H85" s="173"/>
       <c r="I85" s="23" t="s">
         <v>24</v>
       </c>
@@ -5222,12 +5279,12 @@
       <c r="P85" s="26"/>
     </row>
     <row r="86" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="166"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="142"/>
-      <c r="H86" s="148"/>
+      <c r="C86" s="152"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="156"/>
+      <c r="G86" s="160"/>
+      <c r="H86" s="173"/>
       <c r="I86" s="23" t="s">
         <v>26</v>
       </c>
@@ -5246,12 +5303,12 @@
       <c r="P86" s="26"/>
     </row>
     <row r="87" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="166"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="148"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="160"/>
+      <c r="F87" s="156"/>
+      <c r="G87" s="160"/>
+      <c r="H87" s="173"/>
       <c r="I87" s="23" t="s">
         <v>28</v>
       </c>
@@ -5264,12 +5321,12 @@
       <c r="P87" s="26"/>
     </row>
     <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="166"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="148"/>
+      <c r="C88" s="152"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="160"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="160"/>
+      <c r="H88" s="173"/>
       <c r="I88" s="23"/>
       <c r="J88" s="24"/>
       <c r="K88" s="93"/>
@@ -5280,12 +5337,12 @@
       <c r="P88" s="26"/>
     </row>
     <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="166"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="143"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="148"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="160"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="160"/>
+      <c r="H89" s="173"/>
       <c r="I89" s="23"/>
       <c r="J89" s="24"/>
       <c r="K89" s="93"/>
@@ -5296,14 +5353,14 @@
       <c r="P89" s="26"/>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C90" s="166"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="143"/>
-      <c r="G90" s="142" t="s">
+      <c r="C90" s="152"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="160"/>
+      <c r="F90" s="156"/>
+      <c r="G90" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="H90" s="143" t="s">
+      <c r="H90" s="156" t="s">
         <v>402</v>
       </c>
       <c r="I90" s="11" t="s">
@@ -5318,12 +5375,12 @@
       <c r="P90" s="15"/>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C91" s="166"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="143"/>
-      <c r="G91" s="142"/>
-      <c r="H91" s="143"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="156"/>
+      <c r="E91" s="160"/>
+      <c r="F91" s="156"/>
+      <c r="G91" s="160"/>
+      <c r="H91" s="156"/>
       <c r="I91" s="11"/>
       <c r="J91" s="12"/>
       <c r="K91" s="91"/>
@@ -5334,14 +5391,14 @@
       <c r="P91" s="15"/>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C92" s="166"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="142"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="144" t="s">
+      <c r="C92" s="152"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="160"/>
+      <c r="F92" s="156"/>
+      <c r="G92" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="151" t="s">
+      <c r="H92" s="174" t="s">
         <v>130</v>
       </c>
       <c r="I92" s="19" t="s">
@@ -5368,12 +5425,12 @@
       <c r="P92" s="22"/>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C93" s="166"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="142"/>
-      <c r="F93" s="143"/>
-      <c r="G93" s="149"/>
-      <c r="H93" s="152"/>
+      <c r="C93" s="152"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="160"/>
+      <c r="F93" s="156"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="175"/>
       <c r="I93" s="19" t="s">
         <v>105</v>
       </c>
@@ -5398,12 +5455,12 @@
       <c r="P93" s="22"/>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C94" s="166"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="143"/>
-      <c r="G94" s="149"/>
-      <c r="H94" s="152"/>
+      <c r="C94" s="152"/>
+      <c r="D94" s="156"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="156"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="175"/>
       <c r="I94" s="13" t="s">
         <v>78</v>
       </c>
@@ -5416,12 +5473,12 @@
       <c r="P94" s="28"/>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C95" s="166"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="143"/>
-      <c r="G95" s="149"/>
-      <c r="H95" s="152"/>
+      <c r="C95" s="152"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="160"/>
+      <c r="F95" s="156"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="175"/>
       <c r="I95" s="19" t="s">
         <v>134</v>
       </c>
@@ -5446,12 +5503,12 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C96" s="166"/>
-      <c r="D96" s="143"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="143"/>
-      <c r="G96" s="149"/>
-      <c r="H96" s="152"/>
+      <c r="C96" s="152"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="160"/>
+      <c r="F96" s="156"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="175"/>
       <c r="I96" s="19" t="s">
         <v>86</v>
       </c>
@@ -5476,12 +5533,12 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C97" s="166"/>
-      <c r="D97" s="143"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="143"/>
-      <c r="G97" s="150"/>
-      <c r="H97" s="153"/>
+      <c r="C97" s="152"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="160"/>
+      <c r="F97" s="156"/>
+      <c r="G97" s="159"/>
+      <c r="H97" s="161"/>
       <c r="I97" s="13"/>
       <c r="J97" s="16"/>
       <c r="K97" s="91"/>
@@ -5492,14 +5549,14 @@
       <c r="P97" s="28"/>
     </row>
     <row r="98" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C98" s="166"/>
-      <c r="D98" s="143"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="143"/>
-      <c r="G98" s="142" t="s">
+      <c r="C98" s="152"/>
+      <c r="D98" s="156"/>
+      <c r="E98" s="160"/>
+      <c r="F98" s="156"/>
+      <c r="G98" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="H98" s="143" t="s">
+      <c r="H98" s="156" t="s">
         <v>91</v>
       </c>
       <c r="I98" s="11" t="s">
@@ -5516,12 +5573,12 @@
       <c r="P98" s="15"/>
     </row>
     <row r="99" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C99" s="166"/>
-      <c r="D99" s="143"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="143"/>
-      <c r="G99" s="142"/>
-      <c r="H99" s="143"/>
+      <c r="C99" s="152"/>
+      <c r="D99" s="156"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="156"/>
+      <c r="G99" s="160"/>
+      <c r="H99" s="156"/>
       <c r="I99" s="19" t="s">
         <v>15</v>
       </c>
@@ -5546,12 +5603,12 @@
       <c r="P99" s="22"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C100" s="166"/>
-      <c r="D100" s="143"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="143"/>
-      <c r="G100" s="142"/>
-      <c r="H100" s="143"/>
+      <c r="C100" s="152"/>
+      <c r="D100" s="156"/>
+      <c r="E100" s="160"/>
+      <c r="F100" s="156"/>
+      <c r="G100" s="160"/>
+      <c r="H100" s="156"/>
       <c r="I100" s="19" t="s">
         <v>18</v>
       </c>
@@ -5576,12 +5633,12 @@
       <c r="P100" s="22"/>
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C101" s="166"/>
-      <c r="D101" s="143"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="143"/>
-      <c r="G101" s="142"/>
-      <c r="H101" s="143"/>
+      <c r="C101" s="152"/>
+      <c r="D101" s="156"/>
+      <c r="E101" s="160"/>
+      <c r="F101" s="156"/>
+      <c r="G101" s="160"/>
+      <c r="H101" s="156"/>
       <c r="I101" s="19" t="s">
         <v>20</v>
       </c>
@@ -5604,12 +5661,12 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C102" s="166"/>
-      <c r="D102" s="143"/>
-      <c r="E102" s="142"/>
-      <c r="F102" s="143"/>
-      <c r="G102" s="142"/>
-      <c r="H102" s="143"/>
+      <c r="C102" s="152"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="160"/>
+      <c r="F102" s="156"/>
+      <c r="G102" s="160"/>
+      <c r="H102" s="156"/>
       <c r="I102" s="19" t="s">
         <v>22</v>
       </c>
@@ -5632,12 +5689,12 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C103" s="166"/>
-      <c r="D103" s="143"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="143"/>
-      <c r="G103" s="142"/>
-      <c r="H103" s="143"/>
+      <c r="C103" s="152"/>
+      <c r="D103" s="156"/>
+      <c r="E103" s="160"/>
+      <c r="F103" s="156"/>
+      <c r="G103" s="160"/>
+      <c r="H103" s="156"/>
       <c r="I103" s="19" t="s">
         <v>24</v>
       </c>
@@ -5662,12 +5719,12 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C104" s="166"/>
-      <c r="D104" s="143"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="143"/>
-      <c r="G104" s="142"/>
-      <c r="H104" s="143"/>
+      <c r="C104" s="152"/>
+      <c r="D104" s="156"/>
+      <c r="E104" s="160"/>
+      <c r="F104" s="156"/>
+      <c r="G104" s="160"/>
+      <c r="H104" s="156"/>
       <c r="I104" s="19" t="s">
         <v>26</v>
       </c>
@@ -5692,12 +5749,12 @@
       <c r="P104" s="22"/>
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C105" s="166"/>
-      <c r="D105" s="143"/>
-      <c r="E105" s="142"/>
-      <c r="F105" s="143"/>
-      <c r="G105" s="142"/>
-      <c r="H105" s="143"/>
+      <c r="C105" s="152"/>
+      <c r="D105" s="156"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="156"/>
+      <c r="G105" s="160"/>
+      <c r="H105" s="156"/>
       <c r="I105" s="19" t="s">
         <v>28</v>
       </c>
@@ -5722,12 +5779,12 @@
       <c r="P105" s="22"/>
     </row>
     <row r="106" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C106" s="166"/>
-      <c r="D106" s="143"/>
-      <c r="E106" s="142"/>
-      <c r="F106" s="143"/>
-      <c r="G106" s="142"/>
-      <c r="H106" s="143"/>
+      <c r="C106" s="152"/>
+      <c r="D106" s="156"/>
+      <c r="E106" s="160"/>
+      <c r="F106" s="156"/>
+      <c r="G106" s="160"/>
+      <c r="H106" s="156"/>
       <c r="I106" s="11" t="s">
         <v>30</v>
       </c>
@@ -5742,12 +5799,12 @@
       <c r="P106" s="15"/>
     </row>
     <row r="107" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C107" s="166"/>
-      <c r="D107" s="143"/>
-      <c r="E107" s="142"/>
-      <c r="F107" s="143"/>
-      <c r="G107" s="142"/>
-      <c r="H107" s="143"/>
+      <c r="C107" s="152"/>
+      <c r="D107" s="156"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="156"/>
+      <c r="G107" s="160"/>
+      <c r="H107" s="156"/>
       <c r="I107" s="11" t="s">
         <v>139</v>
       </c>
@@ -5762,12 +5819,12 @@
       <c r="P107" s="15"/>
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C108" s="166"/>
-      <c r="D108" s="143"/>
-      <c r="E108" s="142" t="s">
+      <c r="C108" s="152"/>
+      <c r="D108" s="156"/>
+      <c r="E108" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="F108" s="143" t="s">
+      <c r="F108" s="156" t="s">
         <v>141</v>
       </c>
       <c r="G108" s="11" t="s">
@@ -5790,10 +5847,10 @@
       <c r="P108" s="15"/>
     </row>
     <row r="109" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C109" s="166"/>
-      <c r="D109" s="143"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="143"/>
+      <c r="C109" s="152"/>
+      <c r="D109" s="156"/>
+      <c r="E109" s="160"/>
+      <c r="F109" s="156"/>
       <c r="G109" s="11" t="s">
         <v>15</v>
       </c>
@@ -5814,10 +5871,10 @@
       <c r="P109" s="15"/>
     </row>
     <row r="110" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C110" s="166"/>
-      <c r="D110" s="143"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="143"/>
+      <c r="C110" s="152"/>
+      <c r="D110" s="156"/>
+      <c r="E110" s="160"/>
+      <c r="F110" s="156"/>
       <c r="G110" s="11" t="s">
         <v>18</v>
       </c>
@@ -5838,10 +5895,10 @@
       <c r="P110" s="15"/>
     </row>
     <row r="111" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C111" s="166"/>
-      <c r="D111" s="143"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="143"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="156"/>
+      <c r="E111" s="160"/>
+      <c r="F111" s="156"/>
       <c r="G111" s="11" t="s">
         <v>20</v>
       </c>
@@ -5862,10 +5919,10 @@
       <c r="P111" s="15"/>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C112" s="167"/>
-      <c r="D112" s="146"/>
-      <c r="E112" s="144"/>
-      <c r="F112" s="146"/>
+      <c r="C112" s="153"/>
+      <c r="D112" s="157"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="157"/>
       <c r="G112" s="29" t="s">
         <v>86</v>
       </c>
@@ -5884,10 +5941,10 @@
       <c r="P112" s="33"/>
     </row>
     <row r="113" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="168"/>
-      <c r="D113" s="147"/>
-      <c r="E113" s="145"/>
-      <c r="F113" s="147"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="158"/>
+      <c r="E113" s="172"/>
+      <c r="F113" s="158"/>
       <c r="G113" s="36" t="s">
         <v>90</v>
       </c>
@@ -5909,6 +5966,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G98:G107"/>
+    <mergeCell ref="H98:H107"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="G80:G89"/>
+    <mergeCell ref="H80:H89"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G58:G67"/>
+    <mergeCell ref="H58:H67"/>
+    <mergeCell ref="E68:E107"/>
+    <mergeCell ref="F68:F107"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="E38:E67"/>
+    <mergeCell ref="F38:F67"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:J2"/>
@@ -5925,43 +6019,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H67"/>
-    <mergeCell ref="E68:E107"/>
-    <mergeCell ref="F68:F107"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="E38:E67"/>
-    <mergeCell ref="F38:F67"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G98:G107"/>
-    <mergeCell ref="H98:H107"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="G74:G79"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="G80:G89"/>
-    <mergeCell ref="H80:H89"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5996,42 +6053,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="162" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="164"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="150"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158" t="s">
+      <c r="B3" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="157" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158" t="s">
+      <c r="G3" s="143"/>
+      <c r="H3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="158"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6050,13 +6107,13 @@
       <c r="O3" s="111"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="165">
+      <c r="B4" s="151">
         <v>20</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="159" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="155" t="s">
@@ -6082,10 +6139,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="166"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
@@ -6106,10 +6163,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="166"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -6130,10 +6187,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="166"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="156"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6154,10 +6211,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="166"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -6178,10 +6235,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="166"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -6202,10 +6259,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="166"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
@@ -6226,10 +6283,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="166"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6250,12 +6307,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="166"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="142" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="E12" s="156" t="s">
         <v>167</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -6278,10 +6335,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="166"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="156"/>
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
@@ -6302,10 +6359,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="166"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
@@ -6326,10 +6383,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="166"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
@@ -6350,10 +6407,10 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="166"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -6374,10 +6431,10 @@
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="166"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="11" t="s">
         <v>24</v>
       </c>
@@ -6398,10 +6455,10 @@
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="166"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="156"/>
       <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6422,10 +6479,10 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="166"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="156"/>
       <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
@@ -6446,10 +6503,10 @@
       <c r="O19" s="15"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="166"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="156"/>
       <c r="F20" s="11" t="s">
         <v>30</v>
       </c>
@@ -6480,12 +6537,12 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="166"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="144" t="s">
+      <c r="B21" s="152"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="157" t="s">
         <v>176</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -6508,9 +6565,9 @@
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="166"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="150"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="159"/>
       <c r="E22" s="155"/>
       <c r="F22" s="11" t="s">
         <v>166</v>
@@ -6532,12 +6589,12 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="166"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="142" t="s">
+      <c r="B23" s="152"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="156" t="s">
         <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -6560,10 +6617,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="166"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="143"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="156"/>
       <c r="F24" s="11" t="s">
         <v>105</v>
       </c>
@@ -6584,12 +6641,12 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="166"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="142" t="s">
+      <c r="B25" s="152"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="156" t="s">
         <v>183</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -6612,10 +6669,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="166"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="156"/>
       <c r="F26" s="11" t="s">
         <v>166</v>
       </c>
@@ -6636,12 +6693,12 @@
       <c r="O26" s="15"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="166"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="142" t="s">
+      <c r="B27" s="152"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="156" t="s">
         <v>141</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -6664,10 +6721,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="167"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="146"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="157"/>
       <c r="F28" s="29" t="s">
         <v>15</v>
       </c>
@@ -6688,10 +6745,10 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="147"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="36" t="s">
         <v>175</v>
       </c>
@@ -6713,12 +6770,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B4:B29"/>
     <mergeCell ref="C4:C29"/>
     <mergeCell ref="D4:D11"/>
@@ -6733,6 +6784,12 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6768,42 +6825,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="162" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="164"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="150"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158" t="s">
+      <c r="B3" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="157" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158" t="s">
+      <c r="G3" s="143"/>
+      <c r="H3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="158"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6824,13 +6881,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="165">
+      <c r="B4" s="151">
         <v>30</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="159" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="155" t="s">
@@ -6856,10 +6913,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="166"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="11" t="s">
         <v>166</v>
       </c>
@@ -6880,10 +6937,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="166"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -6904,10 +6961,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="166"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="156"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6928,10 +6985,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="166"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -6952,10 +7009,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="166"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -6976,10 +7033,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="166"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="11" t="s">
         <v>201</v>
       </c>
@@ -6998,10 +7055,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="166"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
@@ -7014,12 +7071,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="166"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="142" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="E12" s="156" t="s">
         <v>204</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -7040,10 +7097,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="166"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="156"/>
       <c r="F13" s="11" t="s">
         <v>166</v>
       </c>
@@ -7062,12 +7119,12 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="166"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="142" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="143" t="s">
+      <c r="E14" s="156" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -7090,10 +7147,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="166"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="11" t="s">
         <v>166</v>
       </c>
@@ -7112,12 +7169,12 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="166"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="142" t="s">
+      <c r="B16" s="152"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="156" t="s">
         <v>402</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -7152,10 +7209,10 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="166"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="11" t="s">
         <v>404</v>
       </c>
@@ -7170,10 +7227,10 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="166"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="156"/>
       <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
@@ -7192,12 +7249,12 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="166"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="144" t="s">
+      <c r="B19" s="152"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="157" t="s">
         <v>211</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -7232,10 +7289,10 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="166"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="154"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
       <c r="F20" s="11" t="s">
         <v>166</v>
       </c>
@@ -7268,10 +7325,10 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="166"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="154"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
       <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
@@ -7304,10 +7361,10 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="166"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="154"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="11" t="s">
         <v>20</v>
       </c>
@@ -7328,10 +7385,10 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="166"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="154"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
@@ -7352,10 +7409,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="166"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="154"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
       <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
@@ -7376,10 +7433,10 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="166"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="154"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="171"/>
       <c r="F25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7400,10 +7457,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="166"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="154"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171"/>
       <c r="F26" s="11" t="s">
         <v>28</v>
       </c>
@@ -7436,10 +7493,10 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="166"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="154"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
       <c r="F27" s="11" t="s">
         <v>30</v>
       </c>
@@ -7460,10 +7517,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="166"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="154"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="11" t="s">
         <v>33</v>
       </c>
@@ -7484,10 +7541,10 @@
       <c r="O28" s="15"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="166"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="154"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="171"/>
       <c r="F29" s="11" t="s">
         <v>35</v>
       </c>
@@ -7508,10 +7565,10 @@
       <c r="O29" s="15"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="166"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="154"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
       <c r="F30" s="11" t="s">
         <v>37</v>
       </c>
@@ -7532,10 +7589,10 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="166"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="154"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
       <c r="F31" s="11" t="s">
         <v>39</v>
       </c>
@@ -7556,10 +7613,10 @@
       <c r="O31" s="15"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="166"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="154"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
       <c r="F32" s="11" t="s">
         <v>41</v>
       </c>
@@ -7580,10 +7637,10 @@
       <c r="O32" s="15"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="166"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="154"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
       <c r="F33" s="11" t="s">
         <v>43</v>
       </c>
@@ -7604,10 +7661,10 @@
       <c r="O33" s="15"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="166"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="154"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
       <c r="F34" s="11" t="s">
         <v>49</v>
       </c>
@@ -7628,10 +7685,10 @@
       <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="166"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="154"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="171"/>
       <c r="F35" s="11" t="s">
         <v>229</v>
       </c>
@@ -7652,10 +7709,10 @@
       <c r="O35" s="15"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="166"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="154"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="171"/>
       <c r="F36" s="11" t="s">
         <v>53</v>
       </c>
@@ -7676,10 +7733,10 @@
       <c r="O36" s="15"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="166"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="154"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="171"/>
       <c r="F37" s="11" t="s">
         <v>55</v>
       </c>
@@ -7700,9 +7757,9 @@
       <c r="O37" s="15"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="167"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="150"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="159"/>
       <c r="E38" s="155"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
@@ -7716,8 +7773,8 @@
       <c r="O38" s="33"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="167"/>
-      <c r="C39" s="177"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="17" t="s">
         <v>348</v>
       </c>
@@ -7754,8 +7811,8 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="167"/>
-      <c r="C40" s="177"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="178"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="29" t="s">
@@ -7788,8 +7845,8 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="167"/>
-      <c r="C41" s="177"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="29" t="s">
@@ -7822,8 +7879,8 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="167"/>
-      <c r="C42" s="177"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="178"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="29" t="s">
@@ -7859,8 +7916,8 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="167"/>
-      <c r="C43" s="177"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="178"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="29" t="s">
@@ -7879,8 +7936,8 @@
       <c r="O43" s="108"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="167"/>
-      <c r="C44" s="177"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="178"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="29" t="s">
@@ -7899,8 +7956,8 @@
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="167"/>
-      <c r="C45" s="177"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29" t="s">
@@ -7917,8 +7974,8 @@
       <c r="O45" s="33"/>
     </row>
     <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="168"/>
-      <c r="C46" s="178"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="179"/>
       <c r="D46" s="35"/>
       <c r="E46" s="34"/>
       <c r="F46" s="36"/>
@@ -7934,6 +7991,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
@@ -7950,8 +8009,6 @@
     <mergeCell ref="D4:D11"/>
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7964,10 +8021,10 @@
   <dimension ref="B1:Q95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7989,42 +8046,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="162" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="164"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="150"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158" t="s">
+      <c r="B3" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="157" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158" t="s">
+      <c r="G3" s="143"/>
+      <c r="H3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="158"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -8045,22 +8102,22 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="165">
-        <v>0</v>
-      </c>
-      <c r="C4" s="175" t="s">
+      <c r="B4" s="151">
+        <v>0</v>
+      </c>
+      <c r="C4" s="176" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="159" t="s">
         <v>465</v>
       </c>
       <c r="E4" s="155" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="182" t="s">
+      <c r="F4" s="183" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="183"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="11" t="s">
         <v>500</v>
       </c>
@@ -8085,12 +8142,12 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="165"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="155"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="184"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="11" t="s">
         <v>501</v>
       </c>
@@ -8115,12 +8172,12 @@
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="165"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="155"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="185"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="186"/>
       <c r="H6" s="11" t="s">
         <v>502</v>
       </c>
@@ -8145,14 +8202,14 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="165"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="155"/>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="169" t="s">
         <v>495</v>
       </c>
-      <c r="G7" s="186"/>
+      <c r="G7" s="187"/>
       <c r="H7" s="11" t="s">
         <v>500</v>
       </c>
@@ -8177,12 +8234,12 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="165"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="155"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="184"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="185"/>
       <c r="H8" s="11" t="s">
         <v>501</v>
       </c>
@@ -8207,12 +8264,12 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="165"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="155"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="184"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="185"/>
       <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
@@ -8237,12 +8294,12 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="165"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="155"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="184"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="185"/>
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
@@ -8267,12 +8324,12 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="165"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="150"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="155"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="184"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="185"/>
       <c r="H11" s="11" t="s">
         <v>503</v>
       </c>
@@ -8297,12 +8354,12 @@
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="165"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="150"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="155"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="184"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="185"/>
       <c r="H12" s="11" t="s">
         <v>504</v>
       </c>
@@ -8327,12 +8384,12 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="165"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="150"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="155"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="184"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="185"/>
       <c r="H13" s="11" t="s">
         <v>505</v>
       </c>
@@ -8357,12 +8414,12 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="165"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="155"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="184"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="185"/>
       <c r="H14" s="11" t="s">
         <v>506</v>
       </c>
@@ -8387,12 +8444,12 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="165"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="150"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="155"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="184"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="185"/>
       <c r="H15" s="11" t="s">
         <v>507</v>
       </c>
@@ -8417,12 +8474,12 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="165"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="150"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="155"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="184"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="185"/>
       <c r="H16" s="11" t="s">
         <v>508</v>
       </c>
@@ -8447,12 +8504,12 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="165"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="150"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="155"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="184"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="185"/>
       <c r="H17" s="11" t="s">
         <v>509</v>
       </c>
@@ -8477,12 +8534,12 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="165"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="150"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="155"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="185"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="186"/>
       <c r="H18" s="11" t="s">
         <v>510</v>
       </c>
@@ -8507,14 +8564,14 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="165"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="150"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="155"/>
-      <c r="F19" s="144" t="s">
+      <c r="F19" s="169" t="s">
         <v>496</v>
       </c>
-      <c r="G19" s="186"/>
+      <c r="G19" s="187"/>
       <c r="H19" s="11" t="s">
         <v>500</v>
       </c>
@@ -8539,12 +8596,12 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="165"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="150"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="159"/>
       <c r="E20" s="155"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="184"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="185"/>
       <c r="H20" s="11" t="s">
         <v>15</v>
       </c>
@@ -8569,12 +8626,12 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="165"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="150"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="159"/>
       <c r="E21" s="155"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="184"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="11" t="s">
         <v>18</v>
       </c>
@@ -8599,12 +8656,12 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="165"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="159"/>
       <c r="E22" s="155"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="184"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="11" t="s">
         <v>20</v>
       </c>
@@ -8629,12 +8686,12 @@
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="165"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="159"/>
       <c r="E23" s="155"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="184"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="11" t="s">
         <v>22</v>
       </c>
@@ -8659,12 +8716,12 @@
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="165"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="150"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="159"/>
       <c r="E24" s="155"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="184"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="11" t="s">
         <v>24</v>
       </c>
@@ -8689,12 +8746,12 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="165"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="150"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="159"/>
       <c r="E25" s="155"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="184"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="185"/>
       <c r="H25" s="11" t="s">
         <v>26</v>
       </c>
@@ -8719,12 +8776,12 @@
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="165"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="150"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="155"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="184"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="185"/>
       <c r="H26" s="11" t="s">
         <v>28</v>
       </c>
@@ -8749,12 +8806,12 @@
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="165"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="150"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="159"/>
       <c r="E27" s="155"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="184"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="185"/>
       <c r="H27" s="11" t="s">
         <v>503</v>
       </c>
@@ -8779,12 +8836,12 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="165"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="150"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="155"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="184"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="11" t="s">
         <v>511</v>
       </c>
@@ -8809,12 +8866,12 @@
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="165"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="150"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="159"/>
       <c r="E29" s="155"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="184"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="11" t="s">
         <v>512</v>
       </c>
@@ -8839,12 +8896,12 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="165"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="150"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="159"/>
       <c r="E30" s="155"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="184"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="11" t="s">
         <v>513</v>
       </c>
@@ -8869,12 +8926,12 @@
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="165"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="150"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="159"/>
       <c r="E31" s="155"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="184"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="11" t="s">
         <v>43</v>
       </c>
@@ -8899,12 +8956,12 @@
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="165"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="150"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="159"/>
       <c r="E32" s="155"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="184"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="11" t="s">
         <v>45</v>
       </c>
@@ -8929,12 +8986,12 @@
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="165"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="150"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="155"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="184"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="11" t="s">
         <v>47</v>
       </c>
@@ -8959,12 +9016,12 @@
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="165"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="150"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="155"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="184"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="11" t="s">
         <v>49</v>
       </c>
@@ -8989,12 +9046,12 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="165"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="150"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="159"/>
       <c r="E35" s="155"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="184"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="11" t="s">
         <v>51</v>
       </c>
@@ -9019,12 +9076,12 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="165"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="150"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="159"/>
       <c r="E36" s="155"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="184"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="11" t="s">
         <v>53</v>
       </c>
@@ -9049,12 +9106,12 @@
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="165"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="150"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="159"/>
       <c r="E37" s="155"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="184"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="185"/>
       <c r="H37" s="11" t="s">
         <v>55</v>
       </c>
@@ -9079,12 +9136,12 @@
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="165"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="150"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="159"/>
       <c r="E38" s="155"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="184"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="185"/>
       <c r="H38" s="11" t="s">
         <v>514</v>
       </c>
@@ -9109,12 +9166,12 @@
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="165"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="150"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="159"/>
       <c r="E39" s="155"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="184"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="185"/>
       <c r="H39" s="11" t="s">
         <v>515</v>
       </c>
@@ -9139,12 +9196,12 @@
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="165"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="150"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="159"/>
       <c r="E40" s="155"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="184"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="185"/>
       <c r="H40" s="11" t="s">
         <v>516</v>
       </c>
@@ -9169,12 +9226,12 @@
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="165"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="150"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="159"/>
       <c r="E41" s="155"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="184"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="185"/>
       <c r="H41" s="11" t="s">
         <v>517</v>
       </c>
@@ -9199,12 +9256,12 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="165"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="150"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="159"/>
       <c r="E42" s="155"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="184"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="185"/>
       <c r="H42" s="11" t="s">
         <v>518</v>
       </c>
@@ -9229,12 +9286,12 @@
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="165"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="150"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="159"/>
       <c r="E43" s="155"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="184"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="11" t="s">
         <v>519</v>
       </c>
@@ -9259,12 +9316,12 @@
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="165"/>
-      <c r="C44" s="175"/>
-      <c r="D44" s="150"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="159"/>
       <c r="E44" s="155"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="184"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="185"/>
       <c r="H44" s="11" t="s">
         <v>520</v>
       </c>
@@ -9289,12 +9346,12 @@
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="165"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="150"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="159"/>
       <c r="E45" s="155"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="184"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="11" t="s">
         <v>521</v>
       </c>
@@ -9319,12 +9376,12 @@
       <c r="O45" s="10"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="165"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="150"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="159"/>
       <c r="E46" s="155"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="184"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="185"/>
       <c r="H46" s="11" t="s">
         <v>522</v>
       </c>
@@ -9349,12 +9406,12 @@
       <c r="O46" s="10"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="165"/>
-      <c r="C47" s="175"/>
-      <c r="D47" s="150"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="159"/>
       <c r="E47" s="155"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="184"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="185"/>
       <c r="H47" s="11" t="s">
         <v>523</v>
       </c>
@@ -9379,12 +9436,12 @@
       <c r="O47" s="10"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="165"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="150"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="159"/>
       <c r="E48" s="155"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="184"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="185"/>
       <c r="H48" s="11" t="s">
         <v>524</v>
       </c>
@@ -9409,12 +9466,12 @@
       <c r="O48" s="10"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="165"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="150"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="159"/>
       <c r="E49" s="155"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="184"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="185"/>
       <c r="H49" s="11" t="s">
         <v>525</v>
       </c>
@@ -9439,12 +9496,12 @@
       <c r="O49" s="10"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="165"/>
-      <c r="C50" s="175"/>
-      <c r="D50" s="150"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="159"/>
       <c r="E50" s="155"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="184"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="185"/>
       <c r="H50" s="11" t="s">
         <v>526</v>
       </c>
@@ -9469,12 +9526,12 @@
       <c r="O50" s="10"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="165"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="150"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="159"/>
       <c r="E51" s="155"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="184"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="185"/>
       <c r="H51" s="11" t="s">
         <v>527</v>
       </c>
@@ -9499,12 +9556,12 @@
       <c r="O51" s="10"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="165"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="150"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="159"/>
       <c r="E52" s="155"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="185"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="186"/>
       <c r="H52" s="11" t="s">
         <v>528</v>
       </c>
@@ -9529,14 +9586,14 @@
       <c r="O52" s="10"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="165"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="150"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="159"/>
       <c r="E53" s="155"/>
-      <c r="F53" s="144" t="s">
+      <c r="F53" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="G53" s="179"/>
+      <c r="G53" s="180"/>
       <c r="H53" s="11" t="s">
         <v>529</v>
       </c>
@@ -9561,12 +9618,12 @@
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="165"/>
-      <c r="C54" s="175"/>
-      <c r="D54" s="150"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="159"/>
       <c r="E54" s="155"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="180"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="181"/>
       <c r="H54" s="11" t="s">
         <v>501</v>
       </c>
@@ -9591,9 +9648,9 @@
       <c r="O54" s="10"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="165"/>
-      <c r="C55" s="175"/>
-      <c r="D55" s="150"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="155"/>
       <c r="F55" s="133" t="s">
         <v>498</v>
@@ -9623,14 +9680,14 @@
       <c r="O55" s="10"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="165"/>
-      <c r="C56" s="175"/>
-      <c r="D56" s="150"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="155"/>
-      <c r="F56" s="144" t="s">
+      <c r="F56" s="169" t="s">
         <v>499</v>
       </c>
-      <c r="G56" s="179"/>
+      <c r="G56" s="180"/>
       <c r="H56" s="11" t="s">
         <v>500</v>
       </c>
@@ -9655,12 +9712,12 @@
       <c r="O56" s="10"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="165"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="150"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="155"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="181"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="182"/>
       <c r="H57" s="11" t="s">
         <v>15</v>
       </c>
@@ -9685,12 +9742,12 @@
       <c r="O57" s="10"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="165"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="150"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="159"/>
       <c r="E58" s="155"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="181"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="182"/>
       <c r="H58" s="11" t="s">
         <v>18</v>
       </c>
@@ -9715,12 +9772,12 @@
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="165"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="150"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="159"/>
       <c r="E59" s="155"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="180"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="181"/>
       <c r="H59" s="11" t="s">
         <v>20</v>
       </c>
@@ -9745,9 +9802,9 @@
       <c r="O59" s="10"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="165"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="150"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="159"/>
       <c r="E60" s="155"/>
       <c r="F60" s="138"/>
       <c r="G60" s="8"/>
@@ -9761,46 +9818,84 @@
       <c r="O60" s="10"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="166"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="143"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="160" t="s">
+        <v>532</v>
+      </c>
+      <c r="E61" s="156" t="s">
+        <v>531</v>
+      </c>
+      <c r="F61" s="139" t="s">
+        <v>535</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J61" s="192">
+        <v>1000001</v>
+      </c>
+      <c r="K61" s="142" t="s">
+        <v>330</v>
+      </c>
+      <c r="L61" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="N61" s="142" t="s">
+        <v>331</v>
+      </c>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="166"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="143"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="139" t="s">
+        <v>536</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J62" s="192">
+        <v>2000001</v>
+      </c>
+      <c r="K62" s="142" t="s">
+        <v>330</v>
+      </c>
+      <c r="L62" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="M62" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="N62" s="142" t="s">
+        <v>331</v>
+      </c>
       <c r="O62" s="15"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="166"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="143"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="160" t="s">
+        <v>533</v>
+      </c>
+      <c r="E63" s="156"/>
       <c r="F63" s="139"/>
       <c r="G63" s="12"/>
       <c r="H63" s="11"/>
@@ -9813,10 +9908,10 @@
       <c r="O63" s="15"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="166"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="142"/>
-      <c r="E64" s="143"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="177"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="156"/>
       <c r="F64" s="139"/>
       <c r="G64" s="12"/>
       <c r="H64" s="11"/>
@@ -9829,12 +9924,12 @@
       <c r="O64" s="15"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="166"/>
-      <c r="C65" s="176"/>
-      <c r="D65" s="142" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="143"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="160" t="s">
+        <v>534</v>
+      </c>
+      <c r="E65" s="156"/>
       <c r="F65" s="139"/>
       <c r="G65" s="12"/>
       <c r="H65" s="13"/>
@@ -9849,10 +9944,10 @@
       <c r="Q65" s="46"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="166"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="143"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="156"/>
       <c r="F66" s="139"/>
       <c r="G66" s="12"/>
       <c r="H66" s="13"/>
@@ -9867,10 +9962,10 @@
       <c r="Q66" s="46"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="166"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="143"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="156"/>
       <c r="F67" s="139"/>
       <c r="G67" s="12"/>
       <c r="H67" s="13"/>
@@ -9885,12 +9980,12 @@
       <c r="Q67" s="46"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="166"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="144" t="s">
+      <c r="B68" s="152"/>
+      <c r="C68" s="177"/>
+      <c r="D68" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="146"/>
+      <c r="E68" s="157"/>
       <c r="F68" s="139"/>
       <c r="G68" s="12"/>
       <c r="H68" s="31"/>
@@ -9905,10 +10000,10 @@
       <c r="Q68" s="46"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="166"/>
-      <c r="C69" s="176"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="154"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="177"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="171"/>
       <c r="F69" s="139"/>
       <c r="G69" s="12"/>
       <c r="H69" s="13"/>
@@ -9923,10 +10018,10 @@
       <c r="Q69" s="46"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="166"/>
-      <c r="C70" s="176"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="154"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="177"/>
+      <c r="D70" s="170"/>
+      <c r="E70" s="171"/>
       <c r="F70" s="139"/>
       <c r="G70" s="12"/>
       <c r="H70" s="13"/>
@@ -9941,10 +10036,10 @@
       <c r="Q70" s="46"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="166"/>
-      <c r="C71" s="176"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="154"/>
+      <c r="B71" s="152"/>
+      <c r="C71" s="177"/>
+      <c r="D71" s="170"/>
+      <c r="E71" s="171"/>
       <c r="F71" s="139"/>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
@@ -9959,10 +10054,10 @@
       <c r="Q71" s="46"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="166"/>
-      <c r="C72" s="176"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="154"/>
+      <c r="B72" s="152"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="170"/>
+      <c r="E72" s="171"/>
       <c r="F72" s="139"/>
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
@@ -9977,10 +10072,10 @@
       <c r="Q72" s="46"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="166"/>
-      <c r="C73" s="176"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="154"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="170"/>
+      <c r="E73" s="171"/>
       <c r="F73" s="139"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
@@ -9995,10 +10090,10 @@
       <c r="Q73" s="46"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="166"/>
-      <c r="C74" s="176"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="154"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="171"/>
       <c r="F74" s="139"/>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
@@ -10013,10 +10108,10 @@
       <c r="Q74" s="46"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="166"/>
-      <c r="C75" s="176"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="154"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="170"/>
+      <c r="E75" s="171"/>
       <c r="F75" s="139"/>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
@@ -10031,10 +10126,10 @@
       <c r="Q75" s="46"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="166"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="154"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="177"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="171"/>
       <c r="F76" s="139"/>
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
@@ -10049,10 +10144,10 @@
       <c r="Q76" s="46"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="166"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="154"/>
+      <c r="B77" s="152"/>
+      <c r="C77" s="177"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="171"/>
       <c r="F77" s="139"/>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
@@ -10067,10 +10162,10 @@
       <c r="Q77" s="46"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="166"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="149"/>
-      <c r="E78" s="154"/>
+      <c r="B78" s="152"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="171"/>
       <c r="F78" s="139"/>
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
@@ -10085,10 +10180,10 @@
       <c r="Q78" s="46"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="166"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="149"/>
-      <c r="E79" s="154"/>
+      <c r="B79" s="152"/>
+      <c r="C79" s="177"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="171"/>
       <c r="F79" s="139"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
@@ -10103,10 +10198,10 @@
       <c r="Q79" s="46"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="166"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="154"/>
+      <c r="B80" s="152"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="171"/>
       <c r="F80" s="139"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
@@ -10121,10 +10216,10 @@
       <c r="Q80" s="46"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="166"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="149"/>
-      <c r="E81" s="154"/>
+      <c r="B81" s="152"/>
+      <c r="C81" s="177"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171"/>
       <c r="F81" s="139"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
@@ -10139,10 +10234,10 @@
       <c r="Q81" s="46"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="166"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="149"/>
-      <c r="E82" s="154"/>
+      <c r="B82" s="152"/>
+      <c r="C82" s="177"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="171"/>
       <c r="F82" s="139"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
@@ -10157,10 +10252,10 @@
       <c r="Q82" s="46"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="166"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="149"/>
-      <c r="E83" s="154"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="177"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="171"/>
       <c r="F83" s="139"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
@@ -10175,10 +10270,10 @@
       <c r="Q83" s="46"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="166"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="154"/>
+      <c r="B84" s="152"/>
+      <c r="C84" s="177"/>
+      <c r="D84" s="170"/>
+      <c r="E84" s="171"/>
       <c r="F84" s="139"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
@@ -10193,10 +10288,10 @@
       <c r="Q84" s="46"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="166"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="149"/>
-      <c r="E85" s="154"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="177"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="171"/>
       <c r="F85" s="139"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
@@ -10211,10 +10306,10 @@
       <c r="Q85" s="46"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="166"/>
-      <c r="C86" s="176"/>
-      <c r="D86" s="149"/>
-      <c r="E86" s="154"/>
+      <c r="B86" s="152"/>
+      <c r="C86" s="177"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="139"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
@@ -10229,9 +10324,9 @@
       <c r="Q86" s="46"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="167"/>
-      <c r="C87" s="177"/>
-      <c r="D87" s="150"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="178"/>
+      <c r="D87" s="159"/>
       <c r="E87" s="155"/>
       <c r="F87" s="140"/>
       <c r="G87" s="30"/>
@@ -10247,8 +10342,8 @@
       <c r="Q87" s="46"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="167"/>
-      <c r="C88" s="177"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="178"/>
       <c r="D88" s="129" t="s">
         <v>186</v>
       </c>
@@ -10267,8 +10362,8 @@
       <c r="Q88" s="46"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="167"/>
-      <c r="C89" s="177"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="178"/>
       <c r="D89" s="129"/>
       <c r="E89" s="127"/>
       <c r="F89" s="140"/>
@@ -10285,8 +10380,8 @@
       <c r="Q89" s="46"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="167"/>
-      <c r="C90" s="177"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="178"/>
       <c r="D90" s="129"/>
       <c r="E90" s="127"/>
       <c r="F90" s="140"/>
@@ -10303,8 +10398,8 @@
       <c r="Q90" s="46"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="167"/>
-      <c r="C91" s="177"/>
+      <c r="B91" s="153"/>
+      <c r="C91" s="178"/>
       <c r="D91" s="129"/>
       <c r="E91" s="127"/>
       <c r="F91" s="140"/>
@@ -10321,8 +10416,8 @@
       <c r="Q91" s="46"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="167"/>
-      <c r="C92" s="177"/>
+      <c r="B92" s="153"/>
+      <c r="C92" s="178"/>
       <c r="D92" s="129"/>
       <c r="E92" s="127"/>
       <c r="F92" s="140"/>
@@ -10339,8 +10434,8 @@
       <c r="Q92" s="46"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B93" s="167"/>
-      <c r="C93" s="177"/>
+      <c r="B93" s="153"/>
+      <c r="C93" s="178"/>
       <c r="D93" s="129"/>
       <c r="E93" s="127"/>
       <c r="F93" s="140"/>
@@ -10357,8 +10452,8 @@
       <c r="Q93" s="46"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="167"/>
-      <c r="C94" s="177"/>
+      <c r="B94" s="153"/>
+      <c r="C94" s="178"/>
       <c r="D94" s="129"/>
       <c r="E94" s="127"/>
       <c r="F94" s="140" t="s">
@@ -10377,8 +10472,8 @@
       <c r="Q94" s="46"/>
     </row>
     <row r="95" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="168"/>
-      <c r="C95" s="178"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="179"/>
       <c r="D95" s="130"/>
       <c r="E95" s="128"/>
       <c r="F95" s="141"/>
@@ -10394,16 +10489,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G18"/>
-    <mergeCell ref="F7:F18"/>
-    <mergeCell ref="G19:G52"/>
-    <mergeCell ref="F19:F52"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="D68:D87"/>
     <mergeCell ref="E68:E87"/>
     <mergeCell ref="B4:B95"/>
@@ -10416,12 +10507,16 @@
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="D65:D67"/>
     <mergeCell ref="E65:E67"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G18"/>
+    <mergeCell ref="F7:F18"/>
+    <mergeCell ref="G19:G52"/>
+    <mergeCell ref="F19:F52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10464,28 +10559,28 @@
   <sheetData>
     <row r="1" spans="2:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="188" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="G2" s="189" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="G2" s="188" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="L2" s="189" t="s">
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="L2" s="188" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="P2" s="189" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="P2" s="188" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
       <c r="U2" s="49" t="s">
         <v>237</v>
       </c>
@@ -11306,7 +11401,7 @@
       <c r="H18" s="72">
         <v>3</v>
       </c>
-      <c r="I18" s="187">
+      <c r="I18" s="189">
         <v>119</v>
       </c>
       <c r="J18" s="72">
@@ -11360,7 +11455,7 @@
       <c r="H19" s="72">
         <v>3</v>
       </c>
-      <c r="I19" s="187"/>
+      <c r="I19" s="189"/>
       <c r="J19" s="72">
         <v>8</v>
       </c>
@@ -11399,7 +11494,7 @@
       <c r="H20" s="72">
         <v>3</v>
       </c>
-      <c r="I20" s="187"/>
+      <c r="I20" s="189"/>
       <c r="J20" s="72">
         <v>8</v>
       </c>
@@ -11581,7 +11676,7 @@
       <c r="H24" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="187">
+      <c r="I24" s="189">
         <v>286</v>
       </c>
       <c r="J24" s="72">
@@ -11628,7 +11723,7 @@
       <c r="H25" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I25" s="187"/>
+      <c r="I25" s="189"/>
       <c r="J25" s="72">
         <v>1</v>
       </c>
@@ -11673,7 +11768,7 @@
       <c r="H26" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I26" s="187"/>
+      <c r="I26" s="189"/>
       <c r="J26" s="72">
         <v>6</v>
       </c>
@@ -11719,7 +11814,7 @@
       <c r="H27" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I27" s="187"/>
+      <c r="I27" s="189"/>
       <c r="J27" s="72">
         <v>6</v>
       </c>
@@ -11764,7 +11859,7 @@
       <c r="H28" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="I28" s="187">
+      <c r="I28" s="189">
         <v>46</v>
       </c>
       <c r="J28" s="72">
@@ -11805,7 +11900,7 @@
       <c r="H29" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="187"/>
+      <c r="I29" s="189"/>
       <c r="J29" s="72">
         <v>7</v>
       </c>
@@ -11897,7 +11992,7 @@
       <c r="H31" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="I31" s="187">
+      <c r="I31" s="189">
         <v>47</v>
       </c>
       <c r="J31" s="72">
@@ -11947,7 +12042,7 @@
       <c r="H32" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="187"/>
+      <c r="I32" s="189"/>
       <c r="J32" s="72">
         <v>30</v>
       </c>
@@ -12095,7 +12190,7 @@
       <c r="H35" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="188">
+      <c r="I35" s="191">
         <v>1904</v>
       </c>
       <c r="J35" s="79">
@@ -12145,7 +12240,7 @@
       <c r="H36" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I36" s="188"/>
+      <c r="I36" s="191"/>
       <c r="J36" s="79">
         <v>3</v>
       </c>
@@ -12193,7 +12288,7 @@
       <c r="H37" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="188"/>
+      <c r="I37" s="191"/>
       <c r="J37" s="79">
         <v>3</v>
       </c>
@@ -17069,16 +17164,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17090,7 +17185,7 @@
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17242,12 +17337,24 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="120"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="122"/>
+      <c r="B9" s="120" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="F9" s="121">
+        <v>42979</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="120"/>

--- a/Document/Featrue list and styles.xlsx
+++ b/Document/Featrue list and styles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="551">
   <si>
     <t>形状分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2043,7 +2043,34 @@
     <t>v1.0.6</t>
   </si>
   <si>
+    <t>相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.7</t>
+  </si>
+  <si>
     <t>增加人员性别分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加监控相机分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2081,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,15 +2136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2129,6 +2147,22 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2757,7 +2791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2960,35 +2994,6 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3006,13 +3011,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3032,6 +3037,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3069,30 +3125,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3111,27 +3143,6 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3144,13 +3155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3168,21 +3179,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3505,42 +3546,42 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148" t="s">
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="150" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
     </row>
     <row r="3" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144" t="s">
+      <c r="C3" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="146"/>
+      <c r="G3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144" t="s">
+      <c r="H3" s="145"/>
+      <c r="I3" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="144"/>
+      <c r="J3" s="146"/>
       <c r="K3" s="109" t="s">
         <v>4</v>
       </c>
@@ -3559,18 +3600,18 @@
       <c r="P3" s="111"/>
     </row>
     <row r="4" spans="3:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="163">
+      <c r="C4" s="157">
         <v>99</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165">
+      <c r="D4" s="158"/>
+      <c r="E4" s="159">
         <v>99</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="166" t="s">
+      <c r="F4" s="158"/>
+      <c r="G4" s="160" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="167"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="85" t="s">
         <v>326</v>
       </c>
@@ -3595,22 +3636,22 @@
       <c r="P4" s="88"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="151">
+      <c r="C5" s="153">
         <v>10</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="161" t="s">
+      <c r="H5" s="141" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3627,12 +3668,12 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C6" s="152"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="162"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3647,12 +3688,12 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="152"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="162"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
@@ -3667,12 +3708,12 @@
       <c r="P7" s="15"/>
     </row>
     <row r="8" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="152"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="162"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="144"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -3687,12 +3728,12 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="152"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="162"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="144"/>
       <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3707,12 +3748,12 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="152"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="162"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="144"/>
       <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
@@ -3727,12 +3768,12 @@
       <c r="P10" s="15"/>
     </row>
     <row r="11" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="152"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="162"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="144"/>
       <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
@@ -3747,12 +3788,12 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="152"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="162"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="144"/>
       <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
@@ -3767,12 +3808,12 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="152"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="162"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="144"/>
       <c r="I13" s="11" t="s">
         <v>30</v>
       </c>
@@ -3787,12 +3828,12 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="152"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="162"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="11" t="s">
         <v>33</v>
       </c>
@@ -3807,12 +3848,12 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="152"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="162"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3827,12 +3868,12 @@
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="152"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="162"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3847,12 +3888,12 @@
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="152"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="162"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="11" t="s">
         <v>39</v>
       </c>
@@ -3867,12 +3908,12 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="152"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="162"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="144"/>
       <c r="I18" s="11" t="s">
         <v>41</v>
       </c>
@@ -3887,12 +3928,12 @@
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="152"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="162"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
@@ -3907,12 +3948,12 @@
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="152"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="162"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="144"/>
       <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
@@ -3927,12 +3968,12 @@
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="152"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="162"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="144"/>
       <c r="I21" s="11" t="s">
         <v>47</v>
       </c>
@@ -3947,12 +3988,12 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="152"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="162"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="144"/>
       <c r="I22" s="11" t="s">
         <v>49</v>
       </c>
@@ -3967,12 +4008,12 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="152"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="162"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="144"/>
       <c r="I23" s="11" t="s">
         <v>51</v>
       </c>
@@ -3987,12 +4028,12 @@
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="152"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="162"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="144"/>
       <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
@@ -4007,12 +4048,12 @@
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="152"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="162"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="144"/>
       <c r="I25" s="11" t="s">
         <v>55</v>
       </c>
@@ -4027,12 +4068,12 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="152"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="162"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="144"/>
       <c r="I26" s="11" t="s">
         <v>57</v>
       </c>
@@ -4047,12 +4088,12 @@
       <c r="P26" s="15"/>
     </row>
     <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="152"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="162"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="144"/>
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
@@ -4067,12 +4108,12 @@
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="152"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="162"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="144"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="91"/>
@@ -4083,14 +4124,14 @@
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="152"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="160" t="s">
+      <c r="C29" s="154"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="156" t="s">
+      <c r="H29" s="131" t="s">
         <v>61</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -4107,12 +4148,12 @@
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="152"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="156"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="11" t="s">
         <v>15</v>
       </c>
@@ -4127,12 +4168,12 @@
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="152"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="156"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="131"/>
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
@@ -4147,12 +4188,12 @@
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="152"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="156"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="131"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="91"/>
@@ -4163,12 +4204,12 @@
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="152"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="156"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="91"/>
@@ -4179,14 +4220,14 @@
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="152"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="160" t="s">
+      <c r="C34" s="154"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="162" t="s">
+      <c r="H34" s="144" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -4203,12 +4244,12 @@
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="152"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="162"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="144"/>
       <c r="I35" s="11"/>
       <c r="J35" s="16"/>
       <c r="K35" s="91"/>
@@ -4219,14 +4260,14 @@
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="152"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="160" t="s">
+      <c r="C36" s="154"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="162" t="s">
+      <c r="H36" s="144" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -4243,12 +4284,12 @@
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="152"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="162"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="144"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="91"/>
@@ -4259,18 +4300,18 @@
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="152"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="160" t="s">
+      <c r="C38" s="154"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="156" t="s">
+      <c r="F38" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="160" t="s">
+      <c r="G38" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="156" t="s">
+      <c r="H38" s="131" t="s">
         <v>70</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -4287,12 +4328,12 @@
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="152"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="156"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="131"/>
       <c r="I39" s="11" t="s">
         <v>15</v>
       </c>
@@ -4307,12 +4348,12 @@
       <c r="P39" s="15"/>
     </row>
     <row r="40" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="152"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="156"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
@@ -4327,12 +4368,12 @@
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="152"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="156"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="131"/>
       <c r="I41" s="11" t="s">
         <v>20</v>
       </c>
@@ -4347,12 +4388,12 @@
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="152"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="156"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="131"/>
       <c r="I42" s="11" t="s">
         <v>22</v>
       </c>
@@ -4367,12 +4408,12 @@
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="152"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="156"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="131"/>
       <c r="I43" s="11" t="s">
         <v>24</v>
       </c>
@@ -4387,12 +4428,12 @@
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="152"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="156"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="131"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
       <c r="K44" s="91"/>
@@ -4403,14 +4444,14 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="152"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="160"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="160" t="s">
+      <c r="C45" s="154"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="156" t="s">
+      <c r="H45" s="131" t="s">
         <v>61</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -4425,12 +4466,12 @@
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="152"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="156"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="131"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="91"/>
@@ -4441,14 +4482,14 @@
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="152"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="160" t="s">
+      <c r="C47" s="154"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="156" t="s">
+      <c r="H47" s="131" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -4465,12 +4506,12 @@
       <c r="P47" s="15"/>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="152"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="156"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="131"/>
       <c r="I48" s="11" t="s">
         <v>15</v>
       </c>
@@ -4485,12 +4526,12 @@
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C49" s="152"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="156"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="131"/>
       <c r="I49" s="11" t="s">
         <v>18</v>
       </c>
@@ -4505,12 +4546,12 @@
       <c r="P49" s="15"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C50" s="152"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="156"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="131"/>
       <c r="I50" s="11" t="s">
         <v>20</v>
       </c>
@@ -4525,12 +4566,12 @@
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C51" s="152"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="156"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="131"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
       <c r="K51" s="91"/>
@@ -4541,14 +4582,14 @@
       <c r="P51" s="15"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="152"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="160" t="s">
+      <c r="C52" s="154"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="156" t="s">
+      <c r="H52" s="131" t="s">
         <v>408</v>
       </c>
       <c r="I52" s="19" t="s">
@@ -4575,12 +4616,12 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="152"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="156"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="131"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="91"/>
@@ -4591,14 +4632,14 @@
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="152"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="169" t="s">
+      <c r="C54" s="154"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="157" t="s">
+      <c r="H54" s="134" t="s">
         <v>87</v>
       </c>
       <c r="I54" s="11"/>
@@ -4611,12 +4652,12 @@
       <c r="P54" s="15"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="152"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="171"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="142"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
       <c r="K55" s="91"/>
@@ -4627,12 +4668,12 @@
       <c r="P55" s="15"/>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C56" s="152"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="171"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="142"/>
       <c r="I56" s="19" t="s">
         <v>88</v>
       </c>
@@ -4657,12 +4698,12 @@
       <c r="P56" s="22"/>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C57" s="152"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="155"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="143"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="91"/>
@@ -4673,14 +4714,14 @@
       <c r="P57" s="15"/>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C58" s="152"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="160" t="s">
+      <c r="C58" s="154"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="156" t="s">
+      <c r="H58" s="131" t="s">
         <v>91</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -4697,12 +4738,12 @@
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="152"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="156"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="131"/>
       <c r="I59" s="11" t="s">
         <v>15</v>
       </c>
@@ -4717,12 +4758,12 @@
       <c r="P59" s="15"/>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C60" s="152"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="160"/>
-      <c r="H60" s="156"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="131"/>
       <c r="I60" s="11" t="s">
         <v>18</v>
       </c>
@@ -4737,12 +4778,12 @@
       <c r="P60" s="15"/>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C61" s="152"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="160"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="160"/>
-      <c r="H61" s="156"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="131"/>
       <c r="I61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4757,12 +4798,12 @@
       <c r="P61" s="15"/>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C62" s="152"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="156"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="131"/>
       <c r="I62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4777,12 +4818,12 @@
       <c r="P62" s="15"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C63" s="152"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="160"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="160"/>
-      <c r="H63" s="156"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="131"/>
       <c r="I63" s="11" t="s">
         <v>24</v>
       </c>
@@ -4797,12 +4838,12 @@
       <c r="P63" s="15"/>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C64" s="152"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="160"/>
-      <c r="H64" s="156"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="131"/>
       <c r="I64" s="11" t="s">
         <v>26</v>
       </c>
@@ -4817,12 +4858,12 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C65" s="152"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="156"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="131"/>
       <c r="I65" s="11" t="s">
         <v>28</v>
       </c>
@@ -4837,12 +4878,12 @@
       <c r="P65" s="15"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66" s="152"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="160"/>
-      <c r="H66" s="156"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="131"/>
       <c r="I66" s="11" t="s">
         <v>100</v>
       </c>
@@ -4857,12 +4898,12 @@
       <c r="P66" s="15"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C67" s="152"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="156"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="131"/>
       <c r="I67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4877,18 +4918,18 @@
       <c r="P67" s="15"/>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C68" s="152"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="160" t="s">
+      <c r="C68" s="154"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="156" t="s">
+      <c r="F68" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="160" t="s">
+      <c r="G68" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="156" t="s">
+      <c r="H68" s="131" t="s">
         <v>530</v>
       </c>
       <c r="I68" s="11" t="s">
@@ -4905,12 +4946,12 @@
       <c r="P68" s="15"/>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C69" s="152"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="160"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="160"/>
-      <c r="H69" s="156"/>
+      <c r="C69" s="154"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="131"/>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="91"/>
@@ -4921,12 +4962,12 @@
       <c r="P69" s="15"/>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C70" s="152"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="156"/>
+      <c r="C70" s="154"/>
+      <c r="D70" s="131"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="131"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="131"/>
       <c r="I70" s="11"/>
       <c r="J70" s="12"/>
       <c r="K70" s="91"/>
@@ -4937,12 +4978,12 @@
       <c r="P70" s="15"/>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C71" s="152"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="160"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="160"/>
-      <c r="H71" s="156"/>
+      <c r="C71" s="154"/>
+      <c r="D71" s="131"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="131"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="131"/>
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
       <c r="K71" s="91"/>
@@ -4953,14 +4994,14 @@
       <c r="P71" s="15"/>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C72" s="152"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="156"/>
-      <c r="G72" s="160" t="s">
+      <c r="C72" s="154"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="156" t="s">
+      <c r="H72" s="131" t="s">
         <v>61</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -4975,12 +5016,12 @@
       <c r="P72" s="15"/>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C73" s="152"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="160"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="160"/>
-      <c r="H73" s="156"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="131"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="131"/>
       <c r="I73" s="11"/>
       <c r="J73" s="12"/>
       <c r="K73" s="91"/>
@@ -4991,14 +5032,14 @@
       <c r="P73" s="15"/>
     </row>
     <row r="74" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="152"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="160"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="160" t="s">
+      <c r="C74" s="154"/>
+      <c r="D74" s="131"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="131"/>
+      <c r="G74" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="H74" s="173" t="s">
+      <c r="H74" s="136" t="s">
         <v>65</v>
       </c>
       <c r="I74" s="23" t="s">
@@ -5019,12 +5060,12 @@
       <c r="P74" s="26"/>
     </row>
     <row r="75" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="152"/>
-      <c r="D75" s="156"/>
-      <c r="E75" s="160"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="160"/>
-      <c r="H75" s="173"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="136"/>
       <c r="I75" s="23" t="s">
         <v>15</v>
       </c>
@@ -5043,12 +5084,12 @@
       <c r="P75" s="26"/>
     </row>
     <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="152"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="160"/>
-      <c r="H76" s="173"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="131"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="136"/>
       <c r="I76" s="23" t="s">
         <v>18</v>
       </c>
@@ -5067,12 +5108,12 @@
       <c r="P76" s="26"/>
     </row>
     <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="152"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="160"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="160"/>
-      <c r="H77" s="173"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="130"/>
+      <c r="H77" s="136"/>
       <c r="I77" s="23" t="s">
         <v>20</v>
       </c>
@@ -5091,12 +5132,12 @@
       <c r="P77" s="26"/>
     </row>
     <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="152"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="173"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="131"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="136"/>
       <c r="I78" s="23" t="s">
         <v>22</v>
       </c>
@@ -5115,12 +5156,12 @@
       <c r="P78" s="26"/>
     </row>
     <row r="79" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="152"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="160"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="160"/>
-      <c r="H79" s="173"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="130"/>
+      <c r="H79" s="136"/>
       <c r="I79" s="23"/>
       <c r="J79" s="24"/>
       <c r="K79" s="93"/>
@@ -5131,14 +5172,14 @@
       <c r="P79" s="26"/>
     </row>
     <row r="80" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="152"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="160"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="160" t="s">
+      <c r="C80" s="154"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="131"/>
+      <c r="G80" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="H80" s="173" t="s">
+      <c r="H80" s="136" t="s">
         <v>85</v>
       </c>
       <c r="I80" s="23" t="s">
@@ -5159,12 +5200,12 @@
       <c r="P80" s="26"/>
     </row>
     <row r="81" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="152"/>
-      <c r="D81" s="156"/>
-      <c r="E81" s="160"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="160"/>
-      <c r="H81" s="173"/>
+      <c r="C81" s="154"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="136"/>
       <c r="I81" s="23" t="s">
         <v>15</v>
       </c>
@@ -5183,12 +5224,12 @@
       <c r="P81" s="26"/>
     </row>
     <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="152"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="160"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="160"/>
-      <c r="H82" s="173"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="130"/>
+      <c r="H82" s="136"/>
       <c r="I82" s="23" t="s">
         <v>18</v>
       </c>
@@ -5207,12 +5248,12 @@
       <c r="P82" s="26"/>
     </row>
     <row r="83" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="152"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="160"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="160"/>
-      <c r="H83" s="173"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="130"/>
+      <c r="H83" s="136"/>
       <c r="I83" s="23" t="s">
         <v>20</v>
       </c>
@@ -5231,12 +5272,12 @@
       <c r="P83" s="26"/>
     </row>
     <row r="84" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="152"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="160"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="160"/>
-      <c r="H84" s="173"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="136"/>
       <c r="I84" s="23" t="s">
         <v>22</v>
       </c>
@@ -5255,12 +5296,12 @@
       <c r="P84" s="26"/>
     </row>
     <row r="85" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="152"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="156"/>
-      <c r="G85" s="160"/>
-      <c r="H85" s="173"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="136"/>
       <c r="I85" s="23" t="s">
         <v>24</v>
       </c>
@@ -5279,12 +5320,12 @@
       <c r="P85" s="26"/>
     </row>
     <row r="86" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="152"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="160"/>
-      <c r="H86" s="173"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="130"/>
+      <c r="H86" s="136"/>
       <c r="I86" s="23" t="s">
         <v>26</v>
       </c>
@@ -5303,12 +5344,12 @@
       <c r="P86" s="26"/>
     </row>
     <row r="87" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="152"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="160"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="160"/>
-      <c r="H87" s="173"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="136"/>
       <c r="I87" s="23" t="s">
         <v>28</v>
       </c>
@@ -5321,12 +5362,12 @@
       <c r="P87" s="26"/>
     </row>
     <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="152"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="160"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="160"/>
-      <c r="H88" s="173"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="136"/>
       <c r="I88" s="23"/>
       <c r="J88" s="24"/>
       <c r="K88" s="93"/>
@@ -5337,12 +5378,12 @@
       <c r="P88" s="26"/>
     </row>
     <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="152"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="160"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="160"/>
-      <c r="H89" s="173"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="131"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="131"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="136"/>
       <c r="I89" s="23"/>
       <c r="J89" s="24"/>
       <c r="K89" s="93"/>
@@ -5353,14 +5394,14 @@
       <c r="P89" s="26"/>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C90" s="152"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="160"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="160" t="s">
+      <c r="C90" s="154"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="131"/>
+      <c r="G90" s="130" t="s">
         <v>415</v>
       </c>
-      <c r="H90" s="156" t="s">
+      <c r="H90" s="131" t="s">
         <v>402</v>
       </c>
       <c r="I90" s="11" t="s">
@@ -5375,12 +5416,12 @@
       <c r="P90" s="15"/>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C91" s="152"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="160"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="160"/>
-      <c r="H91" s="156"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="131"/>
+      <c r="G91" s="130"/>
+      <c r="H91" s="131"/>
       <c r="I91" s="11"/>
       <c r="J91" s="12"/>
       <c r="K91" s="91"/>
@@ -5391,14 +5432,14 @@
       <c r="P91" s="15"/>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C92" s="152"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="160"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="169" t="s">
+      <c r="C92" s="154"/>
+      <c r="D92" s="131"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="131"/>
+      <c r="G92" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="174" t="s">
+      <c r="H92" s="139" t="s">
         <v>130</v>
       </c>
       <c r="I92" s="19" t="s">
@@ -5425,12 +5466,12 @@
       <c r="P92" s="22"/>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C93" s="152"/>
-      <c r="D93" s="156"/>
-      <c r="E93" s="160"/>
-      <c r="F93" s="156"/>
-      <c r="G93" s="170"/>
-      <c r="H93" s="175"/>
+      <c r="C93" s="154"/>
+      <c r="D93" s="131"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="131"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="140"/>
       <c r="I93" s="19" t="s">
         <v>105</v>
       </c>
@@ -5455,12 +5496,12 @@
       <c r="P93" s="22"/>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C94" s="152"/>
-      <c r="D94" s="156"/>
-      <c r="E94" s="160"/>
-      <c r="F94" s="156"/>
-      <c r="G94" s="170"/>
-      <c r="H94" s="175"/>
+      <c r="C94" s="154"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="131"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="140"/>
       <c r="I94" s="13" t="s">
         <v>78</v>
       </c>
@@ -5473,12 +5514,12 @@
       <c r="P94" s="28"/>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C95" s="152"/>
-      <c r="D95" s="156"/>
-      <c r="E95" s="160"/>
-      <c r="F95" s="156"/>
-      <c r="G95" s="170"/>
-      <c r="H95" s="175"/>
+      <c r="C95" s="154"/>
+      <c r="D95" s="131"/>
+      <c r="E95" s="130"/>
+      <c r="F95" s="131"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="140"/>
       <c r="I95" s="19" t="s">
         <v>134</v>
       </c>
@@ -5503,12 +5544,12 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C96" s="152"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="160"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="170"/>
-      <c r="H96" s="175"/>
+      <c r="C96" s="154"/>
+      <c r="D96" s="131"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="131"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="140"/>
       <c r="I96" s="19" t="s">
         <v>86</v>
       </c>
@@ -5533,12 +5574,12 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C97" s="152"/>
-      <c r="D97" s="156"/>
-      <c r="E97" s="160"/>
-      <c r="F97" s="156"/>
-      <c r="G97" s="159"/>
-      <c r="H97" s="161"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="131"/>
+      <c r="G97" s="138"/>
+      <c r="H97" s="141"/>
       <c r="I97" s="13"/>
       <c r="J97" s="16"/>
       <c r="K97" s="91"/>
@@ -5549,14 +5590,14 @@
       <c r="P97" s="28"/>
     </row>
     <row r="98" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C98" s="152"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="160"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="160" t="s">
+      <c r="C98" s="154"/>
+      <c r="D98" s="131"/>
+      <c r="E98" s="130"/>
+      <c r="F98" s="131"/>
+      <c r="G98" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="H98" s="156" t="s">
+      <c r="H98" s="131" t="s">
         <v>91</v>
       </c>
       <c r="I98" s="11" t="s">
@@ -5573,12 +5614,12 @@
       <c r="P98" s="15"/>
     </row>
     <row r="99" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C99" s="152"/>
-      <c r="D99" s="156"/>
-      <c r="E99" s="160"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="160"/>
-      <c r="H99" s="156"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="131"/>
+      <c r="G99" s="130"/>
+      <c r="H99" s="131"/>
       <c r="I99" s="19" t="s">
         <v>15</v>
       </c>
@@ -5603,16 +5644,16 @@
       <c r="P99" s="22"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C100" s="152"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="160"/>
-      <c r="F100" s="156"/>
-      <c r="G100" s="160"/>
-      <c r="H100" s="156"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="131"/>
+      <c r="E100" s="130"/>
+      <c r="F100" s="131"/>
+      <c r="G100" s="130"/>
+      <c r="H100" s="131"/>
       <c r="I100" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="131" t="s">
+      <c r="J100" s="116" t="s">
         <v>410</v>
       </c>
       <c r="K100" s="92" t="s">
@@ -5633,16 +5674,16 @@
       <c r="P100" s="22"/>
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C101" s="152"/>
-      <c r="D101" s="156"/>
-      <c r="E101" s="160"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="160"/>
-      <c r="H101" s="156"/>
+      <c r="C101" s="154"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="131"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="131"/>
       <c r="I101" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="131" t="s">
+      <c r="J101" s="116" t="s">
         <v>389</v>
       </c>
       <c r="K101" s="92" t="s">
@@ -5661,16 +5702,16 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C102" s="152"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="160"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="160"/>
-      <c r="H102" s="156"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="131"/>
+      <c r="G102" s="130"/>
+      <c r="H102" s="131"/>
       <c r="I102" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J102" s="131" t="s">
+      <c r="J102" s="116" t="s">
         <v>390</v>
       </c>
       <c r="K102" s="92" t="s">
@@ -5689,16 +5730,16 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C103" s="152"/>
-      <c r="D103" s="156"/>
-      <c r="E103" s="160"/>
-      <c r="F103" s="156"/>
-      <c r="G103" s="160"/>
-      <c r="H103" s="156"/>
+      <c r="C103" s="154"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="131"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="131"/>
       <c r="I103" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J103" s="131" t="s">
+      <c r="J103" s="116" t="s">
         <v>413</v>
       </c>
       <c r="K103" s="92" t="s">
@@ -5719,16 +5760,16 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C104" s="152"/>
-      <c r="D104" s="156"/>
-      <c r="E104" s="160"/>
-      <c r="F104" s="156"/>
-      <c r="G104" s="160"/>
-      <c r="H104" s="156"/>
+      <c r="C104" s="154"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="131"/>
+      <c r="G104" s="130"/>
+      <c r="H104" s="131"/>
       <c r="I104" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="131" t="s">
+      <c r="J104" s="116" t="s">
         <v>414</v>
       </c>
       <c r="K104" s="92" t="s">
@@ -5749,16 +5790,16 @@
       <c r="P104" s="22"/>
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C105" s="152"/>
-      <c r="D105" s="156"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="156"/>
-      <c r="G105" s="160"/>
-      <c r="H105" s="156"/>
+      <c r="C105" s="154"/>
+      <c r="D105" s="131"/>
+      <c r="E105" s="130"/>
+      <c r="F105" s="131"/>
+      <c r="G105" s="130"/>
+      <c r="H105" s="131"/>
       <c r="I105" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J105" s="131" t="s">
+      <c r="J105" s="116" t="s">
         <v>416</v>
       </c>
       <c r="K105" s="92" t="s">
@@ -5779,16 +5820,16 @@
       <c r="P105" s="22"/>
     </row>
     <row r="106" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C106" s="152"/>
-      <c r="D106" s="156"/>
-      <c r="E106" s="160"/>
-      <c r="F106" s="156"/>
-      <c r="G106" s="160"/>
-      <c r="H106" s="156"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="131"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="131"/>
+      <c r="G106" s="130"/>
+      <c r="H106" s="131"/>
       <c r="I106" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J106" s="132" t="s">
+      <c r="J106" s="117" t="s">
         <v>97</v>
       </c>
       <c r="K106" s="91"/>
@@ -5799,12 +5840,12 @@
       <c r="P106" s="15"/>
     </row>
     <row r="107" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C107" s="152"/>
-      <c r="D107" s="156"/>
-      <c r="E107" s="160"/>
-      <c r="F107" s="156"/>
-      <c r="G107" s="160"/>
-      <c r="H107" s="156"/>
+      <c r="C107" s="154"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="131"/>
+      <c r="G107" s="130"/>
+      <c r="H107" s="131"/>
       <c r="I107" s="11" t="s">
         <v>139</v>
       </c>
@@ -5819,12 +5860,12 @@
       <c r="P107" s="15"/>
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C108" s="152"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="160" t="s">
+      <c r="C108" s="154"/>
+      <c r="D108" s="131"/>
+      <c r="E108" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F108" s="156" t="s">
+      <c r="F108" s="131" t="s">
         <v>141</v>
       </c>
       <c r="G108" s="11" t="s">
@@ -5847,10 +5888,10 @@
       <c r="P108" s="15"/>
     </row>
     <row r="109" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C109" s="152"/>
-      <c r="D109" s="156"/>
-      <c r="E109" s="160"/>
-      <c r="F109" s="156"/>
+      <c r="C109" s="154"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="130"/>
+      <c r="F109" s="131"/>
       <c r="G109" s="11" t="s">
         <v>15</v>
       </c>
@@ -5871,10 +5912,10 @@
       <c r="P109" s="15"/>
     </row>
     <row r="110" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C110" s="152"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="160"/>
-      <c r="F110" s="156"/>
+      <c r="C110" s="154"/>
+      <c r="D110" s="131"/>
+      <c r="E110" s="130"/>
+      <c r="F110" s="131"/>
       <c r="G110" s="11" t="s">
         <v>18</v>
       </c>
@@ -5895,10 +5936,10 @@
       <c r="P110" s="15"/>
     </row>
     <row r="111" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C111" s="152"/>
-      <c r="D111" s="156"/>
-      <c r="E111" s="160"/>
-      <c r="F111" s="156"/>
+      <c r="C111" s="154"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="130"/>
+      <c r="F111" s="131"/>
       <c r="G111" s="11" t="s">
         <v>20</v>
       </c>
@@ -5919,10 +5960,10 @@
       <c r="P111" s="15"/>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C112" s="153"/>
-      <c r="D112" s="157"/>
-      <c r="E112" s="169"/>
-      <c r="F112" s="157"/>
+      <c r="C112" s="155"/>
+      <c r="D112" s="134"/>
+      <c r="E112" s="132"/>
+      <c r="F112" s="134"/>
       <c r="G112" s="29" t="s">
         <v>86</v>
       </c>
@@ -5941,10 +5982,10 @@
       <c r="P112" s="33"/>
     </row>
     <row r="113" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="154"/>
-      <c r="D113" s="158"/>
-      <c r="E113" s="172"/>
-      <c r="F113" s="158"/>
+      <c r="C113" s="156"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="135"/>
       <c r="G113" s="36" t="s">
         <v>90</v>
       </c>
@@ -5966,18 +6007,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G98:G107"/>
-    <mergeCell ref="H98:H107"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="G74:G79"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="G80:G89"/>
-    <mergeCell ref="H80:H89"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="C5:C113"/>
+    <mergeCell ref="D5:D113"/>
+    <mergeCell ref="E5:E37"/>
+    <mergeCell ref="F5:F37"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H5:H28"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="G54:G57"/>
     <mergeCell ref="H54:H57"/>
     <mergeCell ref="G58:G67"/>
@@ -5994,31 +6048,18 @@
     <mergeCell ref="H38:H44"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="C5:C113"/>
-    <mergeCell ref="D5:D113"/>
-    <mergeCell ref="E5:E37"/>
-    <mergeCell ref="F5:F37"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H5:H28"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="G98:G107"/>
+    <mergeCell ref="H98:H107"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="G80:G89"/>
+    <mergeCell ref="H80:H89"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6053,42 +6094,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="148" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="143" t="s">
+      <c r="E3" s="146"/>
+      <c r="F3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6107,16 +6148,16 @@
       <c r="O3" s="111"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="151">
+      <c r="B4" s="153">
         <v>20</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="143" t="s">
         <v>155</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -6139,10 +6180,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="152"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="156"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
@@ -6163,10 +6204,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="152"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="156"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -6187,10 +6228,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="152"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="156"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6211,10 +6252,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="152"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="156"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -6235,10 +6276,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="152"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="156"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -6259,10 +6300,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="152"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="156"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
@@ -6283,10 +6324,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="152"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="156"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6307,12 +6348,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="152"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="160" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="131" t="s">
         <v>167</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -6335,10 +6376,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="152"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="156"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
@@ -6359,10 +6400,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="152"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="156"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
@@ -6383,10 +6424,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="152"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="156"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
@@ -6407,10 +6448,10 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="152"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="156"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -6431,10 +6472,10 @@
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="152"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="156"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="11" t="s">
         <v>24</v>
       </c>
@@ -6455,10 +6496,10 @@
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="152"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="156"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6479,10 +6520,10 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="152"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="156"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
@@ -6503,10 +6544,10 @@
       <c r="O19" s="15"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="152"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="156"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
       <c r="F20" s="11" t="s">
         <v>30</v>
       </c>
@@ -6537,12 +6578,12 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="152"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="169" t="s">
+      <c r="B21" s="154"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="157" t="s">
+      <c r="E21" s="134" t="s">
         <v>176</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -6565,10 +6606,10 @@
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="152"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="155"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="11" t="s">
         <v>166</v>
       </c>
@@ -6589,12 +6630,12 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="152"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="160" t="s">
+      <c r="B23" s="154"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="156" t="s">
+      <c r="E23" s="131" t="s">
         <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -6617,10 +6658,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="152"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="156"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
       <c r="F24" s="11" t="s">
         <v>105</v>
       </c>
@@ -6641,12 +6682,12 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="152"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="160" t="s">
+      <c r="B25" s="154"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="156" t="s">
+      <c r="E25" s="131" t="s">
         <v>183</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -6669,10 +6710,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="152"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="156"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
       <c r="F26" s="11" t="s">
         <v>166</v>
       </c>
@@ -6693,12 +6734,12 @@
       <c r="O26" s="15"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="152"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="160" t="s">
+      <c r="B27" s="154"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="131" t="s">
         <v>141</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -6721,10 +6762,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="153"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="157"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="29" t="s">
         <v>15</v>
       </c>
@@ -6745,10 +6786,10 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="154"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="158"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="135"/>
       <c r="F29" s="36" t="s">
         <v>175</v>
       </c>
@@ -6770,6 +6811,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B4:B29"/>
     <mergeCell ref="C4:C29"/>
     <mergeCell ref="D4:D11"/>
@@ -6784,12 +6831,6 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6825,42 +6866,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="148" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="143" t="s">
+      <c r="E3" s="146"/>
+      <c r="F3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6881,16 +6922,16 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="151">
+      <c r="B4" s="153">
         <v>30</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="143" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -6913,10 +6954,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="152"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="156"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="11" t="s">
         <v>166</v>
       </c>
@@ -6937,10 +6978,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="152"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="156"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -6961,10 +7002,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="152"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="156"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6985,10 +7026,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="152"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="156"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -7009,10 +7050,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="152"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="156"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -7033,10 +7074,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="152"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="156"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="11" t="s">
         <v>201</v>
       </c>
@@ -7055,10 +7096,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="152"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="156"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
@@ -7071,12 +7112,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="152"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="160" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="131" t="s">
         <v>204</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -7097,10 +7138,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="152"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="156"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="11" t="s">
         <v>166</v>
       </c>
@@ -7119,12 +7160,12 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="152"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="160" t="s">
+      <c r="B14" s="154"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="131" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -7147,10 +7188,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="152"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="156"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="11" t="s">
         <v>166</v>
       </c>
@@ -7169,12 +7210,12 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="152"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="160" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="131" t="s">
         <v>402</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -7209,10 +7250,10 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="152"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="156"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="11" t="s">
         <v>404</v>
       </c>
@@ -7227,10 +7268,10 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="152"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="156"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
@@ -7249,12 +7290,12 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="152"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="169" t="s">
+      <c r="B19" s="154"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="157" t="s">
+      <c r="E19" s="134" t="s">
         <v>211</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -7289,10 +7330,10 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="152"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="142"/>
       <c r="F20" s="11" t="s">
         <v>166</v>
       </c>
@@ -7325,10 +7366,10 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="152"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="142"/>
       <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
@@ -7361,10 +7402,10 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="152"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="11" t="s">
         <v>20</v>
       </c>
@@ -7385,10 +7426,10 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="152"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="142"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
@@ -7409,10 +7450,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="152"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="142"/>
       <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
@@ -7433,10 +7474,10 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="152"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="142"/>
       <c r="F25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7457,10 +7498,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="152"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="171"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="11" t="s">
         <v>28</v>
       </c>
@@ -7493,10 +7534,10 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="152"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="11" t="s">
         <v>30</v>
       </c>
@@ -7517,10 +7558,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="152"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="11" t="s">
         <v>33</v>
       </c>
@@ -7541,10 +7582,10 @@
       <c r="O28" s="15"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="152"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="11" t="s">
         <v>35</v>
       </c>
@@ -7565,10 +7606,10 @@
       <c r="O29" s="15"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="152"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="11" t="s">
         <v>37</v>
       </c>
@@ -7589,10 +7630,10 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="152"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="142"/>
       <c r="F31" s="11" t="s">
         <v>39</v>
       </c>
@@ -7613,10 +7654,10 @@
       <c r="O31" s="15"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="152"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="142"/>
       <c r="F32" s="11" t="s">
         <v>41</v>
       </c>
@@ -7637,10 +7678,10 @@
       <c r="O32" s="15"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="152"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="11" t="s">
         <v>43</v>
       </c>
@@ -7661,10 +7702,10 @@
       <c r="O33" s="15"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="152"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="142"/>
       <c r="F34" s="11" t="s">
         <v>49</v>
       </c>
@@ -7685,10 +7726,10 @@
       <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="152"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="171"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="11" t="s">
         <v>229</v>
       </c>
@@ -7709,10 +7750,10 @@
       <c r="O35" s="15"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="152"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="171"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="142"/>
       <c r="F36" s="11" t="s">
         <v>53</v>
       </c>
@@ -7733,10 +7774,10 @@
       <c r="O36" s="15"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="152"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="171"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="142"/>
       <c r="F37" s="11" t="s">
         <v>55</v>
       </c>
@@ -7757,10 +7798,10 @@
       <c r="O37" s="15"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="153"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="155"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="143"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="29"/>
@@ -7773,8 +7814,8 @@
       <c r="O38" s="33"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="153"/>
-      <c r="C39" s="178"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="165"/>
       <c r="D39" s="17" t="s">
         <v>348</v>
       </c>
@@ -7811,8 +7852,8 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="153"/>
-      <c r="C40" s="178"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="165"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="29" t="s">
@@ -7845,8 +7886,8 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="153"/>
-      <c r="C41" s="178"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="165"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="29" t="s">
@@ -7879,8 +7920,8 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="153"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="29" t="s">
@@ -7916,8 +7957,8 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="153"/>
-      <c r="C43" s="178"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="165"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="29" t="s">
@@ -7936,8 +7977,8 @@
       <c r="O43" s="108"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="153"/>
-      <c r="C44" s="178"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="165"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="29" t="s">
@@ -7956,8 +7997,8 @@
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="153"/>
-      <c r="C45" s="178"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="165"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29" t="s">
@@ -7974,8 +8015,8 @@
       <c r="O45" s="33"/>
     </row>
     <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="154"/>
-      <c r="C46" s="179"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="35"/>
       <c r="E46" s="34"/>
       <c r="F46" s="36"/>
@@ -7991,11 +8032,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D19:D38"/>
     <mergeCell ref="E19:E38"/>
@@ -8009,6 +8045,11 @@
     <mergeCell ref="D4:D11"/>
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8021,10 +8062,10 @@
   <dimension ref="B1:Q95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U44" sqref="U44"/>
+      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8032,7 +8073,7 @@
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="137" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="122" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
     <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
@@ -8046,42 +8087,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="148" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="143" t="s">
+      <c r="E3" s="146"/>
+      <c r="F3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -8102,29 +8143,29 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="151">
-        <v>0</v>
-      </c>
-      <c r="C4" s="176" t="s">
+      <c r="B4" s="153">
+        <v>0</v>
+      </c>
+      <c r="C4" s="163" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="138" t="s">
         <v>465</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="143" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="183" t="s">
+      <c r="F4" s="170" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="184"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="J4" s="135">
+      <c r="J4" s="120">
         <v>1010000</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -8142,19 +8183,19 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="151"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="185"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="11" t="s">
         <v>501</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="120">
         <v>1020000</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -8172,19 +8213,19 @@
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="151"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="186"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="11" t="s">
         <v>502</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="J6" s="135">
+      <c r="J6" s="120">
         <v>1030000</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -8202,21 +8243,21 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="151"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="169" t="s">
+      <c r="B7" s="153"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="132" t="s">
         <v>495</v>
       </c>
-      <c r="G7" s="187"/>
+      <c r="G7" s="174"/>
       <c r="H7" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="135">
+      <c r="J7" s="120">
         <v>2010000</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -8234,19 +8275,19 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="151"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="185"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="172"/>
       <c r="H8" s="11" t="s">
         <v>501</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="135">
+      <c r="J8" s="120">
         <v>2020000</v>
       </c>
       <c r="K8" s="9" t="s">
@@ -8264,19 +8305,19 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="151"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="185"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="172"/>
       <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="135">
+      <c r="J9" s="120">
         <v>2030000</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -8294,19 +8335,19 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="151"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="185"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="172"/>
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="J10" s="135">
+      <c r="J10" s="120">
         <v>2040000</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -8324,19 +8365,19 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="151"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="185"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="172"/>
       <c r="H11" s="11" t="s">
         <v>503</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="J11" s="135">
+      <c r="J11" s="120">
         <v>2100000</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -8354,19 +8395,19 @@
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="151"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="185"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="11" t="s">
         <v>504</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="J12" s="135">
+      <c r="J12" s="120">
         <v>2200000</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -8384,19 +8425,19 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="151"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="185"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="11" t="s">
         <v>505</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="J13" s="135">
+      <c r="J13" s="120">
         <v>2300000</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -8414,19 +8455,19 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="151"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="185"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="172"/>
       <c r="H14" s="11" t="s">
         <v>506</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J14" s="135">
+      <c r="J14" s="120">
         <v>2310000</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -8444,19 +8485,19 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="151"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="185"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="172"/>
       <c r="H15" s="11" t="s">
         <v>507</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="J15" s="135">
+      <c r="J15" s="120">
         <v>2320000</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -8474,19 +8515,19 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="151"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="185"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="172"/>
       <c r="H16" s="11" t="s">
         <v>508</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="J16" s="135">
+      <c r="J16" s="120">
         <v>2400000</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -8504,19 +8545,19 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="151"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="185"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="172"/>
       <c r="H17" s="11" t="s">
         <v>509</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J17" s="135">
+      <c r="J17" s="120">
         <v>2410000</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -8534,19 +8575,19 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="151"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="186"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="173"/>
       <c r="H18" s="11" t="s">
         <v>510</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="J18" s="135">
+      <c r="J18" s="120">
         <v>2420000</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -8564,21 +8605,21 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="151"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="169" t="s">
+      <c r="B19" s="153"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="132" t="s">
         <v>496</v>
       </c>
-      <c r="G19" s="187"/>
+      <c r="G19" s="174"/>
       <c r="H19" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="J19" s="135">
+      <c r="J19" s="120">
         <v>3010000</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -8596,19 +8637,19 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="151"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="185"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="J20" s="135">
+      <c r="J20" s="120">
         <v>3020000</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -8626,19 +8667,19 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="151"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="185"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="172"/>
       <c r="H21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="J21" s="135">
+      <c r="J21" s="120">
         <v>3030000</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -8656,19 +8697,19 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="151"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="185"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="172"/>
       <c r="H22" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J22" s="135">
+      <c r="J22" s="120">
         <v>3040000</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -8686,19 +8727,19 @@
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="151"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="185"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="172"/>
       <c r="H23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="J23" s="135">
+      <c r="J23" s="120">
         <v>3050000</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -8716,19 +8757,19 @@
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="151"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="185"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="172"/>
       <c r="H24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="J24" s="135">
+      <c r="J24" s="120">
         <v>3060000</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -8746,19 +8787,19 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="151"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="185"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="172"/>
       <c r="H25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="J25" s="135">
+      <c r="J25" s="120">
         <v>3070000</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -8776,19 +8817,19 @@
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="151"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="185"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="172"/>
       <c r="H26" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="J26" s="135">
+      <c r="J26" s="120">
         <v>3080000</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -8806,19 +8847,19 @@
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="151"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="185"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="172"/>
       <c r="H27" s="11" t="s">
         <v>503</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="J27" s="135">
+      <c r="J27" s="120">
         <v>3100000</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -8836,19 +8877,19 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="151"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="185"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="172"/>
       <c r="H28" s="11" t="s">
         <v>511</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="J28" s="135">
+      <c r="J28" s="120">
         <v>3110000</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -8866,19 +8907,19 @@
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="151"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="185"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="172"/>
       <c r="H29" s="11" t="s">
         <v>512</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J29" s="135">
+      <c r="J29" s="120">
         <v>3130000</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -8896,19 +8937,19 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="151"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="185"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="172"/>
       <c r="H30" s="11" t="s">
         <v>513</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="J30" s="135">
+      <c r="J30" s="120">
         <v>3140000</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -8926,19 +8967,19 @@
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="151"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="185"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="172"/>
       <c r="H31" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="J31" s="135">
+      <c r="J31" s="120">
         <v>3150000</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -8956,19 +8997,19 @@
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="151"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="185"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="172"/>
       <c r="H32" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="J32" s="135">
+      <c r="J32" s="120">
         <v>3160000</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -8986,19 +9027,19 @@
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="151"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="185"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="172"/>
       <c r="H33" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="J33" s="135">
+      <c r="J33" s="120">
         <v>3170000</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -9016,19 +9057,19 @@
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="151"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="185"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="172"/>
       <c r="H34" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J34" s="135">
+      <c r="J34" s="120">
         <v>3180000</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -9046,19 +9087,19 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="151"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="185"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="172"/>
       <c r="H35" s="11" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="J35" s="135">
+      <c r="J35" s="120">
         <v>3190000</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -9076,19 +9117,19 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="151"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="185"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="172"/>
       <c r="H36" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="J36" s="135">
+      <c r="J36" s="120">
         <v>3200000</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -9106,19 +9147,19 @@
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="151"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="185"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="172"/>
       <c r="H37" s="11" t="s">
         <v>55</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="J37" s="135">
+      <c r="J37" s="120">
         <v>3210000</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -9136,19 +9177,19 @@
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="151"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="185"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="172"/>
       <c r="H38" s="11" t="s">
         <v>514</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="J38" s="135">
+      <c r="J38" s="120">
         <v>3220000</v>
       </c>
       <c r="K38" s="9" t="s">
@@ -9166,19 +9207,19 @@
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="151"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="185"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="11" t="s">
         <v>515</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="J39" s="135">
+      <c r="J39" s="120">
         <v>3230000</v>
       </c>
       <c r="K39" s="9" t="s">
@@ -9196,19 +9237,19 @@
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="151"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="185"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="172"/>
       <c r="H40" s="11" t="s">
         <v>516</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="J40" s="135">
+      <c r="J40" s="120">
         <v>3240000</v>
       </c>
       <c r="K40" s="9" t="s">
@@ -9226,19 +9267,19 @@
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="151"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="185"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="172"/>
       <c r="H41" s="11" t="s">
         <v>517</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="J41" s="135">
+      <c r="J41" s="120">
         <v>3250000</v>
       </c>
       <c r="K41" s="9" t="s">
@@ -9256,19 +9297,19 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="151"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="185"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="172"/>
       <c r="H42" s="11" t="s">
         <v>518</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="J42" s="135">
+      <c r="J42" s="120">
         <v>3260000</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -9286,19 +9327,19 @@
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="151"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="185"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="172"/>
       <c r="H43" s="11" t="s">
         <v>519</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="J43" s="135">
+      <c r="J43" s="120">
         <v>3270000</v>
       </c>
       <c r="K43" s="9" t="s">
@@ -9316,19 +9357,19 @@
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="151"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="185"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="172"/>
       <c r="H44" s="11" t="s">
         <v>520</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="J44" s="135">
+      <c r="J44" s="120">
         <v>3280000</v>
       </c>
       <c r="K44" s="9" t="s">
@@ -9346,19 +9387,19 @@
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="151"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="185"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="172"/>
       <c r="H45" s="11" t="s">
         <v>521</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="J45" s="135">
+      <c r="J45" s="120">
         <v>3390000</v>
       </c>
       <c r="K45" s="9" t="s">
@@ -9376,19 +9417,19 @@
       <c r="O45" s="10"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="151"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="185"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="172"/>
       <c r="H46" s="11" t="s">
         <v>522</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="J46" s="135">
+      <c r="J46" s="120">
         <v>3500000</v>
       </c>
       <c r="K46" s="9" t="s">
@@ -9406,19 +9447,19 @@
       <c r="O46" s="10"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="151"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="185"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="172"/>
       <c r="H47" s="11" t="s">
         <v>523</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="J47" s="135">
+      <c r="J47" s="120">
         <v>3510000</v>
       </c>
       <c r="K47" s="9" t="s">
@@ -9436,19 +9477,19 @@
       <c r="O47" s="10"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="151"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="185"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="172"/>
       <c r="H48" s="11" t="s">
         <v>524</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="J48" s="135">
+      <c r="J48" s="120">
         <v>3520000</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -9466,19 +9507,19 @@
       <c r="O48" s="10"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="151"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="185"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="172"/>
       <c r="H49" s="11" t="s">
         <v>525</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="J49" s="135">
+      <c r="J49" s="120">
         <v>3600000</v>
       </c>
       <c r="K49" s="9" t="s">
@@ -9496,19 +9537,19 @@
       <c r="O49" s="10"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="151"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="185"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="172"/>
       <c r="H50" s="11" t="s">
         <v>526</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="J50" s="135">
+      <c r="J50" s="120">
         <v>3700000</v>
       </c>
       <c r="K50" s="9" t="s">
@@ -9526,19 +9567,19 @@
       <c r="O50" s="10"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="151"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="185"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="172"/>
       <c r="H51" s="11" t="s">
         <v>527</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="J51" s="135">
+      <c r="J51" s="120">
         <v>3710000</v>
       </c>
       <c r="K51" s="9" t="s">
@@ -9556,19 +9597,19 @@
       <c r="O51" s="10"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="151"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="186"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="173"/>
       <c r="H52" s="11" t="s">
         <v>528</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="J52" s="135">
+      <c r="J52" s="120">
         <v>3720000</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -9586,21 +9627,21 @@
       <c r="O52" s="10"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="151"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="169" t="s">
+      <c r="B53" s="153"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="132" t="s">
         <v>497</v>
       </c>
-      <c r="G53" s="180"/>
+      <c r="G53" s="167"/>
       <c r="H53" s="11" t="s">
         <v>529</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="J53" s="135">
+      <c r="J53" s="120">
         <v>4010000</v>
       </c>
       <c r="K53" s="9" t="s">
@@ -9618,19 +9659,19 @@
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="151"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="181"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="168"/>
       <c r="H54" s="11" t="s">
         <v>501</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="J54" s="135">
+      <c r="J54" s="120">
         <v>4020000</v>
       </c>
       <c r="K54" s="9" t="s">
@@ -9648,21 +9689,21 @@
       <c r="O54" s="10"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="151"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="133" t="s">
+      <c r="B55" s="153"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="118" t="s">
         <v>498</v>
       </c>
-      <c r="G55" s="134"/>
+      <c r="G55" s="119"/>
       <c r="H55" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="J55" s="135">
+      <c r="J55" s="120">
         <v>5010000</v>
       </c>
       <c r="K55" s="9" t="s">
@@ -9680,21 +9721,21 @@
       <c r="O55" s="10"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="151"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="169" t="s">
+      <c r="B56" s="153"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="132" t="s">
         <v>499</v>
       </c>
-      <c r="G56" s="180"/>
+      <c r="G56" s="167"/>
       <c r="H56" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="J56" s="135">
+      <c r="J56" s="120">
         <v>6010000</v>
       </c>
       <c r="K56" s="9" t="s">
@@ -9712,19 +9753,19 @@
       <c r="O56" s="10"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="151"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="182"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="169"/>
       <c r="H57" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="J57" s="135">
+      <c r="J57" s="120">
         <v>6020000</v>
       </c>
       <c r="K57" s="9" t="s">
@@ -9742,19 +9783,19 @@
       <c r="O57" s="10"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="151"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="182"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="169"/>
       <c r="H58" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J58" s="135">
+      <c r="J58" s="120">
         <v>6030000</v>
       </c>
       <c r="K58" s="9" t="s">
@@ -9772,19 +9813,19 @@
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="151"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="181"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="168"/>
       <c r="H59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="J59" s="135">
+      <c r="J59" s="120">
         <v>6040000</v>
       </c>
       <c r="K59" s="9" t="s">
@@ -9802,15 +9843,15 @@
       <c r="O59" s="10"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="151"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="138"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="123"/>
       <c r="G60" s="8"/>
       <c r="H60" s="11"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="136"/>
+      <c r="J60" s="121"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -9818,15 +9859,15 @@
       <c r="O60" s="10"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="152"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="160" t="s">
+      <c r="B61" s="154"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="130" t="s">
         <v>532</v>
       </c>
-      <c r="E61" s="156" t="s">
+      <c r="E61" s="131" t="s">
         <v>531</v>
       </c>
-      <c r="F61" s="139" t="s">
+      <c r="F61" s="124" t="s">
         <v>535</v>
       </c>
       <c r="G61" s="12" t="s">
@@ -9838,29 +9879,29 @@
       <c r="I61" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="J61" s="192">
+      <c r="J61" s="129">
         <v>1000001</v>
       </c>
-      <c r="K61" s="142" t="s">
+      <c r="K61" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="L61" s="142" t="s">
+      <c r="L61" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="M61" s="142" t="s">
+      <c r="M61" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="N61" s="142" t="s">
+      <c r="N61" s="127" t="s">
         <v>331</v>
       </c>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="152"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="139" t="s">
+      <c r="B62" s="154"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="124" t="s">
         <v>536</v>
       </c>
       <c r="G62" s="12" t="s">
@@ -9872,47 +9913,67 @@
       <c r="I62" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="J62" s="192">
+      <c r="J62" s="129">
         <v>2000001</v>
       </c>
-      <c r="K62" s="142" t="s">
+      <c r="K62" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="L62" s="142" t="s">
+      <c r="L62" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="142" t="s">
+      <c r="M62" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="N62" s="142" t="s">
+      <c r="N62" s="127" t="s">
         <v>331</v>
       </c>
       <c r="O62" s="15"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="152"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="160" t="s">
+      <c r="B63" s="154"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="130" t="s">
         <v>533</v>
       </c>
-      <c r="E63" s="156"/>
-      <c r="F63" s="139"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="E63" s="131" t="s">
+        <v>543</v>
+      </c>
+      <c r="F63" s="124" t="s">
+        <v>546</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J63" s="129">
+        <v>1000002</v>
+      </c>
+      <c r="K63" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="L63" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="N63" s="128" t="s">
+        <v>331</v>
+      </c>
       <c r="O63" s="15"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="152"/>
-      <c r="C64" s="177"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="139"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="124"/>
       <c r="G64" s="12"/>
       <c r="H64" s="11"/>
       <c r="I64" s="12"/>
@@ -9924,13 +9985,13 @@
       <c r="O64" s="15"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="152"/>
-      <c r="C65" s="177"/>
-      <c r="D65" s="160" t="s">
+      <c r="B65" s="154"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="130" t="s">
         <v>534</v>
       </c>
-      <c r="E65" s="156"/>
-      <c r="F65" s="139"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="124"/>
       <c r="G65" s="12"/>
       <c r="H65" s="13"/>
       <c r="I65" s="16"/>
@@ -9944,11 +10005,11 @@
       <c r="Q65" s="46"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="152"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="160"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="139"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="124"/>
       <c r="G66" s="12"/>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
@@ -9962,11 +10023,11 @@
       <c r="Q66" s="46"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="152"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="139"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="124"/>
       <c r="G67" s="12"/>
       <c r="H67" s="13"/>
       <c r="I67" s="16"/>
@@ -9980,13 +10041,13 @@
       <c r="Q67" s="46"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="152"/>
-      <c r="C68" s="177"/>
-      <c r="D68" s="169" t="s">
+      <c r="B68" s="154"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="157"/>
-      <c r="F68" s="139"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="124"/>
       <c r="G68" s="12"/>
       <c r="H68" s="31"/>
       <c r="I68" s="106"/>
@@ -10000,11 +10061,11 @@
       <c r="Q68" s="46"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="152"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="171"/>
-      <c r="F69" s="139"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="124"/>
       <c r="G69" s="12"/>
       <c r="H69" s="13"/>
       <c r="I69" s="16"/>
@@ -10018,11 +10079,11 @@
       <c r="Q69" s="46"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="152"/>
-      <c r="C70" s="177"/>
-      <c r="D70" s="170"/>
-      <c r="E70" s="171"/>
-      <c r="F70" s="139"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="124"/>
       <c r="G70" s="12"/>
       <c r="H70" s="13"/>
       <c r="I70" s="16"/>
@@ -10036,11 +10097,11 @@
       <c r="Q70" s="46"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="152"/>
-      <c r="C71" s="177"/>
-      <c r="D71" s="170"/>
-      <c r="E71" s="171"/>
-      <c r="F71" s="139"/>
+      <c r="B71" s="154"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="124"/>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
       <c r="I71" s="16"/>
@@ -10054,11 +10115,11 @@
       <c r="Q71" s="46"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="152"/>
-      <c r="C72" s="177"/>
-      <c r="D72" s="170"/>
-      <c r="E72" s="171"/>
-      <c r="F72" s="139"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="124"/>
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
       <c r="I72" s="16"/>
@@ -10072,11 +10133,11 @@
       <c r="Q72" s="46"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="152"/>
-      <c r="C73" s="177"/>
-      <c r="D73" s="170"/>
-      <c r="E73" s="171"/>
-      <c r="F73" s="139"/>
+      <c r="B73" s="154"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="124"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
       <c r="I73" s="16"/>
@@ -10090,11 +10151,11 @@
       <c r="Q73" s="46"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="152"/>
-      <c r="C74" s="177"/>
-      <c r="D74" s="170"/>
-      <c r="E74" s="171"/>
-      <c r="F74" s="139"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="164"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="124"/>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
       <c r="I74" s="16"/>
@@ -10108,11 +10169,11 @@
       <c r="Q74" s="46"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="152"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="170"/>
-      <c r="E75" s="171"/>
-      <c r="F75" s="139"/>
+      <c r="B75" s="154"/>
+      <c r="C75" s="164"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="124"/>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
       <c r="I75" s="16"/>
@@ -10126,11 +10187,11 @@
       <c r="Q75" s="46"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="152"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="170"/>
-      <c r="E76" s="171"/>
-      <c r="F76" s="139"/>
+      <c r="B76" s="154"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="124"/>
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
       <c r="I76" s="16"/>
@@ -10144,11 +10205,11 @@
       <c r="Q76" s="46"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="152"/>
-      <c r="C77" s="177"/>
-      <c r="D77" s="170"/>
-      <c r="E77" s="171"/>
-      <c r="F77" s="139"/>
+      <c r="B77" s="154"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="124"/>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
       <c r="I77" s="16"/>
@@ -10162,11 +10223,11 @@
       <c r="Q77" s="46"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="152"/>
-      <c r="C78" s="177"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="171"/>
-      <c r="F78" s="139"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="124"/>
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
       <c r="I78" s="16"/>
@@ -10180,11 +10241,11 @@
       <c r="Q78" s="46"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="152"/>
-      <c r="C79" s="177"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="171"/>
-      <c r="F79" s="139"/>
+      <c r="B79" s="154"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="124"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
       <c r="I79" s="16"/>
@@ -10198,11 +10259,11 @@
       <c r="Q79" s="46"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="152"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="171"/>
-      <c r="F80" s="139"/>
+      <c r="B80" s="154"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="124"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
       <c r="I80" s="16"/>
@@ -10216,11 +10277,11 @@
       <c r="Q80" s="46"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="152"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="171"/>
-      <c r="F81" s="139"/>
+      <c r="B81" s="154"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="142"/>
+      <c r="F81" s="124"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
       <c r="I81" s="16"/>
@@ -10234,11 +10295,11 @@
       <c r="Q81" s="46"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="152"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="170"/>
-      <c r="E82" s="171"/>
-      <c r="F82" s="139"/>
+      <c r="B82" s="154"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="124"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
       <c r="I82" s="16"/>
@@ -10252,11 +10313,11 @@
       <c r="Q82" s="46"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="152"/>
-      <c r="C83" s="177"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="139"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="124"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
       <c r="I83" s="16"/>
@@ -10270,11 +10331,11 @@
       <c r="Q83" s="46"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="152"/>
-      <c r="C84" s="177"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="139"/>
+      <c r="B84" s="154"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="124"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
       <c r="I84" s="16"/>
@@ -10288,11 +10349,11 @@
       <c r="Q84" s="46"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="152"/>
-      <c r="C85" s="177"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="139"/>
+      <c r="B85" s="154"/>
+      <c r="C85" s="164"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="124"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
       <c r="I85" s="16"/>
@@ -10306,11 +10367,11 @@
       <c r="Q85" s="46"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="152"/>
-      <c r="C86" s="177"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="139"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="124"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
       <c r="I86" s="16"/>
@@ -10324,11 +10385,11 @@
       <c r="Q86" s="46"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="153"/>
-      <c r="C87" s="178"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="155"/>
-      <c r="F87" s="140"/>
+      <c r="B87" s="155"/>
+      <c r="C87" s="165"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="125"/>
       <c r="G87" s="30"/>
       <c r="H87" s="31"/>
       <c r="I87" s="106"/>
@@ -10342,13 +10403,13 @@
       <c r="Q87" s="46"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="153"/>
-      <c r="C88" s="178"/>
-      <c r="D88" s="129" t="s">
+      <c r="B88" s="155"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="E88" s="127"/>
-      <c r="F88" s="140"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="125"/>
       <c r="G88" s="30"/>
       <c r="H88" s="31"/>
       <c r="I88" s="106"/>
@@ -10362,11 +10423,11 @@
       <c r="Q88" s="46"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="153"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="140"/>
+      <c r="B89" s="155"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="125"/>
       <c r="G89" s="30"/>
       <c r="H89" s="31"/>
       <c r="I89" s="106"/>
@@ -10380,11 +10441,11 @@
       <c r="Q89" s="46"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="153"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="140"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="125"/>
       <c r="G90" s="30"/>
       <c r="H90" s="31"/>
       <c r="I90" s="106"/>
@@ -10398,11 +10459,11 @@
       <c r="Q90" s="46"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="153"/>
-      <c r="C91" s="178"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="140"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="165"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="125"/>
       <c r="G91" s="30"/>
       <c r="H91" s="31"/>
       <c r="I91" s="106"/>
@@ -10416,11 +10477,11 @@
       <c r="Q91" s="46"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="153"/>
-      <c r="C92" s="178"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="140"/>
+      <c r="B92" s="155"/>
+      <c r="C92" s="165"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="125"/>
       <c r="G92" s="30"/>
       <c r="H92" s="31"/>
       <c r="I92" s="106"/>
@@ -10434,11 +10495,11 @@
       <c r="Q92" s="46"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B93" s="153"/>
-      <c r="C93" s="178"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="140"/>
+      <c r="B93" s="155"/>
+      <c r="C93" s="165"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="125"/>
       <c r="G93" s="30"/>
       <c r="H93" s="31"/>
       <c r="I93" s="106"/>
@@ -10452,11 +10513,11 @@
       <c r="Q93" s="46"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="153"/>
-      <c r="C94" s="178"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="140" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="125" t="s">
         <v>186</v>
       </c>
       <c r="G94" s="30"/>
@@ -10472,11 +10533,11 @@
       <c r="Q94" s="46"/>
     </row>
     <row r="95" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="154"/>
-      <c r="C95" s="179"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="141"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="166"/>
+      <c r="D95" s="115"/>
+      <c r="E95" s="113"/>
+      <c r="F95" s="126"/>
       <c r="G95" s="37"/>
       <c r="H95" s="36"/>
       <c r="I95" s="37"/>
@@ -10489,12 +10550,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G18"/>
+    <mergeCell ref="F7:F18"/>
+    <mergeCell ref="G19:G52"/>
+    <mergeCell ref="F19:F52"/>
     <mergeCell ref="D68:D87"/>
     <mergeCell ref="E68:E87"/>
     <mergeCell ref="B4:B95"/>
@@ -10507,16 +10572,12 @@
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="D65:D67"/>
     <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G18"/>
-    <mergeCell ref="F7:F18"/>
-    <mergeCell ref="G19:G52"/>
-    <mergeCell ref="F19:F52"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10559,28 +10620,28 @@
   <sheetData>
     <row r="1" spans="2:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="G2" s="188" t="s">
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="G2" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="L2" s="188" t="s">
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="L2" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="P2" s="188" t="s">
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="P2" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
       <c r="U2" s="49" t="s">
         <v>237</v>
       </c>
@@ -11401,7 +11462,7 @@
       <c r="H18" s="72">
         <v>3</v>
       </c>
-      <c r="I18" s="189">
+      <c r="I18" s="175">
         <v>119</v>
       </c>
       <c r="J18" s="72">
@@ -11455,7 +11516,7 @@
       <c r="H19" s="72">
         <v>3</v>
       </c>
-      <c r="I19" s="189"/>
+      <c r="I19" s="175"/>
       <c r="J19" s="72">
         <v>8</v>
       </c>
@@ -11494,7 +11555,7 @@
       <c r="H20" s="72">
         <v>3</v>
       </c>
-      <c r="I20" s="189"/>
+      <c r="I20" s="175"/>
       <c r="J20" s="72">
         <v>8</v>
       </c>
@@ -11539,7 +11600,7 @@
       <c r="H21" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="I21" s="190">
+      <c r="I21" s="178">
         <v>48</v>
       </c>
       <c r="J21" s="74">
@@ -11586,7 +11647,7 @@
       <c r="H22" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="I22" s="190"/>
+      <c r="I22" s="178"/>
       <c r="J22" s="74">
         <v>5</v>
       </c>
@@ -11631,7 +11692,7 @@
       <c r="H23" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="190"/>
+      <c r="I23" s="178"/>
       <c r="J23" s="74">
         <v>4</v>
       </c>
@@ -11676,7 +11737,7 @@
       <c r="H24" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="189">
+      <c r="I24" s="175">
         <v>286</v>
       </c>
       <c r="J24" s="72">
@@ -11723,7 +11784,7 @@
       <c r="H25" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I25" s="189"/>
+      <c r="I25" s="175"/>
       <c r="J25" s="72">
         <v>1</v>
       </c>
@@ -11768,7 +11829,7 @@
       <c r="H26" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I26" s="189"/>
+      <c r="I26" s="175"/>
       <c r="J26" s="72">
         <v>6</v>
       </c>
@@ -11814,7 +11875,7 @@
       <c r="H27" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I27" s="189"/>
+      <c r="I27" s="175"/>
       <c r="J27" s="72">
         <v>6</v>
       </c>
@@ -11859,7 +11920,7 @@
       <c r="H28" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="I28" s="189">
+      <c r="I28" s="175">
         <v>46</v>
       </c>
       <c r="J28" s="72">
@@ -11900,7 +11961,7 @@
       <c r="H29" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="189"/>
+      <c r="I29" s="175"/>
       <c r="J29" s="72">
         <v>7</v>
       </c>
@@ -11992,7 +12053,7 @@
       <c r="H31" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="I31" s="189">
+      <c r="I31" s="175">
         <v>47</v>
       </c>
       <c r="J31" s="72">
@@ -12042,7 +12103,7 @@
       <c r="H32" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="189"/>
+      <c r="I32" s="175"/>
       <c r="J32" s="72">
         <v>30</v>
       </c>
@@ -12190,7 +12251,7 @@
       <c r="H35" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="191">
+      <c r="I35" s="176">
         <v>1904</v>
       </c>
       <c r="J35" s="79">
@@ -12240,7 +12301,7 @@
       <c r="H36" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I36" s="191"/>
+      <c r="I36" s="176"/>
       <c r="J36" s="79">
         <v>3</v>
       </c>
@@ -12288,7 +12349,7 @@
       <c r="H37" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="191"/>
+      <c r="I37" s="176"/>
       <c r="J37" s="79">
         <v>3</v>
       </c>
@@ -17164,16 +17225,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I27"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I35:I37"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17185,600 +17246,614 @@
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="1" style="179" customWidth="1"/>
+    <col min="2" max="4" width="9" style="179"/>
+    <col min="5" max="5" width="32.25" style="179" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="179" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="179"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="181" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="181" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="181" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="182" t="s">
         <v>377</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="183" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="184" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="185" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="186" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3" s="187">
         <v>42653</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="188" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="189" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="190" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="190" t="s">
         <v>384</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="190" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="191">
         <v>42807</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="192" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="189" t="s">
         <v>395</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="190" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="193" t="s">
         <v>396</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="193" t="s">
         <v>397</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="191">
         <v>42891</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="192" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="189" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="190" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="193" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="190" t="s">
         <v>423</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="191">
         <v>42907</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="192" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="189" t="s">
         <v>450</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="190" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="190" t="s">
         <v>451</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="190" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="191">
         <v>42923</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="192" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="189" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="190" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="190" t="s">
         <v>425</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="190" t="s">
         <v>454</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="191">
         <v>42926</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="192" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="189" t="s">
         <v>542</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="190" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="190" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="F9" s="121">
+      <c r="E9" s="190" t="s">
+        <v>549</v>
+      </c>
+      <c r="F9" s="191">
         <v>42979</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="192" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="120"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
+      <c r="B10" s="189" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="190" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="190" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="190" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10" s="191">
+        <v>43024</v>
+      </c>
+      <c r="G10" s="192" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="120"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="122"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="192"/>
     </row>
     <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="120"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
     </row>
     <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="120"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="192"/>
     </row>
     <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="120"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="192"/>
     </row>
     <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="120"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192"/>
     </row>
     <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="120"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="192"/>
     </row>
     <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="120"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="192"/>
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="120"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="122"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="192"/>
     </row>
     <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="120"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="192"/>
     </row>
     <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="120"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="192"/>
     </row>
     <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="120"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="122"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="192"/>
     </row>
     <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="120"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="122"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="192"/>
     </row>
     <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="120"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="122"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="192"/>
     </row>
     <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="120"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="122"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="192"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="120"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="192"/>
     </row>
     <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="120"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="192"/>
     </row>
     <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="120"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="192"/>
     </row>
     <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="120"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="192"/>
     </row>
     <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="120"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="192"/>
     </row>
     <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="120"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="192"/>
     </row>
     <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="120"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="122"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="192"/>
     </row>
     <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="120"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="192"/>
     </row>
     <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="120"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="192"/>
     </row>
     <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="120"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="122"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="192"/>
     </row>
     <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="120"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="122"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="192"/>
     </row>
     <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="120"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="122"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="192"/>
     </row>
     <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="120"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="122"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="192"/>
     </row>
     <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="120"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="122"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="192"/>
     </row>
     <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="120"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="122"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="192"/>
     </row>
     <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="120"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="122"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="192"/>
     </row>
     <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="120"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="122"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="192"/>
     </row>
     <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="120"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="122"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
     </row>
     <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="120"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="122"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="192"/>
     </row>
     <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="120"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="122"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="192"/>
     </row>
     <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="120"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="122"/>
+      <c r="B45" s="189"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="192"/>
     </row>
     <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="120"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="122"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="192"/>
     </row>
     <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="120"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="122"/>
+      <c r="B47" s="189"/>
+      <c r="C47" s="190"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="192"/>
     </row>
     <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="120"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="122"/>
+      <c r="B48" s="189"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="192"/>
     </row>
     <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="120"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="122"/>
+      <c r="B49" s="189"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="192"/>
     </row>
     <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="120"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="122"/>
+      <c r="B50" s="189"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
     </row>
     <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="120"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="122"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="192"/>
     </row>
     <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="120"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="122"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="192"/>
     </row>
     <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="120"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="122"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="192"/>
     </row>
     <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="120"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="122"/>
+      <c r="B54" s="189"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="192"/>
     </row>
     <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="120"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="122"/>
+      <c r="B55" s="189"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="190"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="192"/>
     </row>
     <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="120"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="122"/>
+      <c r="B56" s="189"/>
+      <c r="C56" s="190"/>
+      <c r="D56" s="190"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="192"/>
     </row>
     <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="120"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="122"/>
+      <c r="B57" s="189"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="190"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="192"/>
     </row>
     <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="120"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="122"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="190"/>
+      <c r="D58" s="190"/>
+      <c r="E58" s="190"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="192"/>
     </row>
     <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="120"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="122"/>
+      <c r="B59" s="189"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="192"/>
     </row>
     <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="120"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="122"/>
+      <c r="B60" s="189"/>
+      <c r="C60" s="190"/>
+      <c r="D60" s="190"/>
+      <c r="E60" s="190"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="192"/>
     </row>
     <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="120"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="122"/>
+      <c r="B61" s="189"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="190"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="192"/>
     </row>
     <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="124"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="126"/>
+      <c r="B62" s="194"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="196"/>
+      <c r="G62" s="197"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Featrue list and styles.xlsx
+++ b/Document/Featrue list and styles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="polygon" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="560">
   <si>
     <t>形状分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,6 +2071,42 @@
   </si>
   <si>
     <t>增加监控相机分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.8</t>
+  </si>
+  <si>
+    <t>添加feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon
+point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2791,7 +2827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3007,7 +3043,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3044,51 +3079,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3125,6 +3148,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3142,6 +3189,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3179,51 +3247,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3507,10 +3546,10 @@
   <dimension ref="C1:P113"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
+      <selection pane="bottomRight" activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3546,42 +3585,42 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150" t="s">
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
     </row>
     <row r="3" spans="3:16" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146" t="s">
+      <c r="C3" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146" t="s">
+      <c r="H3" s="148"/>
+      <c r="I3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="146"/>
+      <c r="J3" s="149"/>
       <c r="K3" s="109" t="s">
         <v>4</v>
       </c>
@@ -3600,18 +3639,18 @@
       <c r="P3" s="111"/>
     </row>
     <row r="4" spans="3:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="157">
+      <c r="C4" s="168">
         <v>99</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159">
+      <c r="D4" s="169"/>
+      <c r="E4" s="170">
         <v>99</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="160" t="s">
+      <c r="F4" s="169"/>
+      <c r="G4" s="171" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="161"/>
+      <c r="H4" s="172"/>
       <c r="I4" s="85" t="s">
         <v>326</v>
       </c>
@@ -3636,22 +3675,22 @@
       <c r="P4" s="88"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="153">
+      <c r="C5" s="156">
         <v>10</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="141" t="s">
+      <c r="H5" s="166" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3668,12 +3707,12 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C6" s="154"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="144"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="167"/>
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3688,12 +3727,12 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="154"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="144"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="167"/>
       <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
@@ -3708,12 +3747,12 @@
       <c r="P7" s="15"/>
     </row>
     <row r="8" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="154"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="144"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -3728,12 +3767,12 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="154"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="144"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3748,12 +3787,12 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="154"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="144"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="167"/>
       <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
@@ -3768,12 +3807,12 @@
       <c r="P10" s="15"/>
     </row>
     <row r="11" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="154"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="144"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="167"/>
       <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
@@ -3788,12 +3827,12 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="154"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="144"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="167"/>
       <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
@@ -3808,12 +3847,12 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="154"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="144"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="167"/>
       <c r="I13" s="11" t="s">
         <v>30</v>
       </c>
@@ -3828,12 +3867,12 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="154"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="144"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="11" t="s">
         <v>33</v>
       </c>
@@ -3848,12 +3887,12 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="154"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="144"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="11" t="s">
         <v>35</v>
       </c>
@@ -3868,12 +3907,12 @@
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="154"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="144"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="167"/>
       <c r="I16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3888,12 +3927,12 @@
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="154"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="144"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="11" t="s">
         <v>39</v>
       </c>
@@ -3908,12 +3947,12 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="154"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="144"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="11" t="s">
         <v>41</v>
       </c>
@@ -3928,12 +3967,12 @@
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="154"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="144"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="167"/>
       <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
@@ -3948,12 +3987,12 @@
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="154"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="144"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="167"/>
       <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
@@ -3968,12 +4007,12 @@
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="154"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="144"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="167"/>
       <c r="I21" s="11" t="s">
         <v>47</v>
       </c>
@@ -3988,12 +4027,12 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="154"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="144"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="167"/>
       <c r="I22" s="11" t="s">
         <v>49</v>
       </c>
@@ -4008,12 +4047,12 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="154"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="144"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="167"/>
       <c r="I23" s="11" t="s">
         <v>51</v>
       </c>
@@ -4028,12 +4067,12 @@
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="154"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="144"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="167"/>
       <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
@@ -4048,12 +4087,12 @@
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="154"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="144"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="167"/>
       <c r="I25" s="11" t="s">
         <v>55</v>
       </c>
@@ -4068,12 +4107,12 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="154"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="144"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="167"/>
       <c r="I26" s="11" t="s">
         <v>57</v>
       </c>
@@ -4088,12 +4127,12 @@
       <c r="P26" s="15"/>
     </row>
     <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="154"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="144"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="167"/>
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
@@ -4108,12 +4147,12 @@
       <c r="P27" s="15"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="154"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="144"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="167"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
       <c r="K28" s="91"/>
@@ -4124,14 +4163,14 @@
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="154"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="130" t="s">
+      <c r="C29" s="157"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="131" t="s">
+      <c r="H29" s="161" t="s">
         <v>61</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -4148,12 +4187,12 @@
       <c r="P29" s="15"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="154"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="131"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="161"/>
       <c r="I30" s="11" t="s">
         <v>15</v>
       </c>
@@ -4168,12 +4207,12 @@
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="154"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="131"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="161"/>
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
@@ -4188,12 +4227,12 @@
       <c r="P31" s="15"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="154"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="131"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="161"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
       <c r="K32" s="91"/>
@@ -4204,12 +4243,12 @@
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="154"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
       <c r="K33" s="91"/>
@@ -4220,14 +4259,14 @@
       <c r="P33" s="15"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="154"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="130" t="s">
+      <c r="C34" s="157"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="144" t="s">
+      <c r="H34" s="167" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -4244,12 +4283,12 @@
       <c r="P34" s="15"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C35" s="154"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="144"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="167"/>
       <c r="I35" s="11"/>
       <c r="J35" s="16"/>
       <c r="K35" s="91"/>
@@ -4260,14 +4299,14 @@
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="154"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="130" t="s">
+      <c r="C36" s="157"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="144" t="s">
+      <c r="H36" s="167" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -4284,12 +4323,12 @@
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="154"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="144"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="167"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
       <c r="K37" s="91"/>
@@ -4300,18 +4339,18 @@
       <c r="P37" s="15"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="154"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="130" t="s">
+      <c r="C38" s="157"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="131" t="s">
+      <c r="F38" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="130" t="s">
+      <c r="G38" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="131" t="s">
+      <c r="H38" s="161" t="s">
         <v>70</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -4328,12 +4367,12 @@
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="154"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="131"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="161"/>
       <c r="I39" s="11" t="s">
         <v>15</v>
       </c>
@@ -4348,12 +4387,12 @@
       <c r="P39" s="15"/>
     </row>
     <row r="40" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="154"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="131"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="161"/>
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
@@ -4368,12 +4407,12 @@
       <c r="P40" s="15"/>
     </row>
     <row r="41" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="154"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="131"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="161"/>
       <c r="I41" s="11" t="s">
         <v>20</v>
       </c>
@@ -4388,12 +4427,12 @@
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="154"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="131"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="161"/>
       <c r="I42" s="11" t="s">
         <v>22</v>
       </c>
@@ -4408,12 +4447,12 @@
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="154"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="131"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="161"/>
       <c r="I43" s="11" t="s">
         <v>24</v>
       </c>
@@ -4428,12 +4467,12 @@
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="154"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="131"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="161"/>
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
       <c r="K44" s="91"/>
@@ -4444,14 +4483,14 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="154"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="130" t="s">
+      <c r="C45" s="157"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="131" t="s">
+      <c r="H45" s="161" t="s">
         <v>61</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -4466,12 +4505,12 @@
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="154"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="131"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="161"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
       <c r="K46" s="91"/>
@@ -4482,14 +4521,14 @@
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="154"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="130" t="s">
+      <c r="C47" s="157"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="131" t="s">
+      <c r="H47" s="161" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -4506,12 +4545,12 @@
       <c r="P47" s="15"/>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="154"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="131"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="161"/>
       <c r="I48" s="11" t="s">
         <v>15</v>
       </c>
@@ -4526,12 +4565,12 @@
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C49" s="154"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="131"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="161"/>
       <c r="I49" s="11" t="s">
         <v>18</v>
       </c>
@@ -4546,12 +4585,12 @@
       <c r="P49" s="15"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C50" s="154"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="131"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="161"/>
       <c r="I50" s="11" t="s">
         <v>20</v>
       </c>
@@ -4566,12 +4605,12 @@
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C51" s="154"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="131"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="161"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
       <c r="K51" s="91"/>
@@ -4582,14 +4621,14 @@
       <c r="P51" s="15"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="154"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="130" t="s">
+      <c r="C52" s="157"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="131" t="s">
+      <c r="H52" s="161" t="s">
         <v>408</v>
       </c>
       <c r="I52" s="19" t="s">
@@ -4616,12 +4655,12 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="154"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="131"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="161"/>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
       <c r="K53" s="91"/>
@@ -4632,14 +4671,14 @@
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="154"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="132" t="s">
+      <c r="C54" s="157"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="134" t="s">
+      <c r="H54" s="162" t="s">
         <v>87</v>
       </c>
       <c r="I54" s="11"/>
@@ -4652,12 +4691,12 @@
       <c r="P54" s="15"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="154"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="142"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="176"/>
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
       <c r="K55" s="91"/>
@@ -4668,12 +4707,12 @@
       <c r="P55" s="15"/>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C56" s="154"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="142"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="176"/>
       <c r="I56" s="19" t="s">
         <v>88</v>
       </c>
@@ -4698,12 +4737,12 @@
       <c r="P56" s="22"/>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C57" s="154"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="143"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="160"/>
       <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="91"/>
@@ -4714,14 +4753,14 @@
       <c r="P57" s="15"/>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C58" s="154"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="130" t="s">
+      <c r="C58" s="157"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="H58" s="161" t="s">
         <v>91</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -4738,12 +4777,12 @@
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="154"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="131"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="161"/>
       <c r="I59" s="11" t="s">
         <v>15</v>
       </c>
@@ -4758,12 +4797,12 @@
       <c r="P59" s="15"/>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C60" s="154"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="131"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="161"/>
       <c r="I60" s="11" t="s">
         <v>18</v>
       </c>
@@ -4778,12 +4817,12 @@
       <c r="P60" s="15"/>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C61" s="154"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="131"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="161"/>
       <c r="I61" s="11" t="s">
         <v>20</v>
       </c>
@@ -4798,12 +4837,12 @@
       <c r="P61" s="15"/>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C62" s="154"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="131"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="161"/>
       <c r="I62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4818,12 +4857,12 @@
       <c r="P62" s="15"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C63" s="154"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="131"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="161"/>
       <c r="I63" s="11" t="s">
         <v>24</v>
       </c>
@@ -4838,12 +4877,12 @@
       <c r="P63" s="15"/>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C64" s="154"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="131"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="161"/>
       <c r="I64" s="11" t="s">
         <v>26</v>
       </c>
@@ -4858,12 +4897,12 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C65" s="154"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="131"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="161"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="161"/>
       <c r="I65" s="11" t="s">
         <v>28</v>
       </c>
@@ -4878,12 +4917,12 @@
       <c r="P65" s="15"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66" s="154"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="131"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="165"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="161"/>
       <c r="I66" s="11" t="s">
         <v>100</v>
       </c>
@@ -4898,12 +4937,12 @@
       <c r="P66" s="15"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C67" s="154"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="131"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="161"/>
       <c r="I67" s="11" t="s">
         <v>33</v>
       </c>
@@ -4918,18 +4957,18 @@
       <c r="P67" s="15"/>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C68" s="154"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="130" t="s">
+      <c r="C68" s="157"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="131" t="s">
+      <c r="F68" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="130" t="s">
+      <c r="G68" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="131" t="s">
+      <c r="H68" s="161" t="s">
         <v>530</v>
       </c>
       <c r="I68" s="11" t="s">
@@ -4946,12 +4985,12 @@
       <c r="P68" s="15"/>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C69" s="154"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="131"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="161"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="161"/>
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="91"/>
@@ -4962,12 +5001,12 @@
       <c r="P69" s="15"/>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C70" s="154"/>
-      <c r="D70" s="131"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="131"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="131"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="161"/>
       <c r="I70" s="11"/>
       <c r="J70" s="12"/>
       <c r="K70" s="91"/>
@@ -4978,12 +5017,12 @@
       <c r="P70" s="15"/>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C71" s="154"/>
-      <c r="D71" s="131"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="131"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="131"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="161"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="161"/>
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
       <c r="K71" s="91"/>
@@ -4994,14 +5033,14 @@
       <c r="P71" s="15"/>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C72" s="154"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="131"/>
-      <c r="G72" s="130" t="s">
+      <c r="C72" s="157"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="131" t="s">
+      <c r="H72" s="161" t="s">
         <v>61</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -5016,12 +5055,12 @@
       <c r="P72" s="15"/>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C73" s="154"/>
-      <c r="D73" s="131"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="131"/>
-      <c r="G73" s="130"/>
-      <c r="H73" s="131"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="161"/>
       <c r="I73" s="11"/>
       <c r="J73" s="12"/>
       <c r="K73" s="91"/>
@@ -5032,14 +5071,14 @@
       <c r="P73" s="15"/>
     </row>
     <row r="74" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="154"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="130"/>
-      <c r="F74" s="131"/>
-      <c r="G74" s="130" t="s">
+      <c r="C74" s="157"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="H74" s="136" t="s">
+      <c r="H74" s="178" t="s">
         <v>65</v>
       </c>
       <c r="I74" s="23" t="s">
@@ -5060,12 +5099,12 @@
       <c r="P74" s="26"/>
     </row>
     <row r="75" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="154"/>
-      <c r="D75" s="131"/>
-      <c r="E75" s="130"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="130"/>
-      <c r="H75" s="136"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="178"/>
       <c r="I75" s="23" t="s">
         <v>15</v>
       </c>
@@ -5084,12 +5123,12 @@
       <c r="P75" s="26"/>
     </row>
     <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="154"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="131"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="136"/>
+      <c r="C76" s="157"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="165"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="165"/>
+      <c r="H76" s="178"/>
       <c r="I76" s="23" t="s">
         <v>18</v>
       </c>
@@ -5108,12 +5147,12 @@
       <c r="P76" s="26"/>
     </row>
     <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="154"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="130"/>
-      <c r="F77" s="131"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="136"/>
+      <c r="C77" s="157"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="165"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="165"/>
+      <c r="H77" s="178"/>
       <c r="I77" s="23" t="s">
         <v>20</v>
       </c>
@@ -5132,12 +5171,12 @@
       <c r="P77" s="26"/>
     </row>
     <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="154"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="130"/>
-      <c r="F78" s="131"/>
-      <c r="G78" s="130"/>
-      <c r="H78" s="136"/>
+      <c r="C78" s="157"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="165"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="165"/>
+      <c r="H78" s="178"/>
       <c r="I78" s="23" t="s">
         <v>22</v>
       </c>
@@ -5156,12 +5195,12 @@
       <c r="P78" s="26"/>
     </row>
     <row r="79" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="154"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="130"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="130"/>
-      <c r="H79" s="136"/>
+      <c r="C79" s="157"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="161"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="178"/>
       <c r="I79" s="23"/>
       <c r="J79" s="24"/>
       <c r="K79" s="93"/>
@@ -5172,14 +5211,14 @@
       <c r="P79" s="26"/>
     </row>
     <row r="80" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="154"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="131"/>
-      <c r="G80" s="130" t="s">
+      <c r="C80" s="157"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="161"/>
+      <c r="G80" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="H80" s="136" t="s">
+      <c r="H80" s="178" t="s">
         <v>85</v>
       </c>
       <c r="I80" s="23" t="s">
@@ -5200,12 +5239,12 @@
       <c r="P80" s="26"/>
     </row>
     <row r="81" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="154"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="136"/>
+      <c r="C81" s="157"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="165"/>
+      <c r="F81" s="161"/>
+      <c r="G81" s="165"/>
+      <c r="H81" s="178"/>
       <c r="I81" s="23" t="s">
         <v>15</v>
       </c>
@@ -5224,12 +5263,12 @@
       <c r="P81" s="26"/>
     </row>
     <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="154"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="130"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="130"/>
-      <c r="H82" s="136"/>
+      <c r="C82" s="157"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="165"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="178"/>
       <c r="I82" s="23" t="s">
         <v>18</v>
       </c>
@@ -5248,12 +5287,12 @@
       <c r="P82" s="26"/>
     </row>
     <row r="83" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="154"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="130"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="130"/>
-      <c r="H83" s="136"/>
+      <c r="C83" s="157"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="178"/>
       <c r="I83" s="23" t="s">
         <v>20</v>
       </c>
@@ -5272,12 +5311,12 @@
       <c r="P83" s="26"/>
     </row>
     <row r="84" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="154"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="130"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="130"/>
-      <c r="H84" s="136"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="165"/>
+      <c r="H84" s="178"/>
       <c r="I84" s="23" t="s">
         <v>22</v>
       </c>
@@ -5296,12 +5335,12 @@
       <c r="P84" s="26"/>
     </row>
     <row r="85" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="154"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="130"/>
-      <c r="F85" s="131"/>
-      <c r="G85" s="130"/>
-      <c r="H85" s="136"/>
+      <c r="C85" s="157"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="165"/>
+      <c r="H85" s="178"/>
       <c r="I85" s="23" t="s">
         <v>24</v>
       </c>
@@ -5320,12 +5359,12 @@
       <c r="P85" s="26"/>
     </row>
     <row r="86" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="154"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="130"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="130"/>
-      <c r="H86" s="136"/>
+      <c r="C86" s="157"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="178"/>
       <c r="I86" s="23" t="s">
         <v>26</v>
       </c>
@@ -5344,12 +5383,12 @@
       <c r="P86" s="26"/>
     </row>
     <row r="87" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="154"/>
-      <c r="D87" s="131"/>
-      <c r="E87" s="130"/>
-      <c r="F87" s="131"/>
-      <c r="G87" s="130"/>
-      <c r="H87" s="136"/>
+      <c r="C87" s="157"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="165"/>
+      <c r="F87" s="161"/>
+      <c r="G87" s="165"/>
+      <c r="H87" s="178"/>
       <c r="I87" s="23" t="s">
         <v>28</v>
       </c>
@@ -5362,12 +5401,12 @@
       <c r="P87" s="26"/>
     </row>
     <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="154"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="131"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="136"/>
+      <c r="C88" s="157"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="165"/>
+      <c r="F88" s="161"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="178"/>
       <c r="I88" s="23"/>
       <c r="J88" s="24"/>
       <c r="K88" s="93"/>
@@ -5378,12 +5417,12 @@
       <c r="P88" s="26"/>
     </row>
     <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="154"/>
-      <c r="D89" s="131"/>
-      <c r="E89" s="130"/>
-      <c r="F89" s="131"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="136"/>
+      <c r="C89" s="157"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="165"/>
+      <c r="F89" s="161"/>
+      <c r="G89" s="165"/>
+      <c r="H89" s="178"/>
       <c r="I89" s="23"/>
       <c r="J89" s="24"/>
       <c r="K89" s="93"/>
@@ -5394,14 +5433,14 @@
       <c r="P89" s="26"/>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C90" s="154"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="130"/>
-      <c r="F90" s="131"/>
-      <c r="G90" s="130" t="s">
+      <c r="C90" s="157"/>
+      <c r="D90" s="161"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="161"/>
+      <c r="G90" s="165" t="s">
         <v>415</v>
       </c>
-      <c r="H90" s="131" t="s">
+      <c r="H90" s="161" t="s">
         <v>402</v>
       </c>
       <c r="I90" s="11" t="s">
@@ -5416,12 +5455,12 @@
       <c r="P90" s="15"/>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C91" s="154"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="130"/>
-      <c r="F91" s="131"/>
-      <c r="G91" s="130"/>
-      <c r="H91" s="131"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="165"/>
+      <c r="F91" s="161"/>
+      <c r="G91" s="165"/>
+      <c r="H91" s="161"/>
       <c r="I91" s="11"/>
       <c r="J91" s="12"/>
       <c r="K91" s="91"/>
@@ -5432,14 +5471,14 @@
       <c r="P91" s="15"/>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C92" s="154"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="130"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="132" t="s">
+      <c r="C92" s="157"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="165"/>
+      <c r="F92" s="161"/>
+      <c r="G92" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="139" t="s">
+      <c r="H92" s="179" t="s">
         <v>130</v>
       </c>
       <c r="I92" s="19" t="s">
@@ -5466,12 +5505,12 @@
       <c r="P92" s="22"/>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C93" s="154"/>
-      <c r="D93" s="131"/>
-      <c r="E93" s="130"/>
-      <c r="F93" s="131"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="140"/>
+      <c r="C93" s="157"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="165"/>
+      <c r="F93" s="161"/>
+      <c r="G93" s="175"/>
+      <c r="H93" s="180"/>
       <c r="I93" s="19" t="s">
         <v>105</v>
       </c>
@@ -5496,12 +5535,12 @@
       <c r="P93" s="22"/>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C94" s="154"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="131"/>
-      <c r="G94" s="137"/>
-      <c r="H94" s="140"/>
+      <c r="C94" s="157"/>
+      <c r="D94" s="161"/>
+      <c r="E94" s="165"/>
+      <c r="F94" s="161"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="180"/>
       <c r="I94" s="13" t="s">
         <v>78</v>
       </c>
@@ -5514,12 +5553,12 @@
       <c r="P94" s="28"/>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C95" s="154"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="130"/>
-      <c r="F95" s="131"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="140"/>
+      <c r="C95" s="157"/>
+      <c r="D95" s="161"/>
+      <c r="E95" s="165"/>
+      <c r="F95" s="161"/>
+      <c r="G95" s="175"/>
+      <c r="H95" s="180"/>
       <c r="I95" s="19" t="s">
         <v>134</v>
       </c>
@@ -5544,12 +5583,12 @@
       <c r="P95" s="22"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C96" s="154"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="130"/>
-      <c r="F96" s="131"/>
-      <c r="G96" s="137"/>
-      <c r="H96" s="140"/>
+      <c r="C96" s="157"/>
+      <c r="D96" s="161"/>
+      <c r="E96" s="165"/>
+      <c r="F96" s="161"/>
+      <c r="G96" s="175"/>
+      <c r="H96" s="180"/>
       <c r="I96" s="19" t="s">
         <v>86</v>
       </c>
@@ -5574,12 +5613,12 @@
       <c r="P96" s="22"/>
     </row>
     <row r="97" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C97" s="154"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="131"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="141"/>
+      <c r="C97" s="157"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="161"/>
+      <c r="G97" s="164"/>
+      <c r="H97" s="166"/>
       <c r="I97" s="13"/>
       <c r="J97" s="16"/>
       <c r="K97" s="91"/>
@@ -5590,14 +5629,14 @@
       <c r="P97" s="28"/>
     </row>
     <row r="98" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C98" s="154"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="130"/>
-      <c r="F98" s="131"/>
-      <c r="G98" s="130" t="s">
+      <c r="C98" s="157"/>
+      <c r="D98" s="161"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="161"/>
+      <c r="G98" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="H98" s="131" t="s">
+      <c r="H98" s="161" t="s">
         <v>91</v>
       </c>
       <c r="I98" s="11" t="s">
@@ -5614,12 +5653,12 @@
       <c r="P98" s="15"/>
     </row>
     <row r="99" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C99" s="154"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="130"/>
-      <c r="F99" s="131"/>
-      <c r="G99" s="130"/>
-      <c r="H99" s="131"/>
+      <c r="C99" s="157"/>
+      <c r="D99" s="161"/>
+      <c r="E99" s="165"/>
+      <c r="F99" s="161"/>
+      <c r="G99" s="165"/>
+      <c r="H99" s="161"/>
       <c r="I99" s="19" t="s">
         <v>15</v>
       </c>
@@ -5644,12 +5683,12 @@
       <c r="P99" s="22"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C100" s="154"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="130"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="130"/>
-      <c r="H100" s="131"/>
+      <c r="C100" s="157"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="161"/>
+      <c r="G100" s="165"/>
+      <c r="H100" s="161"/>
       <c r="I100" s="19" t="s">
         <v>18</v>
       </c>
@@ -5674,12 +5713,12 @@
       <c r="P100" s="22"/>
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C101" s="154"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="130"/>
-      <c r="F101" s="131"/>
-      <c r="G101" s="130"/>
-      <c r="H101" s="131"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="161"/>
+      <c r="G101" s="165"/>
+      <c r="H101" s="161"/>
       <c r="I101" s="19" t="s">
         <v>20</v>
       </c>
@@ -5702,12 +5741,12 @@
       <c r="P101" s="22"/>
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C102" s="154"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="130"/>
-      <c r="F102" s="131"/>
-      <c r="G102" s="130"/>
-      <c r="H102" s="131"/>
+      <c r="C102" s="157"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="161"/>
+      <c r="G102" s="165"/>
+      <c r="H102" s="161"/>
       <c r="I102" s="19" t="s">
         <v>22</v>
       </c>
@@ -5730,12 +5769,12 @@
       <c r="P102" s="22"/>
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C103" s="154"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="130"/>
-      <c r="F103" s="131"/>
-      <c r="G103" s="130"/>
-      <c r="H103" s="131"/>
+      <c r="C103" s="157"/>
+      <c r="D103" s="161"/>
+      <c r="E103" s="165"/>
+      <c r="F103" s="161"/>
+      <c r="G103" s="165"/>
+      <c r="H103" s="161"/>
       <c r="I103" s="19" t="s">
         <v>24</v>
       </c>
@@ -5760,12 +5799,12 @@
       <c r="P103" s="22"/>
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C104" s="154"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="130"/>
-      <c r="F104" s="131"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="131"/>
+      <c r="C104" s="157"/>
+      <c r="D104" s="161"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="161"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="161"/>
       <c r="I104" s="19" t="s">
         <v>26</v>
       </c>
@@ -5790,12 +5829,12 @@
       <c r="P104" s="22"/>
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C105" s="154"/>
-      <c r="D105" s="131"/>
-      <c r="E105" s="130"/>
-      <c r="F105" s="131"/>
-      <c r="G105" s="130"/>
-      <c r="H105" s="131"/>
+      <c r="C105" s="157"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="165"/>
+      <c r="F105" s="161"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="161"/>
       <c r="I105" s="19" t="s">
         <v>28</v>
       </c>
@@ -5820,32 +5859,42 @@
       <c r="P105" s="22"/>
     </row>
     <row r="106" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C106" s="154"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="130"/>
-      <c r="F106" s="131"/>
-      <c r="G106" s="130"/>
-      <c r="H106" s="131"/>
-      <c r="I106" s="11" t="s">
+      <c r="C106" s="157"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="165"/>
+      <c r="F106" s="161"/>
+      <c r="G106" s="165"/>
+      <c r="H106" s="161"/>
+      <c r="I106" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J106" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="K106" s="91"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
+      <c r="J106" s="116" t="s">
+        <v>551</v>
+      </c>
+      <c r="K106" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="L106" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M106" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="N106" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="O106" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="P106" s="22"/>
     </row>
     <row r="107" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C107" s="154"/>
-      <c r="D107" s="131"/>
-      <c r="E107" s="130"/>
-      <c r="F107" s="131"/>
-      <c r="G107" s="130"/>
-      <c r="H107" s="131"/>
+      <c r="C107" s="157"/>
+      <c r="D107" s="161"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="161"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="161"/>
       <c r="I107" s="11" t="s">
         <v>139</v>
       </c>
@@ -5860,12 +5909,12 @@
       <c r="P107" s="15"/>
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C108" s="154"/>
-      <c r="D108" s="131"/>
-      <c r="E108" s="130" t="s">
+      <c r="C108" s="157"/>
+      <c r="D108" s="161"/>
+      <c r="E108" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="F108" s="131" t="s">
+      <c r="F108" s="161" t="s">
         <v>141</v>
       </c>
       <c r="G108" s="11" t="s">
@@ -5888,10 +5937,10 @@
       <c r="P108" s="15"/>
     </row>
     <row r="109" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C109" s="154"/>
-      <c r="D109" s="131"/>
-      <c r="E109" s="130"/>
-      <c r="F109" s="131"/>
+      <c r="C109" s="157"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="165"/>
+      <c r="F109" s="161"/>
       <c r="G109" s="11" t="s">
         <v>15</v>
       </c>
@@ -5912,10 +5961,10 @@
       <c r="P109" s="15"/>
     </row>
     <row r="110" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C110" s="154"/>
-      <c r="D110" s="131"/>
-      <c r="E110" s="130"/>
-      <c r="F110" s="131"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="165"/>
+      <c r="F110" s="161"/>
       <c r="G110" s="11" t="s">
         <v>18</v>
       </c>
@@ -5936,10 +5985,10 @@
       <c r="P110" s="15"/>
     </row>
     <row r="111" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C111" s="154"/>
-      <c r="D111" s="131"/>
-      <c r="E111" s="130"/>
-      <c r="F111" s="131"/>
+      <c r="C111" s="157"/>
+      <c r="D111" s="161"/>
+      <c r="E111" s="165"/>
+      <c r="F111" s="161"/>
       <c r="G111" s="11" t="s">
         <v>20</v>
       </c>
@@ -5960,10 +6009,10 @@
       <c r="P111" s="15"/>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C112" s="155"/>
-      <c r="D112" s="134"/>
-      <c r="E112" s="132"/>
-      <c r="F112" s="134"/>
+      <c r="C112" s="158"/>
+      <c r="D112" s="162"/>
+      <c r="E112" s="174"/>
+      <c r="F112" s="162"/>
       <c r="G112" s="29" t="s">
         <v>86</v>
       </c>
@@ -5982,10 +6031,10 @@
       <c r="P112" s="33"/>
     </row>
     <row r="113" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="156"/>
-      <c r="D113" s="135"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="135"/>
+      <c r="C113" s="159"/>
+      <c r="D113" s="163"/>
+      <c r="E113" s="177"/>
+      <c r="F113" s="163"/>
       <c r="G113" s="36" t="s">
         <v>90</v>
       </c>
@@ -6007,6 +6056,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G98:G107"/>
+    <mergeCell ref="H98:H107"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="G80:G89"/>
+    <mergeCell ref="H80:H89"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G58:G67"/>
+    <mergeCell ref="H58:H67"/>
+    <mergeCell ref="E68:E107"/>
+    <mergeCell ref="F68:F107"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="E38:E67"/>
+    <mergeCell ref="F38:F67"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:J2"/>
@@ -6023,43 +6109,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H67"/>
-    <mergeCell ref="E68:E107"/>
-    <mergeCell ref="F68:F107"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="E38:E67"/>
-    <mergeCell ref="F38:F67"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G98:G107"/>
-    <mergeCell ref="H98:H107"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="G74:G79"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="G80:G89"/>
-    <mergeCell ref="H80:H89"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,42 +6143,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146" t="s">
+      <c r="B3" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="145" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="146"/>
+      <c r="I3" s="149"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6148,16 +6197,16 @@
       <c r="O3" s="111"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="153">
+      <c r="B4" s="156">
         <v>20</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="160" t="s">
         <v>155</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -6180,10 +6229,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="154"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
@@ -6204,10 +6253,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="154"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -6228,10 +6277,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="154"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="131"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6252,10 +6301,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="131"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="161"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -6276,10 +6325,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="154"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -6300,10 +6349,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="154"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
@@ -6324,10 +6373,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="154"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="161"/>
       <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6348,12 +6397,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="154"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="130" t="s">
+      <c r="B12" s="157"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="161" t="s">
         <v>167</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -6376,10 +6425,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="154"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
@@ -6400,10 +6449,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="154"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="161"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
@@ -6424,10 +6473,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="154"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="161"/>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
@@ -6448,10 +6497,10 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="154"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="161"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -6472,10 +6521,10 @@
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="154"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="11" t="s">
         <v>24</v>
       </c>
@@ -6496,10 +6545,10 @@
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="154"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6520,10 +6569,10 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="154"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
@@ -6544,10 +6593,10 @@
       <c r="O19" s="15"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="154"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="161"/>
       <c r="F20" s="11" t="s">
         <v>30</v>
       </c>
@@ -6578,12 +6627,12 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="154"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="132" t="s">
+      <c r="B21" s="157"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="162" t="s">
         <v>176</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -6606,10 +6655,10 @@
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="154"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="143"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="160"/>
       <c r="F22" s="11" t="s">
         <v>166</v>
       </c>
@@ -6630,12 +6679,12 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="154"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="130" t="s">
+      <c r="B23" s="157"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="161" t="s">
         <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -6658,10 +6707,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="154"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="161"/>
       <c r="F24" s="11" t="s">
         <v>105</v>
       </c>
@@ -6682,12 +6731,12 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="154"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="130" t="s">
+      <c r="B25" s="157"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="131" t="s">
+      <c r="E25" s="161" t="s">
         <v>183</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -6710,10 +6759,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="154"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="161"/>
       <c r="F26" s="11" t="s">
         <v>166</v>
       </c>
@@ -6734,12 +6783,12 @@
       <c r="O26" s="15"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="154"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="130" t="s">
+      <c r="B27" s="157"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="131" t="s">
+      <c r="E27" s="161" t="s">
         <v>141</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -6762,10 +6811,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="155"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="134"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="162"/>
       <c r="F28" s="29" t="s">
         <v>15</v>
       </c>
@@ -6786,10 +6835,10 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="156"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="135"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="163"/>
       <c r="F29" s="36" t="s">
         <v>175</v>
       </c>
@@ -6811,12 +6860,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B4:B29"/>
     <mergeCell ref="C4:C29"/>
     <mergeCell ref="D4:D11"/>
@@ -6831,6 +6874,12 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6839,13 +6888,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:P46"/>
+  <dimension ref="B1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6866,42 +6915,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146" t="s">
+      <c r="B3" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="145" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="146"/>
+      <c r="I3" s="149"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -6922,16 +6971,16 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="153">
+      <c r="B4" s="156">
         <v>30</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="160" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -6954,10 +7003,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="154"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="11" t="s">
         <v>166</v>
       </c>
@@ -6978,10 +7027,10 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="154"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
@@ -7002,10 +7051,10 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="154"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="131"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
@@ -7026,10 +7075,10 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="131"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="161"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -7050,10 +7099,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="154"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
@@ -7074,10 +7123,10 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="154"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="11" t="s">
         <v>201</v>
       </c>
@@ -7096,10 +7145,10 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="154"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="161"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
@@ -7112,12 +7161,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="154"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="130" t="s">
+      <c r="B12" s="157"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="161" t="s">
         <v>204</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -7138,10 +7187,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="154"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="11" t="s">
         <v>166</v>
       </c>
@@ -7160,12 +7209,12 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="154"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="130" t="s">
+      <c r="B14" s="157"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="161" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -7188,10 +7237,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="154"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="161"/>
       <c r="F15" s="11" t="s">
         <v>166</v>
       </c>
@@ -7210,12 +7259,12 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="154"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="130" t="s">
+      <c r="B16" s="157"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="161" t="s">
         <v>402</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -7250,10 +7299,10 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="154"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="11" t="s">
         <v>404</v>
       </c>
@@ -7268,10 +7317,10 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="154"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
@@ -7290,12 +7339,12 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="154"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="132" t="s">
+      <c r="B19" s="157"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="162" t="s">
         <v>211</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -7330,10 +7379,10 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="154"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="142"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
       <c r="F20" s="11" t="s">
         <v>166</v>
       </c>
@@ -7366,10 +7415,10 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="154"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="142"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
       <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
@@ -7402,10 +7451,10 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="154"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="142"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="176"/>
       <c r="F22" s="11" t="s">
         <v>20</v>
       </c>
@@ -7426,10 +7475,10 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="154"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="142"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="176"/>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
@@ -7450,10 +7499,10 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="154"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="142"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
       <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
@@ -7474,10 +7523,10 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="154"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="142"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
       <c r="F25" s="11" t="s">
         <v>26</v>
       </c>
@@ -7498,10 +7547,10 @@
       <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="154"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="142"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
       <c r="F26" s="11" t="s">
         <v>28</v>
       </c>
@@ -7534,10 +7583,10 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="154"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="142"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="176"/>
       <c r="F27" s="11" t="s">
         <v>30</v>
       </c>
@@ -7558,10 +7607,10 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="154"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="142"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176"/>
       <c r="F28" s="11" t="s">
         <v>33</v>
       </c>
@@ -7582,10 +7631,10 @@
       <c r="O28" s="15"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="154"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="142"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="176"/>
       <c r="F29" s="11" t="s">
         <v>35</v>
       </c>
@@ -7606,10 +7655,10 @@
       <c r="O29" s="15"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="154"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="142"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="11" t="s">
         <v>37</v>
       </c>
@@ -7630,10 +7679,10 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="154"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="142"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
       <c r="F31" s="11" t="s">
         <v>39</v>
       </c>
@@ -7654,10 +7703,10 @@
       <c r="O31" s="15"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="154"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="142"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
       <c r="F32" s="11" t="s">
         <v>41</v>
       </c>
@@ -7678,10 +7727,10 @@
       <c r="O32" s="15"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="154"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="142"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
       <c r="F33" s="11" t="s">
         <v>43</v>
       </c>
@@ -7702,10 +7751,10 @@
       <c r="O33" s="15"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="154"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="142"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="176"/>
       <c r="F34" s="11" t="s">
         <v>49</v>
       </c>
@@ -7726,10 +7775,10 @@
       <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="154"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="142"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="176"/>
       <c r="F35" s="11" t="s">
         <v>229</v>
       </c>
@@ -7750,10 +7799,10 @@
       <c r="O35" s="15"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="154"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="142"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="176"/>
       <c r="F36" s="11" t="s">
         <v>53</v>
       </c>
@@ -7774,10 +7823,10 @@
       <c r="O36" s="15"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="154"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="142"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="176"/>
       <c r="F37" s="11" t="s">
         <v>55</v>
       </c>
@@ -7798,119 +7847,121 @@
       <c r="O37" s="15"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="155"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="33"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="H38" s="101" t="s">
+        <v>557</v>
+      </c>
+      <c r="I38" s="102" t="s">
+        <v>558</v>
+      </c>
+      <c r="J38" s="105" t="s">
+        <v>559</v>
+      </c>
+      <c r="K38" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="L38" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="O38" s="104" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="155"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="17" t="s">
+      <c r="B39" s="158"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="158"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F40" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G40" s="30" t="s">
         <v>351</v>
-      </c>
-      <c r="H39" s="101" t="s">
-        <v>361</v>
-      </c>
-      <c r="I39" s="102"/>
-      <c r="J39" s="105" t="s">
-        <v>326</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="N39" s="103" t="s">
-        <v>343</v>
-      </c>
-      <c r="O39" s="104" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="155"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="H40" s="101" t="s">
         <v>361</v>
       </c>
       <c r="I40" s="102"/>
       <c r="J40" s="105" t="s">
-        <v>367</v>
-      </c>
-      <c r="K40" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="L40" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="M40" s="103" t="s">
-        <v>339</v>
+      <c r="K40" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="N40" s="103" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="O40" s="104" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="155"/>
-      <c r="C41" s="165"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="183"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H41" s="101" t="s">
         <v>361</v>
       </c>
       <c r="I41" s="102"/>
       <c r="J41" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K41" s="103" t="s">
         <v>369</v>
       </c>
       <c r="L41" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="M41" s="103" t="s">
         <v>339</v>
-      </c>
-      <c r="M41" s="103" t="s">
-        <v>326</v>
       </c>
       <c r="N41" s="103" t="s">
         <v>331</v>
@@ -7920,31 +7971,31 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="155"/>
-      <c r="C42" s="165"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H42" s="101" t="s">
         <v>361</v>
       </c>
       <c r="I42" s="102"/>
       <c r="J42" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" s="103" t="s">
         <v>326</v>
-      </c>
-      <c r="K42" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="L42" s="103" t="s">
-        <v>406</v>
-      </c>
-      <c r="M42" s="103" t="s">
-        <v>407</v>
       </c>
       <c r="N42" s="103" t="s">
         <v>331</v>
@@ -7952,60 +8003,76 @@
       <c r="O42" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="P42" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="155"/>
-      <c r="C43" s="165"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="H43" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="I43" s="106"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="108"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="M43" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="N43" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" s="104" t="s">
+        <v>338</v>
+      </c>
+      <c r="P43" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="155"/>
-      <c r="C44" s="165"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="183"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G44" s="30"/>
-      <c r="H44" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
+      <c r="H44" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="I44" s="106"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="108"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="155"/>
-      <c r="C45" s="165"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="29" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G45" s="30"/>
-      <c r="H45" s="29"/>
+      <c r="H45" s="29" t="s">
+        <v>362</v>
+      </c>
       <c r="I45" s="30"/>
       <c r="J45" s="99"/>
       <c r="K45" s="32"/>
@@ -8014,42 +8081,60 @@
       <c r="N45" s="32"/>
       <c r="O45" s="33"/>
     </row>
-    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="156"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="39"/>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="158"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="33"/>
+    </row>
+    <row r="47" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="159"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="J2:O2"/>
-    <mergeCell ref="D19:D38"/>
-    <mergeCell ref="E19:E38"/>
+    <mergeCell ref="D19:D39"/>
+    <mergeCell ref="E19:E39"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:B46"/>
-    <mergeCell ref="C4:C46"/>
+    <mergeCell ref="B4:B47"/>
+    <mergeCell ref="C4:C47"/>
     <mergeCell ref="D4:D11"/>
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8073,7 +8158,7 @@
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
     <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="122" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="121" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
     <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
@@ -8087,42 +8172,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
     </row>
     <row r="3" spans="2:15" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146" t="s">
+      <c r="B3" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="145" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="146"/>
+      <c r="I3" s="149"/>
       <c r="J3" s="109" t="s">
         <v>4</v>
       </c>
@@ -8143,29 +8228,29 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="153">
-        <v>0</v>
-      </c>
-      <c r="C4" s="163" t="s">
+      <c r="B4" s="156">
+        <v>0</v>
+      </c>
+      <c r="C4" s="181" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="164" t="s">
         <v>465</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="160" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="170" t="s">
+      <c r="F4" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="171"/>
+      <c r="G4" s="189"/>
       <c r="H4" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="J4" s="120">
+      <c r="J4" s="119">
         <v>1010000</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -8183,19 +8268,19 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="153"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="172"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="190"/>
       <c r="H5" s="11" t="s">
         <v>501</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="J5" s="120">
+      <c r="J5" s="119">
         <v>1020000</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -8213,19 +8298,19 @@
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="153"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="173"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="191"/>
       <c r="H6" s="11" t="s">
         <v>502</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="119">
         <v>1030000</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -8243,21 +8328,21 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="153"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="132" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="174" t="s">
         <v>495</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="119">
         <v>2010000</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -8275,19 +8360,19 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="153"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="172"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="190"/>
       <c r="H8" s="11" t="s">
         <v>501</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="119">
         <v>2020000</v>
       </c>
       <c r="K8" s="9" t="s">
@@ -8305,19 +8390,19 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="153"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="172"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="119">
         <v>2030000</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -8335,19 +8420,19 @@
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="153"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="172"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="190"/>
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="119">
         <v>2040000</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -8365,19 +8450,19 @@
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="153"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="172"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="190"/>
       <c r="H11" s="11" t="s">
         <v>503</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="119">
         <v>2100000</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -8395,19 +8480,19 @@
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="153"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="172"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="190"/>
       <c r="H12" s="11" t="s">
         <v>504</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="J12" s="120">
+      <c r="J12" s="119">
         <v>2200000</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -8425,19 +8510,19 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="153"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="172"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="190"/>
       <c r="H13" s="11" t="s">
         <v>505</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="119">
         <v>2300000</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -8455,19 +8540,19 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="153"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="172"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="190"/>
       <c r="H14" s="11" t="s">
         <v>506</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J14" s="120">
+      <c r="J14" s="119">
         <v>2310000</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -8485,19 +8570,19 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="153"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="172"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="190"/>
       <c r="H15" s="11" t="s">
         <v>507</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="J15" s="120">
+      <c r="J15" s="119">
         <v>2320000</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -8515,19 +8600,19 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="153"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="172"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="190"/>
       <c r="H16" s="11" t="s">
         <v>508</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="J16" s="120">
+      <c r="J16" s="119">
         <v>2400000</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -8545,19 +8630,19 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="153"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="172"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="190"/>
       <c r="H17" s="11" t="s">
         <v>509</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="119">
         <v>2410000</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -8575,19 +8660,19 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="153"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="173"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="191"/>
       <c r="H18" s="11" t="s">
         <v>510</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="J18" s="120">
+      <c r="J18" s="119">
         <v>2420000</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -8605,21 +8690,21 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="153"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="132" t="s">
+      <c r="B19" s="156"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="174" t="s">
         <v>496</v>
       </c>
-      <c r="G19" s="174"/>
+      <c r="G19" s="192"/>
       <c r="H19" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="119">
         <v>3010000</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -8637,19 +8722,19 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="153"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="172"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="119">
         <v>3020000</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -8667,19 +8752,19 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="153"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="172"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="J21" s="120">
+      <c r="J21" s="119">
         <v>3030000</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -8697,19 +8782,19 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="153"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="172"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="190"/>
       <c r="H22" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J22" s="120">
+      <c r="J22" s="119">
         <v>3040000</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -8727,19 +8812,19 @@
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="153"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="172"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="190"/>
       <c r="H23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="J23" s="120">
+      <c r="J23" s="119">
         <v>3050000</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -8757,19 +8842,19 @@
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="153"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="172"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="190"/>
       <c r="H24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="J24" s="120">
+      <c r="J24" s="119">
         <v>3060000</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -8787,19 +8872,19 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="153"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="172"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="190"/>
       <c r="H25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="J25" s="120">
+      <c r="J25" s="119">
         <v>3070000</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -8817,19 +8902,19 @@
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="153"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="172"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="190"/>
       <c r="H26" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="J26" s="120">
+      <c r="J26" s="119">
         <v>3080000</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -8847,19 +8932,19 @@
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="153"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="172"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="190"/>
       <c r="H27" s="11" t="s">
         <v>503</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="J27" s="120">
+      <c r="J27" s="119">
         <v>3100000</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -8877,19 +8962,19 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="153"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="172"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="190"/>
       <c r="H28" s="11" t="s">
         <v>511</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="J28" s="120">
+      <c r="J28" s="119">
         <v>3110000</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -8907,19 +8992,19 @@
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="153"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="172"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="190"/>
       <c r="H29" s="11" t="s">
         <v>512</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J29" s="120">
+      <c r="J29" s="119">
         <v>3130000</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -8937,19 +9022,19 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="153"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="172"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="190"/>
       <c r="H30" s="11" t="s">
         <v>513</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="J30" s="120">
+      <c r="J30" s="119">
         <v>3140000</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -8967,19 +9052,19 @@
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="153"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="172"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="190"/>
       <c r="H31" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="J31" s="120">
+      <c r="J31" s="119">
         <v>3150000</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -8997,19 +9082,19 @@
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="153"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="172"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="190"/>
       <c r="H32" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="J32" s="120">
+      <c r="J32" s="119">
         <v>3160000</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -9027,19 +9112,19 @@
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="153"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="172"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="190"/>
       <c r="H33" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="J33" s="120">
+      <c r="J33" s="119">
         <v>3170000</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -9057,19 +9142,19 @@
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="153"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="190"/>
       <c r="H34" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J34" s="120">
+      <c r="J34" s="119">
         <v>3180000</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -9087,19 +9172,19 @@
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="153"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="190"/>
       <c r="H35" s="11" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="J35" s="120">
+      <c r="J35" s="119">
         <v>3190000</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -9117,19 +9202,19 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="153"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="172"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="190"/>
       <c r="H36" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="J36" s="120">
+      <c r="J36" s="119">
         <v>3200000</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -9147,19 +9232,19 @@
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="153"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="172"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="190"/>
       <c r="H37" s="11" t="s">
         <v>55</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="J37" s="120">
+      <c r="J37" s="119">
         <v>3210000</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -9177,19 +9262,19 @@
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="153"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="172"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="190"/>
       <c r="H38" s="11" t="s">
         <v>514</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="J38" s="120">
+      <c r="J38" s="119">
         <v>3220000</v>
       </c>
       <c r="K38" s="9" t="s">
@@ -9207,19 +9292,19 @@
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="153"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="172"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="190"/>
       <c r="H39" s="11" t="s">
         <v>515</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="J39" s="120">
+      <c r="J39" s="119">
         <v>3230000</v>
       </c>
       <c r="K39" s="9" t="s">
@@ -9237,19 +9322,19 @@
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="153"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="172"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="190"/>
       <c r="H40" s="11" t="s">
         <v>516</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="J40" s="120">
+      <c r="J40" s="119">
         <v>3240000</v>
       </c>
       <c r="K40" s="9" t="s">
@@ -9267,19 +9352,19 @@
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="153"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="172"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="11" t="s">
         <v>517</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="J41" s="120">
+      <c r="J41" s="119">
         <v>3250000</v>
       </c>
       <c r="K41" s="9" t="s">
@@ -9297,19 +9382,19 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="153"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="172"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="190"/>
       <c r="H42" s="11" t="s">
         <v>518</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="J42" s="120">
+      <c r="J42" s="119">
         <v>3260000</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -9327,19 +9412,19 @@
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="153"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="172"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="190"/>
       <c r="H43" s="11" t="s">
         <v>519</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="J43" s="120">
+      <c r="J43" s="119">
         <v>3270000</v>
       </c>
       <c r="K43" s="9" t="s">
@@ -9357,19 +9442,19 @@
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="153"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="172"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="190"/>
       <c r="H44" s="11" t="s">
         <v>520</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="J44" s="120">
+      <c r="J44" s="119">
         <v>3280000</v>
       </c>
       <c r="K44" s="9" t="s">
@@ -9387,19 +9472,19 @@
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="153"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="172"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="190"/>
       <c r="H45" s="11" t="s">
         <v>521</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="J45" s="120">
+      <c r="J45" s="119">
         <v>3390000</v>
       </c>
       <c r="K45" s="9" t="s">
@@ -9417,19 +9502,19 @@
       <c r="O45" s="10"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="153"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="172"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="190"/>
       <c r="H46" s="11" t="s">
         <v>522</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="J46" s="120">
+      <c r="J46" s="119">
         <v>3500000</v>
       </c>
       <c r="K46" s="9" t="s">
@@ -9447,19 +9532,19 @@
       <c r="O46" s="10"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="153"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="172"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="190"/>
       <c r="H47" s="11" t="s">
         <v>523</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="J47" s="120">
+      <c r="J47" s="119">
         <v>3510000</v>
       </c>
       <c r="K47" s="9" t="s">
@@ -9477,19 +9562,19 @@
       <c r="O47" s="10"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="153"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="172"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="190"/>
       <c r="H48" s="11" t="s">
         <v>524</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="J48" s="120">
+      <c r="J48" s="119">
         <v>3520000</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -9507,19 +9592,19 @@
       <c r="O48" s="10"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="153"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="172"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="190"/>
       <c r="H49" s="11" t="s">
         <v>525</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="J49" s="120">
+      <c r="J49" s="119">
         <v>3600000</v>
       </c>
       <c r="K49" s="9" t="s">
@@ -9537,19 +9622,19 @@
       <c r="O49" s="10"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="153"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="172"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="190"/>
       <c r="H50" s="11" t="s">
         <v>526</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="J50" s="120">
+      <c r="J50" s="119">
         <v>3700000</v>
       </c>
       <c r="K50" s="9" t="s">
@@ -9567,19 +9652,19 @@
       <c r="O50" s="10"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="153"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="172"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="190"/>
       <c r="H51" s="11" t="s">
         <v>527</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="J51" s="120">
+      <c r="J51" s="119">
         <v>3710000</v>
       </c>
       <c r="K51" s="9" t="s">
@@ -9597,19 +9682,19 @@
       <c r="O51" s="10"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="153"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="173"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="191"/>
       <c r="H52" s="11" t="s">
         <v>528</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="J52" s="120">
+      <c r="J52" s="119">
         <v>3720000</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -9627,21 +9712,21 @@
       <c r="O52" s="10"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="153"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="143"/>
-      <c r="F53" s="132" t="s">
+      <c r="B53" s="156"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="174" t="s">
         <v>497</v>
       </c>
-      <c r="G53" s="167"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="11" t="s">
         <v>529</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="J53" s="120">
+      <c r="J53" s="119">
         <v>4010000</v>
       </c>
       <c r="K53" s="9" t="s">
@@ -9659,19 +9744,19 @@
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="153"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="168"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="186"/>
       <c r="H54" s="11" t="s">
         <v>501</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="J54" s="120">
+      <c r="J54" s="119">
         <v>4020000</v>
       </c>
       <c r="K54" s="9" t="s">
@@ -9689,21 +9774,21 @@
       <c r="O54" s="10"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="153"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="118" t="s">
+      <c r="B55" s="156"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="117" t="s">
         <v>498</v>
       </c>
-      <c r="G55" s="119"/>
+      <c r="G55" s="118"/>
       <c r="H55" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="J55" s="120">
+      <c r="J55" s="119">
         <v>5010000</v>
       </c>
       <c r="K55" s="9" t="s">
@@ -9721,21 +9806,21 @@
       <c r="O55" s="10"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="153"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="132" t="s">
+      <c r="B56" s="156"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="174" t="s">
         <v>499</v>
       </c>
-      <c r="G56" s="167"/>
+      <c r="G56" s="185"/>
       <c r="H56" s="11" t="s">
         <v>500</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="J56" s="120">
+      <c r="J56" s="119">
         <v>6010000</v>
       </c>
       <c r="K56" s="9" t="s">
@@ -9753,19 +9838,19 @@
       <c r="O56" s="10"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="153"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="169"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="187"/>
       <c r="H57" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="J57" s="120">
+      <c r="J57" s="119">
         <v>6020000</v>
       </c>
       <c r="K57" s="9" t="s">
@@ -9783,19 +9868,19 @@
       <c r="O57" s="10"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="153"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="169"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="187"/>
       <c r="H58" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J58" s="120">
+      <c r="J58" s="119">
         <v>6030000</v>
       </c>
       <c r="K58" s="9" t="s">
@@ -9813,19 +9898,19 @@
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="153"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="168"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="186"/>
       <c r="H59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="J59" s="120">
+      <c r="J59" s="119">
         <v>6040000</v>
       </c>
       <c r="K59" s="9" t="s">
@@ -9843,15 +9928,15 @@
       <c r="O59" s="10"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="153"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="123"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="122"/>
       <c r="G60" s="8"/>
       <c r="H60" s="11"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="121"/>
+      <c r="J60" s="120"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -9859,15 +9944,15 @@
       <c r="O60" s="10"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="154"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="130" t="s">
+      <c r="B61" s="157"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="165" t="s">
         <v>532</v>
       </c>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="F61" s="124" t="s">
+      <c r="F61" s="123" t="s">
         <v>535</v>
       </c>
       <c r="G61" s="12" t="s">
@@ -9879,29 +9964,29 @@
       <c r="I61" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="J61" s="129">
+      <c r="J61" s="128">
         <v>1000001</v>
       </c>
-      <c r="K61" s="127" t="s">
+      <c r="K61" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="L61" s="127" t="s">
+      <c r="L61" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="M61" s="127" t="s">
+      <c r="M61" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="N61" s="127" t="s">
+      <c r="N61" s="126" t="s">
         <v>331</v>
       </c>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="154"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="124" t="s">
+      <c r="B62" s="157"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="123" t="s">
         <v>536</v>
       </c>
       <c r="G62" s="12" t="s">
@@ -9913,33 +9998,33 @@
       <c r="I62" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="J62" s="129">
+      <c r="J62" s="128">
         <v>2000001</v>
       </c>
-      <c r="K62" s="127" t="s">
+      <c r="K62" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="L62" s="127" t="s">
+      <c r="L62" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="127" t="s">
+      <c r="M62" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="N62" s="127" t="s">
+      <c r="N62" s="126" t="s">
         <v>331</v>
       </c>
       <c r="O62" s="15"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="154"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="130" t="s">
+      <c r="B63" s="157"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="165" t="s">
         <v>533</v>
       </c>
-      <c r="E63" s="131" t="s">
+      <c r="E63" s="161" t="s">
         <v>543</v>
       </c>
-      <c r="F63" s="124" t="s">
+      <c r="F63" s="123" t="s">
         <v>546</v>
       </c>
       <c r="G63" s="12" t="s">
@@ -9951,29 +10036,29 @@
       <c r="I63" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="J63" s="129">
+      <c r="J63" s="128">
         <v>1000002</v>
       </c>
-      <c r="K63" s="128" t="s">
+      <c r="K63" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="L63" s="128" t="s">
+      <c r="L63" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="M63" s="128" t="s">
+      <c r="M63" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="N63" s="128" t="s">
+      <c r="N63" s="127" t="s">
         <v>331</v>
       </c>
       <c r="O63" s="15"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="154"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="124"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="123"/>
       <c r="G64" s="12"/>
       <c r="H64" s="11"/>
       <c r="I64" s="12"/>
@@ -9985,13 +10070,13 @@
       <c r="O64" s="15"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="154"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="130" t="s">
+      <c r="B65" s="157"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="165" t="s">
         <v>534</v>
       </c>
-      <c r="E65" s="131"/>
-      <c r="F65" s="124"/>
+      <c r="E65" s="161"/>
+      <c r="F65" s="123"/>
       <c r="G65" s="12"/>
       <c r="H65" s="13"/>
       <c r="I65" s="16"/>
@@ -10005,11 +10090,11 @@
       <c r="Q65" s="46"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="154"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="124"/>
+      <c r="B66" s="157"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="161"/>
+      <c r="F66" s="123"/>
       <c r="G66" s="12"/>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
@@ -10023,11 +10108,11 @@
       <c r="Q66" s="46"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="154"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="124"/>
+      <c r="B67" s="157"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="161"/>
+      <c r="F67" s="123"/>
       <c r="G67" s="12"/>
       <c r="H67" s="13"/>
       <c r="I67" s="16"/>
@@ -10041,13 +10126,13 @@
       <c r="Q67" s="46"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="154"/>
-      <c r="C68" s="164"/>
-      <c r="D68" s="132" t="s">
+      <c r="B68" s="157"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="134"/>
-      <c r="F68" s="124"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="123"/>
       <c r="G68" s="12"/>
       <c r="H68" s="31"/>
       <c r="I68" s="106"/>
@@ -10061,11 +10146,11 @@
       <c r="Q68" s="46"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="154"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="124"/>
+      <c r="B69" s="157"/>
+      <c r="C69" s="182"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="123"/>
       <c r="G69" s="12"/>
       <c r="H69" s="13"/>
       <c r="I69" s="16"/>
@@ -10079,11 +10164,11 @@
       <c r="Q69" s="46"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="154"/>
-      <c r="C70" s="164"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="124"/>
+      <c r="B70" s="157"/>
+      <c r="C70" s="182"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="176"/>
+      <c r="F70" s="123"/>
       <c r="G70" s="12"/>
       <c r="H70" s="13"/>
       <c r="I70" s="16"/>
@@ -10097,11 +10182,11 @@
       <c r="Q70" s="46"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="154"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="124"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="182"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="176"/>
+      <c r="F71" s="123"/>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
       <c r="I71" s="16"/>
@@ -10115,11 +10200,11 @@
       <c r="Q71" s="46"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="154"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="124"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="182"/>
+      <c r="D72" s="175"/>
+      <c r="E72" s="176"/>
+      <c r="F72" s="123"/>
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
       <c r="I72" s="16"/>
@@ -10133,11 +10218,11 @@
       <c r="Q72" s="46"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="154"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="124"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="182"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="176"/>
+      <c r="F73" s="123"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
       <c r="I73" s="16"/>
@@ -10151,11 +10236,11 @@
       <c r="Q73" s="46"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="154"/>
-      <c r="C74" s="164"/>
-      <c r="D74" s="137"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="124"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="182"/>
+      <c r="D74" s="175"/>
+      <c r="E74" s="176"/>
+      <c r="F74" s="123"/>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
       <c r="I74" s="16"/>
@@ -10169,11 +10254,11 @@
       <c r="Q74" s="46"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="154"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="124"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="182"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="176"/>
+      <c r="F75" s="123"/>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
       <c r="I75" s="16"/>
@@ -10187,11 +10272,11 @@
       <c r="Q75" s="46"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="154"/>
-      <c r="C76" s="164"/>
-      <c r="D76" s="137"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="124"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="182"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="176"/>
+      <c r="F76" s="123"/>
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
       <c r="I76" s="16"/>
@@ -10205,11 +10290,11 @@
       <c r="Q76" s="46"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="154"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="137"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="124"/>
+      <c r="B77" s="157"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="175"/>
+      <c r="E77" s="176"/>
+      <c r="F77" s="123"/>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
       <c r="I77" s="16"/>
@@ -10223,11 +10308,11 @@
       <c r="Q77" s="46"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="154"/>
-      <c r="C78" s="164"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="124"/>
+      <c r="B78" s="157"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="175"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="123"/>
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
       <c r="I78" s="16"/>
@@ -10241,11 +10326,11 @@
       <c r="Q78" s="46"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="154"/>
-      <c r="C79" s="164"/>
-      <c r="D79" s="137"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="124"/>
+      <c r="B79" s="157"/>
+      <c r="C79" s="182"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="176"/>
+      <c r="F79" s="123"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
       <c r="I79" s="16"/>
@@ -10259,11 +10344,11 @@
       <c r="Q79" s="46"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="154"/>
-      <c r="C80" s="164"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="124"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="176"/>
+      <c r="F80" s="123"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
       <c r="I80" s="16"/>
@@ -10277,11 +10362,11 @@
       <c r="Q80" s="46"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="154"/>
-      <c r="C81" s="164"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="142"/>
-      <c r="F81" s="124"/>
+      <c r="B81" s="157"/>
+      <c r="C81" s="182"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="123"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
       <c r="I81" s="16"/>
@@ -10295,11 +10380,11 @@
       <c r="Q81" s="46"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="154"/>
-      <c r="C82" s="164"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="124"/>
+      <c r="B82" s="157"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="175"/>
+      <c r="E82" s="176"/>
+      <c r="F82" s="123"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
       <c r="I82" s="16"/>
@@ -10313,11 +10398,11 @@
       <c r="Q82" s="46"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="154"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="124"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="123"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
       <c r="I83" s="16"/>
@@ -10331,11 +10416,11 @@
       <c r="Q83" s="46"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="154"/>
-      <c r="C84" s="164"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="124"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="123"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
       <c r="I84" s="16"/>
@@ -10349,11 +10434,11 @@
       <c r="Q84" s="46"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="154"/>
-      <c r="C85" s="164"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="124"/>
+      <c r="B85" s="157"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="123"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
       <c r="I85" s="16"/>
@@ -10367,11 +10452,11 @@
       <c r="Q85" s="46"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="154"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="124"/>
+      <c r="B86" s="157"/>
+      <c r="C86" s="182"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="123"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
       <c r="I86" s="16"/>
@@ -10385,11 +10470,11 @@
       <c r="Q86" s="46"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="155"/>
-      <c r="C87" s="165"/>
-      <c r="D87" s="138"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="125"/>
+      <c r="B87" s="158"/>
+      <c r="C87" s="183"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="160"/>
+      <c r="F87" s="124"/>
       <c r="G87" s="30"/>
       <c r="H87" s="31"/>
       <c r="I87" s="106"/>
@@ -10403,13 +10488,13 @@
       <c r="Q87" s="46"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="155"/>
-      <c r="C88" s="165"/>
+      <c r="B88" s="158"/>
+      <c r="C88" s="183"/>
       <c r="D88" s="114" t="s">
         <v>186</v>
       </c>
       <c r="E88" s="112"/>
-      <c r="F88" s="125"/>
+      <c r="F88" s="124"/>
       <c r="G88" s="30"/>
       <c r="H88" s="31"/>
       <c r="I88" s="106"/>
@@ -10423,11 +10508,11 @@
       <c r="Q88" s="46"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="155"/>
-      <c r="C89" s="165"/>
+      <c r="B89" s="158"/>
+      <c r="C89" s="183"/>
       <c r="D89" s="114"/>
       <c r="E89" s="112"/>
-      <c r="F89" s="125"/>
+      <c r="F89" s="124"/>
       <c r="G89" s="30"/>
       <c r="H89" s="31"/>
       <c r="I89" s="106"/>
@@ -10441,11 +10526,11 @@
       <c r="Q89" s="46"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="155"/>
-      <c r="C90" s="165"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="183"/>
       <c r="D90" s="114"/>
       <c r="E90" s="112"/>
-      <c r="F90" s="125"/>
+      <c r="F90" s="124"/>
       <c r="G90" s="30"/>
       <c r="H90" s="31"/>
       <c r="I90" s="106"/>
@@ -10459,11 +10544,11 @@
       <c r="Q90" s="46"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="155"/>
-      <c r="C91" s="165"/>
+      <c r="B91" s="158"/>
+      <c r="C91" s="183"/>
       <c r="D91" s="114"/>
       <c r="E91" s="112"/>
-      <c r="F91" s="125"/>
+      <c r="F91" s="124"/>
       <c r="G91" s="30"/>
       <c r="H91" s="31"/>
       <c r="I91" s="106"/>
@@ -10477,11 +10562,11 @@
       <c r="Q91" s="46"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="155"/>
-      <c r="C92" s="165"/>
+      <c r="B92" s="158"/>
+      <c r="C92" s="183"/>
       <c r="D92" s="114"/>
       <c r="E92" s="112"/>
-      <c r="F92" s="125"/>
+      <c r="F92" s="124"/>
       <c r="G92" s="30"/>
       <c r="H92" s="31"/>
       <c r="I92" s="106"/>
@@ -10495,11 +10580,11 @@
       <c r="Q92" s="46"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B93" s="155"/>
-      <c r="C93" s="165"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="183"/>
       <c r="D93" s="114"/>
       <c r="E93" s="112"/>
-      <c r="F93" s="125"/>
+      <c r="F93" s="124"/>
       <c r="G93" s="30"/>
       <c r="H93" s="31"/>
       <c r="I93" s="106"/>
@@ -10513,11 +10598,11 @@
       <c r="Q93" s="46"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="155"/>
-      <c r="C94" s="165"/>
+      <c r="B94" s="158"/>
+      <c r="C94" s="183"/>
       <c r="D94" s="114"/>
       <c r="E94" s="112"/>
-      <c r="F94" s="125" t="s">
+      <c r="F94" s="124" t="s">
         <v>186</v>
       </c>
       <c r="G94" s="30"/>
@@ -10533,11 +10618,11 @@
       <c r="Q94" s="46"/>
     </row>
     <row r="95" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="156"/>
-      <c r="C95" s="166"/>
+      <c r="B95" s="159"/>
+      <c r="C95" s="184"/>
       <c r="D95" s="115"/>
       <c r="E95" s="113"/>
-      <c r="F95" s="126"/>
+      <c r="F95" s="125"/>
       <c r="G95" s="37"/>
       <c r="H95" s="36"/>
       <c r="I95" s="37"/>
@@ -10550,16 +10635,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G18"/>
-    <mergeCell ref="F7:F18"/>
-    <mergeCell ref="G19:G52"/>
-    <mergeCell ref="F19:F52"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="D68:D87"/>
     <mergeCell ref="E68:E87"/>
     <mergeCell ref="B4:B95"/>
@@ -10572,12 +10653,16 @@
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="D65:D67"/>
     <mergeCell ref="E65:E67"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G18"/>
+    <mergeCell ref="F7:F18"/>
+    <mergeCell ref="G19:G52"/>
+    <mergeCell ref="F19:F52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10620,28 +10705,28 @@
   <sheetData>
     <row r="1" spans="2:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="193" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="G2" s="177" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="G2" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="L2" s="177" t="s">
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="L2" s="193" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="P2" s="177" t="s">
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="P2" s="193" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
       <c r="U2" s="49" t="s">
         <v>237</v>
       </c>
@@ -11462,7 +11547,7 @@
       <c r="H18" s="72">
         <v>3</v>
       </c>
-      <c r="I18" s="175">
+      <c r="I18" s="194">
         <v>119</v>
       </c>
       <c r="J18" s="72">
@@ -11516,7 +11601,7 @@
       <c r="H19" s="72">
         <v>3</v>
       </c>
-      <c r="I19" s="175"/>
+      <c r="I19" s="194"/>
       <c r="J19" s="72">
         <v>8</v>
       </c>
@@ -11555,7 +11640,7 @@
       <c r="H20" s="72">
         <v>3</v>
       </c>
-      <c r="I20" s="175"/>
+      <c r="I20" s="194"/>
       <c r="J20" s="72">
         <v>8</v>
       </c>
@@ -11600,7 +11685,7 @@
       <c r="H21" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="I21" s="178">
+      <c r="I21" s="195">
         <v>48</v>
       </c>
       <c r="J21" s="74">
@@ -11647,7 +11732,7 @@
       <c r="H22" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="I22" s="178"/>
+      <c r="I22" s="195"/>
       <c r="J22" s="74">
         <v>5</v>
       </c>
@@ -11692,7 +11777,7 @@
       <c r="H23" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="178"/>
+      <c r="I23" s="195"/>
       <c r="J23" s="74">
         <v>4</v>
       </c>
@@ -11737,7 +11822,7 @@
       <c r="H24" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="175">
+      <c r="I24" s="194">
         <v>286</v>
       </c>
       <c r="J24" s="72">
@@ -11784,7 +11869,7 @@
       <c r="H25" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I25" s="175"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="72">
         <v>1</v>
       </c>
@@ -11829,7 +11914,7 @@
       <c r="H26" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I26" s="175"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="72">
         <v>6</v>
       </c>
@@ -11875,7 +11960,7 @@
       <c r="H27" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I27" s="175"/>
+      <c r="I27" s="194"/>
       <c r="J27" s="72">
         <v>6</v>
       </c>
@@ -11920,7 +12005,7 @@
       <c r="H28" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="I28" s="175">
+      <c r="I28" s="194">
         <v>46</v>
       </c>
       <c r="J28" s="72">
@@ -11961,7 +12046,7 @@
       <c r="H29" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="175"/>
+      <c r="I29" s="194"/>
       <c r="J29" s="72">
         <v>7</v>
       </c>
@@ -12053,7 +12138,7 @@
       <c r="H31" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="I31" s="175">
+      <c r="I31" s="194">
         <v>47</v>
       </c>
       <c r="J31" s="72">
@@ -12103,7 +12188,7 @@
       <c r="H32" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="175"/>
+      <c r="I32" s="194"/>
       <c r="J32" s="72">
         <v>30</v>
       </c>
@@ -12251,7 +12336,7 @@
       <c r="H35" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I35" s="176">
+      <c r="I35" s="196">
         <v>1904</v>
       </c>
       <c r="J35" s="79">
@@ -12301,7 +12386,7 @@
       <c r="H36" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I36" s="176"/>
+      <c r="I36" s="196"/>
       <c r="J36" s="79">
         <v>3</v>
       </c>
@@ -12349,7 +12434,7 @@
       <c r="H37" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="176"/>
+      <c r="I37" s="196"/>
       <c r="J37" s="79">
         <v>3</v>
       </c>
@@ -17225,16 +17310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17245,615 +17330,627 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" style="179" customWidth="1"/>
-    <col min="2" max="4" width="9" style="179"/>
-    <col min="5" max="5" width="32.25" style="179" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="179" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="179"/>
+    <col min="1" max="1" width="1" style="129" customWidth="1"/>
+    <col min="2" max="4" width="9" style="129"/>
+    <col min="5" max="5" width="32.25" style="129" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="129" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="129"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="131" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="131" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="131" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="182" t="s">
+      <c r="F2" s="132" t="s">
         <v>377</v>
       </c>
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="133" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="134" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="135" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="135" t="s">
         <v>381</v>
       </c>
-      <c r="E3" s="186" t="s">
+      <c r="E3" s="136" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="187">
+      <c r="F3" s="137">
         <v>42653</v>
       </c>
-      <c r="G3" s="188" t="s">
+      <c r="G3" s="138" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="140" t="s">
         <v>384</v>
       </c>
-      <c r="E4" s="190" t="s">
+      <c r="E4" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="191">
+      <c r="F4" s="141">
         <v>42807</v>
       </c>
-      <c r="G4" s="192" t="s">
+      <c r="G4" s="142" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="139" t="s">
         <v>395</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="140" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="143" t="s">
         <v>396</v>
       </c>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="143" t="s">
         <v>397</v>
       </c>
-      <c r="F5" s="191">
+      <c r="F5" s="141">
         <v>42891</v>
       </c>
-      <c r="G5" s="192" t="s">
+      <c r="G5" s="142" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="139" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="193" t="s">
+      <c r="D6" s="143" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="190" t="s">
+      <c r="E6" s="140" t="s">
         <v>423</v>
       </c>
-      <c r="F6" s="191">
+      <c r="F6" s="141">
         <v>42907</v>
       </c>
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="142" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="139" t="s">
         <v>450</v>
       </c>
-      <c r="C7" s="190" t="s">
+      <c r="C7" s="140" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="140" t="s">
         <v>451</v>
       </c>
-      <c r="E7" s="190" t="s">
+      <c r="E7" s="140" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="191">
+      <c r="F7" s="141">
         <v>42923</v>
       </c>
-      <c r="G7" s="192" t="s">
+      <c r="G7" s="142" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="139" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="140" t="s">
         <v>425</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="140" t="s">
         <v>454</v>
       </c>
-      <c r="F8" s="191">
+      <c r="F8" s="141">
         <v>42926</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="142" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="C9" s="190" t="s">
+      <c r="C9" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="140" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="140" t="s">
         <v>549</v>
       </c>
-      <c r="F9" s="191">
+      <c r="F9" s="141">
         <v>42979</v>
       </c>
-      <c r="G9" s="192" t="s">
+      <c r="G9" s="142" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="140" t="s">
         <v>425</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="140" t="s">
         <v>550</v>
       </c>
-      <c r="F10" s="191">
+      <c r="F10" s="141">
         <v>43024</v>
       </c>
-      <c r="G10" s="192" t="s">
+      <c r="G10" s="142" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="189"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="192"/>
+      <c r="B11" s="139" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="198" t="s">
+        <v>554</v>
+      </c>
+      <c r="E11" s="197" t="s">
+        <v>553</v>
+      </c>
+      <c r="F11" s="141">
+        <v>43031</v>
+      </c>
+      <c r="G11" s="142" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="189"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="192"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
     </row>
     <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="189"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="192"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
     </row>
     <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="189"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="192"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
     </row>
     <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="189"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="192"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
     </row>
     <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="189"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
     </row>
     <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="189"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="192"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="189"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="192"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
     </row>
     <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="189"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="192"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
     </row>
     <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="189"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="192"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="192"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="189"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="192"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="189"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="192"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
     </row>
     <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="192"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="191"/>
-      <c r="G25" s="192"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
     </row>
     <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="192"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
     </row>
     <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="192"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
     </row>
     <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="189"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="192"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
     </row>
     <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="192"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
     </row>
     <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="192"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
     </row>
     <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="189"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="191"/>
-      <c r="G31" s="192"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
     </row>
     <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="192"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="142"/>
     </row>
     <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="192"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
     </row>
     <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="189"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="192"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="142"/>
     </row>
     <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="192"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="142"/>
     </row>
     <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="192"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
     </row>
     <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="192"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="142"/>
     </row>
     <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="192"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="142"/>
     </row>
     <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="189"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="192"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
     </row>
     <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="189"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="192"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
     </row>
     <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="189"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="192"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="142"/>
     </row>
     <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="189"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="142"/>
     </row>
     <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="189"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="192"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="142"/>
     </row>
     <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="189"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="192"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="142"/>
     </row>
     <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="189"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="190"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="192"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="142"/>
     </row>
     <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="189"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="190"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="142"/>
     </row>
     <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="189"/>
-      <c r="C47" s="190"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="192"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="142"/>
     </row>
     <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="189"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="190"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="192"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="142"/>
     </row>
     <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="189"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="190"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="192"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="142"/>
     </row>
     <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="189"/>
-      <c r="C50" s="190"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="190"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="142"/>
     </row>
     <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="189"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="190"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="192"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="142"/>
     </row>
     <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="189"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="190"/>
-      <c r="E52" s="190"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="192"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="142"/>
     </row>
     <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="189"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="190"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="192"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="142"/>
     </row>
     <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="189"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="192"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="142"/>
     </row>
     <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="189"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="190"/>
-      <c r="E55" s="190"/>
-      <c r="F55" s="191"/>
-      <c r="G55" s="192"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="142"/>
     </row>
     <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="189"/>
-      <c r="C56" s="190"/>
-      <c r="D56" s="190"/>
-      <c r="E56" s="190"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="192"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="142"/>
     </row>
     <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="189"/>
-      <c r="C57" s="190"/>
-      <c r="D57" s="190"/>
-      <c r="E57" s="190"/>
-      <c r="F57" s="191"/>
-      <c r="G57" s="192"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="142"/>
     </row>
     <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="189"/>
-      <c r="C58" s="190"/>
-      <c r="D58" s="190"/>
-      <c r="E58" s="190"/>
-      <c r="F58" s="191"/>
-      <c r="G58" s="192"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="142"/>
     </row>
     <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="189"/>
-      <c r="C59" s="190"/>
-      <c r="D59" s="190"/>
-      <c r="E59" s="190"/>
-      <c r="F59" s="191"/>
-      <c r="G59" s="192"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="142"/>
     </row>
     <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="189"/>
-      <c r="C60" s="190"/>
-      <c r="D60" s="190"/>
-      <c r="E60" s="190"/>
-      <c r="F60" s="191"/>
-      <c r="G60" s="192"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="142"/>
     </row>
     <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="189"/>
-      <c r="C61" s="190"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="190"/>
-      <c r="F61" s="191"/>
-      <c r="G61" s="192"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="142"/>
     </row>
     <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="194"/>
-      <c r="C62" s="195"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="195"/>
-      <c r="F62" s="196"/>
-      <c r="G62" s="197"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="147"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
